--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Bangladesh/2017Nov/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35860" yWindow="-20720" windowWidth="28520" windowHeight="20720" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="2600" yWindow="80" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -29,15 +24,16 @@
     <sheet name="Interventions anemia" sheetId="30" r:id="rId15"/>
     <sheet name="Interventions wasting" sheetId="31" r:id="rId16"/>
     <sheet name="Interventions for children" sheetId="28" r:id="rId17"/>
-    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId18"/>
+    <sheet name="Interventions family planning" sheetId="34" r:id="rId18"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -3624,7 +3620,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="217">
   <si>
     <t>year</t>
   </si>
@@ -4242,6 +4238,39 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Condom</t>
+  </si>
+  <si>
+    <t>Male sterilization</t>
+  </si>
+  <si>
+    <t>Female sterilization</t>
+  </si>
+  <si>
+    <t>Pill</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Injectable</t>
+  </si>
+  <si>
+    <t>Implant</t>
+  </si>
+  <si>
+    <t>Fertility awareness</t>
+  </si>
+  <si>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
   </si>
 </sst>
 </file>
@@ -4256,7 +4285,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4369,6 +4398,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4463,7 +4503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="551">
+  <cellStyleXfs count="555">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5015,8 +5055,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5151,8 +5195,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="551">
+  <cellStyles count="555">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5428,6 +5477,8 @@
     <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5702,6 +5753,8 @@
     <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -7006,16 +7059,16 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C26" sqref="C26:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -7026,7 +7079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -7037,7 +7090,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7045,7 +7098,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="B4" s="33" t="s">
         <v>135</v>
       </c>
@@ -7053,7 +7106,7 @@
         <v>171684000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7062,7 +7115,7 @@
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="B6" s="33" t="s">
         <v>72</v>
       </c>
@@ -7070,7 +7123,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -7078,7 +7131,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
@@ -7086,14 +7139,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="B9" s="33"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="B10" s="10"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>141</v>
       </c>
@@ -7104,7 +7157,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="B12" t="s">
         <v>136</v>
       </c>
@@ -7112,7 +7165,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -7120,7 +7173,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="B14" t="s">
         <v>138</v>
       </c>
@@ -7128,7 +7181,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="B15" t="s">
         <v>139</v>
       </c>
@@ -7136,7 +7189,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="B16" t="s">
         <v>140</v>
       </c>
@@ -7144,11 +7197,11 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="B18" s="10"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
@@ -7159,7 +7212,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="B20" s="33" t="s">
         <v>106</v>
       </c>
@@ -7167,7 +7220,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>107</v>
       </c>
@@ -7175,7 +7228,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>108</v>
       </c>
@@ -7183,7 +7236,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="B23" s="33" t="s">
         <v>76</v>
       </c>
@@ -7191,10 +7244,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="B25" s="33"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>134</v>
       </c>
@@ -7205,7 +7258,7 @@
         <v>8634000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="51" t="s">
         <v>128</v>
       </c>
@@ -7213,7 +7266,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="B28" s="51" t="s">
         <v>129</v>
       </c>
@@ -7221,7 +7274,7 @@
         <v>12394000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="B29" s="51" t="s">
         <v>130</v>
       </c>
@@ -7229,11 +7282,11 @@
         <v>9148000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="B30" s="51"/>
       <c r="C30" s="53"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>125</v>
       </c>
@@ -7244,7 +7297,7 @@
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="50" t="s">
         <v>128</v>
       </c>
@@ -7252,7 +7305,7 @@
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="50" t="s">
         <v>129</v>
       </c>
@@ -7260,7 +7313,7 @@
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="50" t="s">
         <v>130</v>
       </c>
@@ -7272,6 +7325,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7283,14 +7341,14 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
@@ -7316,7 +7374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -7342,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="B3" s="83"/>
       <c r="C3" t="s">
         <v>194</v>
@@ -7364,7 +7422,7 @@
       </c>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="83" t="s">
         <v>6</v>
       </c>
@@ -7387,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="83"/>
       <c r="C5" t="s">
         <v>194</v>
@@ -7408,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="83" t="s">
         <v>7</v>
       </c>
@@ -7431,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="B7" s="83"/>
       <c r="C7" t="s">
         <v>194</v>
@@ -7452,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="83" t="s">
         <v>8</v>
       </c>
@@ -7475,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="B9" s="83"/>
       <c r="C9" t="s">
         <v>194</v>
@@ -7496,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="B10" s="83" t="s">
         <v>9</v>
       </c>
@@ -7519,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="B11" s="83"/>
       <c r="C11" t="s">
         <v>194</v>
@@ -7540,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="B12" s="79" t="s">
         <v>112</v>
       </c>
@@ -7563,14 +7621,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="77" t="s">
         <v>198</v>
       </c>
@@ -7596,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="B15" s="83"/>
       <c r="C15" t="s">
         <v>194</v>
@@ -7617,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="B16" s="83" t="s">
         <v>6</v>
       </c>
@@ -7640,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="83"/>
       <c r="C17" t="s">
         <v>194</v>
@@ -7661,7 +7719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="83" t="s">
         <v>7</v>
       </c>
@@ -7684,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="83"/>
       <c r="C19" t="s">
         <v>194</v>
@@ -7705,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="83" t="s">
         <v>8</v>
       </c>
@@ -7728,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="83"/>
       <c r="C21" t="s">
         <v>194</v>
@@ -7749,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="83" t="s">
         <v>9</v>
       </c>
@@ -7772,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="83"/>
       <c r="C23" t="s">
         <v>194</v>
@@ -7793,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="80" t="s">
         <v>112</v>
       </c>
@@ -7818,19 +7876,24 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7842,14 +7905,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>200</v>
       </c>
@@ -7866,7 +7929,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
@@ -7875,25 +7938,25 @@
       </c>
       <c r="E2" s="82"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="82"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="82"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="82"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -7902,7 +7965,7 @@
       </c>
       <c r="E6" s="82"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -7912,7 +7975,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
@@ -7921,38 +7984,38 @@
       </c>
       <c r="E9" s="82"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="82"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="82"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="82"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="82"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>203</v>
       </c>
@@ -7961,31 +8024,31 @@
       </c>
       <c r="E16" s="82"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="82"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="82"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="82"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="82"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -7995,6 +8058,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8009,12 +8077,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8031,7 +8099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8048,14 +8116,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8064,6 +8132,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8075,7 +8148,7 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
@@ -8086,7 +8159,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
@@ -8116,7 +8189,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -8145,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>176</v>
@@ -8172,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -8198,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
@@ -8224,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -8252,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -8281,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -8309,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -8338,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -8367,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
@@ -8393,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
@@ -8419,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
@@ -8445,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
@@ -8475,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>171</v>
@@ -8502,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -8529,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
@@ -8555,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
@@ -8582,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -8609,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -8638,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -8664,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -8690,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -8716,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="B26" t="s">
         <v>158</v>
       </c>
@@ -8742,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -8768,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="B28" t="s">
         <v>160</v>
       </c>
@@ -8794,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>164</v>
@@ -8821,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -8847,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -8873,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="B32" t="s">
         <v>167</v>
       </c>
@@ -8899,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -8925,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="B34" t="s">
         <v>169</v>
       </c>
@@ -8951,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="B35" t="s">
         <v>170</v>
       </c>
@@ -8977,11 +9050,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>88</v>
       </c>
@@ -9015,7 +9088,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="B38" s="4" t="s">
         <v>90</v>
       </c>
@@ -9046,7 +9119,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="B39" s="4" t="s">
         <v>91</v>
       </c>
@@ -9077,7 +9150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="B40" s="4" t="s">
         <v>109</v>
       </c>
@@ -9103,7 +9176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="B41" s="4" t="s">
         <v>87</v>
       </c>
@@ -9136,7 +9209,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="B42" s="12" t="s">
         <v>180</v>
       </c>
@@ -9167,7 +9240,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="B43" s="12" t="s">
         <v>181</v>
       </c>
@@ -9198,7 +9271,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="B44" s="12" t="s">
         <v>182</v>
       </c>
@@ -9229,16 +9302,21 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2" ht="15.75" customHeight="1">
       <c r="B49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9253,14 +9331,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -9280,7 +9358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -9300,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -9317,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -9337,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -9354,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -9374,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -9391,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -9411,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -9430,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -9450,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -9473,6 +9551,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9487,7 +9570,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
@@ -9496,7 +9579,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -9543,7 +9626,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -9590,7 +9673,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
@@ -9634,7 +9717,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -9678,7 +9761,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -9722,7 +9805,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -9766,7 +9849,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -9810,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -9854,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -9898,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -9942,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>158</v>
       </c>
@@ -9986,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>159</v>
       </c>
@@ -10030,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -10074,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -10118,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -10162,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>166</v>
       </c>
@@ -10206,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -10250,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -10294,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -10338,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>170</v>
       </c>
@@ -10382,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -10426,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="14" customHeight="1">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
@@ -10470,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="B23" s="60" t="s">
         <v>83</v>
       </c>
@@ -10514,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="B24" s="60" t="s">
         <v>173</v>
       </c>
@@ -10558,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="B25" s="60" t="s">
         <v>87</v>
       </c>
@@ -10602,7 +10685,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -10649,7 +10732,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -10693,7 +10776,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -10737,7 +10820,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -10781,7 +10864,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="B31" s="61" t="s">
         <v>180</v>
       </c>
@@ -10825,7 +10908,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="B32" s="61" t="s">
         <v>181</v>
       </c>
@@ -10869,7 +10952,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15">
       <c r="B33" s="61" t="s">
         <v>182</v>
       </c>
@@ -10913,22 +10996,27 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15">
       <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10943,13 +11031,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -10972,7 +11060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>191</v>
       </c>
@@ -10995,7 +11083,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -11020,6 +11108,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11030,11 +11123,11 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -11045,7 +11138,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -11071,7 +11164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -11097,7 +11190,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -11117,7 +11210,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -11139,7 +11232,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="60" t="s">
         <v>163</v>
@@ -11163,7 +11256,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -11189,7 +11282,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
@@ -11209,7 +11302,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>183</v>
       </c>
@@ -11232,7 +11325,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -11252,7 +11345,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -11278,7 +11371,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
@@ -11298,7 +11391,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -11321,7 +11414,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
@@ -11341,7 +11434,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -11367,7 +11460,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
@@ -11387,7 +11480,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>183</v>
       </c>
@@ -11410,7 +11503,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
@@ -11430,7 +11523,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -11456,7 +11549,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
@@ -11477,7 +11570,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -11501,7 +11594,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
@@ -11522,7 +11615,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
         <v>180</v>
       </c>
@@ -11549,7 +11642,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
         <v>68</v>
@@ -11571,7 +11664,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -11597,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
         <v>68</v>
@@ -11618,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>182</v>
       </c>
@@ -11644,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -11668,18 +11761,131 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13">
+      <c r="A2" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="88">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13">
+      <c r="A3" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13">
+      <c r="A4" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13">
+      <c r="A5" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13">
+      <c r="A6" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13">
+      <c r="A7" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="88">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13">
+      <c r="A8" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13">
+      <c r="A9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13">
+      <c r="A10" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="88">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -11687,7 +11893,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -11701,7 +11907,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -11715,7 +11921,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -11729,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -11743,7 +11949,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -11757,7 +11963,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -11771,7 +11977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>84</v>
       </c>
@@ -11785,7 +11991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
@@ -11799,7 +12005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -11813,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>173</v>
       </c>
@@ -11827,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -11841,7 +12047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -11855,7 +12061,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -11869,7 +12075,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -11883,7 +12089,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>175</v>
       </c>
@@ -11897,7 +12103,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -11911,7 +12117,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -11925,7 +12131,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -11939,7 +12145,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -11953,7 +12159,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -11967,7 +12173,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -11981,7 +12187,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -11995,7 +12201,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -12009,7 +12215,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -12023,7 +12229,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -12037,7 +12243,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -12051,7 +12257,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -12065,7 +12271,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12079,7 +12285,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -12093,7 +12299,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -12107,7 +12313,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -12121,7 +12327,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -12135,7 +12341,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -12149,7 +12355,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>109</v>
       </c>
@@ -12163,7 +12369,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>180</v>
       </c>
@@ -12177,7 +12383,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>181</v>
       </c>
@@ -12191,7 +12397,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>182</v>
       </c>
@@ -12205,7 +12411,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -12219,7 +12425,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>179</v>
       </c>
@@ -12234,7 +12440,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>189</v>
       </c>
@@ -12249,7 +12455,7 @@
         <v>10.046400000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>190</v>
       </c>
@@ -12263,11 +12469,145 @@
         <f>179.97*AVERAGE('Incidence of conditions'!B6:F6)</f>
         <v>19.933477200000002</v>
       </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="86">
+        <v>0.09</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D42" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="86">
+        <v>0.02</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D43" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="86">
+        <v>0.08</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="86">
+        <v>0.18</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D45" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="86">
+        <v>0.02</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D46" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="86">
+        <v>0.45</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D47" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="86">
+        <v>0.03</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D48" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="86">
+        <v>0.11</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D49" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="86">
+        <v>0.01</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D50" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C51" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12276,10 +12616,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -12287,7 +12627,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12325,7 +12665,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -12367,7 +12707,7 @@
         <v>173766200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -12409,7 +12749,7 @@
         <v>175848400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -12451,7 +12791,7 @@
         <v>177930600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -12493,7 +12833,7 @@
         <v>180012800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -12535,7 +12875,7 @@
         <v>182095000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -12577,7 +12917,7 @@
         <v>183822800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -12619,7 +12959,7 @@
         <v>185550600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -12661,7 +13001,7 @@
         <v>187278400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -12703,7 +13043,7 @@
         <v>189006200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -12745,7 +13085,7 @@
         <v>190734000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -12787,7 +13127,7 @@
         <v>192287600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -12829,7 +13169,7 @@
         <v>193841200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -12871,7 +13211,7 @@
         <v>195394800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -12917,6 +13257,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12924,16 +13269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -12956,7 +13301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -12979,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13002,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -13025,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -13048,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13071,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -13094,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -13117,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -13140,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -13163,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -13186,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -13209,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -13232,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -13255,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -13278,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -13301,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -13324,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -13347,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -13370,7 +13715,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -13393,7 +13738,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -13416,7 +13761,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -13439,7 +13784,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -13462,7 +13807,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -13485,7 +13830,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -13508,7 +13853,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -13531,7 +13876,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -13561,6 +13906,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13572,9 +13922,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -13594,7 +13944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -13614,7 +13964,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -13634,7 +13984,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -13654,7 +14004,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -13679,7 +14029,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -13708,6 +14058,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13715,11 +14070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -13728,7 +14083,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -13745,7 +14100,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -13760,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -13773,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -13788,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -13803,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
@@ -13818,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>82</v>
@@ -13833,7 +14188,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>128</v>
@@ -13848,7 +14203,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>129</v>
@@ -13863,7 +14218,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>130</v>
@@ -13878,13 +14233,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -13899,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -13911,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -13925,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -13939,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -13953,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -13967,7 +14322,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -13981,7 +14336,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -13995,7 +14350,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -14009,7 +14364,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -14030,6 +14385,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14041,9 +14401,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14066,7 +14426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
@@ -14089,7 +14449,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -14110,7 +14470,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -14131,7 +14491,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -14152,7 +14512,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -14175,7 +14535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -14195,7 +14555,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
@@ -14215,7 +14575,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
@@ -14235,7 +14595,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -14258,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -14278,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -14298,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -14323,6 +14683,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14334,12 +14699,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -14359,7 +14724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -14380,7 +14745,7 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -14395,7 +14760,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -14412,7 +14777,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -14429,7 +14794,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -14446,14 +14811,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -14462,7 +14827,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
@@ -14482,7 +14847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -14499,7 +14864,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -14516,7 +14881,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -14533,7 +14898,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -14550,7 +14915,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -14567,7 +14932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -14584,7 +14949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -14605,6 +14970,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14619,7 +14989,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -14627,7 +14997,7 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -14656,7 +15026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -14685,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -14708,7 +15078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -14731,7 +15101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -14754,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -14780,7 +15150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -14803,7 +15173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -14826,7 +15196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -14849,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -14875,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -14898,7 +15268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -14921,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -14944,7 +15314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -14970,7 +15340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14993,7 +15363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -15016,7 +15386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -15039,7 +15409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -15065,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -15088,7 +15458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -15111,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -15134,7 +15504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -15163,7 +15533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -15186,7 +15556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
@@ -15209,7 +15579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
@@ -15232,7 +15602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -15258,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -15281,7 +15651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="C30" s="4" t="s">
         <v>183</v>
       </c>
@@ -15304,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="C31" s="4" t="s">
         <v>184</v>
       </c>
@@ -15327,7 +15697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -15353,7 +15723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -15376,7 +15746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="C34" s="4" t="s">
         <v>183</v>
       </c>
@@ -15399,7 +15769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
@@ -15422,7 +15792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -15448,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -15471,7 +15841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="C38" s="4" t="s">
         <v>183</v>
       </c>
@@ -15494,7 +15864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
@@ -15517,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -15543,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -15566,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
@@ -15589,7 +15959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
@@ -15612,7 +15982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -15641,7 +16011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
@@ -15664,7 +16034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
@@ -15687,7 +16057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9">
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
@@ -15710,7 +16080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9">
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -15736,7 +16106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9">
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
@@ -15759,7 +16129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
@@ -15782,7 +16152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
@@ -15805,7 +16175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -15831,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9">
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -15854,7 +16224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
@@ -15877,7 +16247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9">
       <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
@@ -15900,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -15926,7 +16296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
@@ -15949,7 +16319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9">
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
@@ -15972,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9">
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
@@ -15995,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -16021,7 +16391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9">
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -16044,7 +16414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9">
       <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
@@ -16067,7 +16437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
@@ -16090,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -16116,7 +16486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -16139,7 +16509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
@@ -16162,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
@@ -16185,7 +16555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -16211,7 +16581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -16234,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
@@ -16257,7 +16627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
@@ -16280,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -16309,7 +16679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="C77" s="4" t="s">
         <v>119</v>
       </c>
@@ -16332,7 +16702,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -16358,7 +16728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9">
       <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
@@ -16381,7 +16751,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
         <v>99</v>
       </c>
@@ -16407,7 +16777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
@@ -16430,7 +16800,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -16459,7 +16829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -16482,7 +16852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
@@ -16505,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
@@ -16528,12 +16898,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16548,7 +16923,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
@@ -16558,7 +16933,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -16581,7 +16956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -16602,7 +16977,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -16622,7 +16997,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -16645,7 +17020,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
@@ -16665,7 +17040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
@@ -16685,7 +17060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -16705,7 +17080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
@@ -16725,7 +17100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -16745,7 +17120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="77" t="s">
         <v>122</v>
       </c>
@@ -16768,7 +17143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="78"/>
       <c r="B13" s="76" t="s">
         <v>57</v>
@@ -16789,8 +17164,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14" customHeight="1"/>
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>187</v>
       </c>
@@ -16813,7 +17188,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>188</v>
       </c>
@@ -16840,5 +17215,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="80" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="2600" yWindow="80" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="2">
+    <comment ref="E46" authorId="2">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="2">
+    <comment ref="F46" authorId="2">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="2">
+    <comment ref="G46" authorId="2">
       <text>
         <r>
           <rPr>
@@ -708,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="2">
+    <comment ref="H46" authorId="2">
       <text>
         <r>
           <rPr>
@@ -732,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="2">
+    <comment ref="I46" authorId="2">
       <text>
         <r>
           <rPr>
@@ -756,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="2">
+    <comment ref="E47" authorId="2">
       <text>
         <r>
           <rPr>
@@ -780,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="2">
+    <comment ref="F47" authorId="2">
       <text>
         <r>
           <rPr>
@@ -804,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G38" authorId="2">
+    <comment ref="G47" authorId="2">
       <text>
         <r>
           <rPr>
@@ -828,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H38" authorId="2">
+    <comment ref="H47" authorId="2">
       <text>
         <r>
           <rPr>
@@ -852,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="2">
+    <comment ref="I47" authorId="2">
       <text>
         <r>
           <rPr>
@@ -876,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="2">
+    <comment ref="E48" authorId="2">
       <text>
         <r>
           <rPr>
@@ -900,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="2">
+    <comment ref="F48" authorId="2">
       <text>
         <r>
           <rPr>
@@ -924,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="2">
+    <comment ref="G48" authorId="2">
       <text>
         <r>
           <rPr>
@@ -948,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="2">
+    <comment ref="H48" authorId="2">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="2">
+    <comment ref="I48" authorId="2">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="2">
+    <comment ref="C50" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="2">
+    <comment ref="D50" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="2">
+    <comment ref="E50" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="2">
+    <comment ref="F50" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="2">
+    <comment ref="G50" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="2">
+    <comment ref="H50" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="2">
+    <comment ref="I50" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="2">
+    <comment ref="E51" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="2">
+    <comment ref="F51" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="2">
+    <comment ref="G51" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="2">
+    <comment ref="H51" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="2">
+    <comment ref="I51" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="2">
+    <comment ref="E52" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="2">
+    <comment ref="F52" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G43" authorId="2">
+    <comment ref="G52" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="2">
+    <comment ref="H52" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="2">
+    <comment ref="I52" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1404,7 +1404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="2">
+    <comment ref="E53" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="2">
+    <comment ref="F53" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G44" authorId="2">
+    <comment ref="G53" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1476,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="2">
+    <comment ref="H53" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1500,7 +1500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="2">
+    <comment ref="I53" authorId="2">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3620,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="217">
   <si>
     <t>year</t>
   </si>
@@ -4285,7 +4285,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4409,6 +4409,11 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4503,7 +4508,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="555">
+  <cellStyleXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5059,8 +5064,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5199,9 +5214,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="555">
+  <cellStyles count="565">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5479,6 +5495,11 @@
     <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5755,6 +5776,11 @@
     <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -8142,10 +8168,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -9051,262 +9077,495 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="59">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A37" s="10" t="s">
+      <c r="B37" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B38" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B39" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B40" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B41" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B42" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B43" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B44" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="35">
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="35">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F46" s="35">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G46" s="35">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H46" s="35">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I46" s="35">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B38" s="4" t="s">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F47" s="3">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G47" s="3">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H47" s="3">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I47" s="3">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B39" s="4" t="s">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F48" s="3">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G48" s="3">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H48" s="3">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I48" s="3">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B40" s="4" t="s">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="35">
-        <v>1</v>
-      </c>
-      <c r="F40" s="35">
-        <v>1</v>
-      </c>
-      <c r="G40" s="35">
-        <v>1</v>
-      </c>
-      <c r="H40" s="35">
-        <v>1</v>
-      </c>
-      <c r="I40" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B41" s="4" t="s">
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="35">
+        <v>1</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="35">
+        <v>1</v>
+      </c>
+      <c r="H49" s="35">
+        <v>1</v>
+      </c>
+      <c r="I49" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B42" s="12" t="s">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B51" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="71">
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="71">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F51" s="71">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="G42" s="71">
+      <c r="G51" s="71">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="H42" s="71">
+      <c r="H51" s="71">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
-      <c r="I42" s="71">
+      <c r="I51" s="71">
         <f>'Baseline year demographics'!$C$21</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B43" s="12" t="s">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="69">
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="69">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="F43" s="69">
+      <c r="F52" s="69">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="G43" s="69">
+      <c r="G52" s="69">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H52" s="69">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
-      <c r="I43" s="69">
+      <c r="I52" s="69">
         <f>'Baseline year demographics'!$C$22</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B44" s="12" t="s">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="69">
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="69">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F53" s="69">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="G44" s="69">
+      <c r="G53" s="69">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H53" s="69">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
-      <c r="I44" s="69">
+      <c r="I53" s="69">
         <f>'Baseline year demographics'!$C$20</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B49" s="4"/>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11776,8 +12035,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -11795,74 +12054,74 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="89">
         <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="89">
         <v>0.93</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="89">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="89">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="89">
         <v>0.98</v>
       </c>
     </row>
@@ -11881,7 +12140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Bangladesh/2017Nov/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="80" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="2600" yWindow="460" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="6" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -27,13 +32,13 @@
     <sheet name="Interventions family planning" sheetId="34" r:id="rId18"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -4402,12 +4407,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5192,14 +5199,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="555">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7062,13 +7069,13 @@
       <selection activeCell="C26" sqref="C26:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -7079,7 +7086,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -7090,7 +7097,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7098,7 +7105,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>135</v>
       </c>
@@ -7106,7 +7113,7 @@
         <v>171684000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7115,7 +7122,7 @@
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>72</v>
       </c>
@@ -7123,7 +7130,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -7131,7 +7138,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
@@ -7139,14 +7146,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="33"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>141</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>136</v>
       </c>
@@ -7165,7 +7172,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -7173,7 +7180,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>138</v>
       </c>
@@ -7181,7 +7188,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>139</v>
       </c>
@@ -7189,7 +7196,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>140</v>
       </c>
@@ -7197,11 +7204,11 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="33" t="s">
         <v>106</v>
       </c>
@@ -7220,7 +7227,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="33" t="s">
         <v>107</v>
       </c>
@@ -7228,7 +7235,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="33" t="s">
         <v>108</v>
       </c>
@@ -7236,7 +7243,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="33" t="s">
         <v>76</v>
       </c>
@@ -7244,10 +7251,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="33"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>134</v>
       </c>
@@ -7258,7 +7265,7 @@
         <v>8634000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>128</v>
       </c>
@@ -7266,7 +7273,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>129</v>
       </c>
@@ -7274,7 +7281,7 @@
         <v>12394000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="51" t="s">
         <v>130</v>
       </c>
@@ -7282,11 +7289,11 @@
         <v>9148000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="51"/>
       <c r="C30" s="53"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>125</v>
       </c>
@@ -7297,7 +7304,7 @@
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="50" t="s">
         <v>128</v>
       </c>
@@ -7305,7 +7312,7 @@
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
         <v>129</v>
       </c>
@@ -7313,7 +7320,7 @@
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
         <v>130</v>
       </c>
@@ -7325,11 +7332,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7341,14 +7343,14 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
@@ -7374,11 +7376,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="88" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7400,8 +7402,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="83"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="88"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7422,8 +7424,8 @@
       </c>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="83" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="88" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -7445,8 +7447,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="83"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="88"/>
       <c r="C5" t="s">
         <v>194</v>
       </c>
@@ -7466,8 +7468,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="83" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -7489,8 +7491,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="83"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="88"/>
       <c r="C7" t="s">
         <v>194</v>
       </c>
@@ -7510,8 +7512,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="83" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="88" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -7533,8 +7535,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="83"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="88"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -7554,8 +7556,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="83" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="88" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -7577,8 +7579,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="83"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="88"/>
       <c r="C11" t="s">
         <v>194</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="79" t="s">
         <v>112</v>
       </c>
@@ -7621,18 +7623,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="88" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
@@ -7654,8 +7656,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="83"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="88"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -7675,8 +7677,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="83" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="88" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
@@ -7698,8 +7700,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="83"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="88"/>
       <c r="C17" t="s">
         <v>194</v>
       </c>
@@ -7719,8 +7721,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="83" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="88" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
@@ -7742,8 +7744,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="83"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="88"/>
       <c r="C19" t="s">
         <v>194</v>
       </c>
@@ -7763,8 +7765,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="83" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="88" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
@@ -7786,8 +7788,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="83"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="88"/>
       <c r="C21" t="s">
         <v>194</v>
       </c>
@@ -7807,8 +7809,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="83" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="88" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
@@ -7830,8 +7832,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="83"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="88"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="80" t="s">
         <v>112</v>
       </c>
@@ -7876,24 +7878,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7905,14 +7902,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>200</v>
       </c>
@@ -7929,7 +7926,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
@@ -7938,25 +7935,25 @@
       </c>
       <c r="E2" s="82"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="82"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="82"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="82"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -7965,7 +7962,7 @@
       </c>
       <c r="E6" s="82"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -7975,7 +7972,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
@@ -7984,38 +7981,38 @@
       </c>
       <c r="E9" s="82"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="82"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="82"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="82"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="82"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>203</v>
       </c>
@@ -8024,31 +8021,31 @@
       </c>
       <c r="E16" s="82"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="82"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="82"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="82"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="82"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -8058,11 +8055,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8077,12 +8069,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8099,7 +8091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8116,14 +8108,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8132,11 +8124,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8148,7 +8135,7 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
@@ -8159,7 +8146,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
@@ -8189,7 +8176,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -8218,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>176</v>
@@ -8245,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -8271,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
@@ -8297,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -8325,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -8354,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -8382,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -8411,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -8440,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
@@ -8466,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
@@ -8492,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
@@ -8518,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
@@ -8548,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>171</v>
@@ -8575,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -8602,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
@@ -8628,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
@@ -8655,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -8682,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -8711,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -8737,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -8763,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -8789,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>158</v>
       </c>
@@ -8815,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -8841,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>160</v>
       </c>
@@ -8867,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>164</v>
@@ -8894,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -8920,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -8946,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>167</v>
       </c>
@@ -8972,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -8998,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>169</v>
       </c>
@@ -9024,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>170</v>
       </c>
@@ -9050,11 +9037,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>88</v>
       </c>
@@ -9088,7 +9075,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>90</v>
       </c>
@@ -9119,7 +9106,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>91</v>
       </c>
@@ -9150,7 +9137,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>109</v>
       </c>
@@ -9176,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>87</v>
       </c>
@@ -9209,7 +9196,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
         <v>180</v>
       </c>
@@ -9240,7 +9227,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="12" t="s">
         <v>181</v>
       </c>
@@ -9271,7 +9258,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="12" t="s">
         <v>182</v>
       </c>
@@ -9302,21 +9289,16 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1">
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9331,14 +9313,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -9358,7 +9340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -9378,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -9395,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -9415,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -9432,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -9452,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -9469,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -9489,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -9508,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -9528,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -9551,11 +9533,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9570,7 +9547,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
@@ -9579,7 +9556,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1">
+    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -9626,7 +9603,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -9673,7 +9650,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
@@ -9717,7 +9694,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -9761,7 +9738,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -9805,7 +9782,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -9849,7 +9826,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -9893,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -9937,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -9981,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -10025,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>158</v>
       </c>
@@ -10069,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>159</v>
       </c>
@@ -10113,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -10157,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -10201,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -10245,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>166</v>
       </c>
@@ -10289,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -10333,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -10377,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -10421,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>170</v>
       </c>
@@ -10465,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -10509,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1">
+    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
@@ -10553,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="60" t="s">
         <v>83</v>
       </c>
@@ -10597,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="60" t="s">
         <v>173</v>
       </c>
@@ -10641,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="60" t="s">
         <v>87</v>
       </c>
@@ -10685,7 +10662,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -10732,7 +10709,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -10776,7 +10753,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -10820,7 +10797,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -10864,7 +10841,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" s="61" t="s">
         <v>180</v>
       </c>
@@ -10908,7 +10885,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B32" s="61" t="s">
         <v>181</v>
       </c>
@@ -10952,7 +10929,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="61" t="s">
         <v>182</v>
       </c>
@@ -10996,27 +10973,22 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11031,13 +11003,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -11060,7 +11032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>191</v>
       </c>
@@ -11083,7 +11055,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -11108,11 +11080,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11127,7 +11094,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -11138,7 +11105,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -11164,7 +11131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -11190,7 +11157,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -11210,7 +11177,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -11232,7 +11199,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="60" t="s">
         <v>163</v>
@@ -11256,7 +11223,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -11282,7 +11249,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
@@ -11302,7 +11269,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>183</v>
       </c>
@@ -11325,7 +11292,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -11345,7 +11312,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -11371,7 +11338,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
@@ -11391,7 +11358,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -11414,7 +11381,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
@@ -11434,7 +11401,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -11460,7 +11427,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
@@ -11480,7 +11447,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>183</v>
       </c>
@@ -11503,7 +11470,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
@@ -11523,7 +11490,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -11549,7 +11516,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
@@ -11570,7 +11537,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -11594,7 +11561,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
@@ -11615,7 +11582,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>180</v>
       </c>
@@ -11642,7 +11609,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
         <v>68</v>
@@ -11664,7 +11631,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -11690,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
         <v>68</v>
@@ -11711,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>182</v>
       </c>
@@ -11737,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -11761,11 +11728,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11780,13 +11742,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>215</v>
       </c>
@@ -11794,86 +11756,81 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="87">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13">
-      <c r="A3" s="84" t="s">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13">
-      <c r="A4" s="84" t="s">
+      <c r="B3" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13">
-      <c r="A5" s="84" t="s">
+      <c r="B4" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13">
-      <c r="A6" s="84" t="s">
+      <c r="B5" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="13">
-      <c r="A7" s="84" t="s">
+      <c r="B6" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="87">
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13">
-      <c r="A9" s="84" t="s">
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13">
-      <c r="A10" s="84" t="s">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="87">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11881,11 +11838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -11893,7 +11850,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -11907,7 +11864,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -11921,7 +11878,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -11935,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -11949,7 +11906,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -11963,7 +11920,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -11977,7 +11934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>84</v>
       </c>
@@ -11991,7 +11948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
@@ -12005,7 +11962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -12019,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
         <v>173</v>
       </c>
@@ -12033,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -12047,7 +12004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -12061,7 +12018,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -12075,7 +12032,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -12089,7 +12046,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>175</v>
       </c>
@@ -12103,7 +12060,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -12117,7 +12074,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -12131,7 +12088,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -12145,7 +12102,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -12159,7 +12116,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -12173,7 +12130,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -12187,7 +12144,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -12201,7 +12158,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -12215,7 +12172,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -12229,7 +12186,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -12243,7 +12200,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -12257,7 +12214,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -12271,7 +12228,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -12285,7 +12242,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -12299,7 +12256,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -12313,7 +12270,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -12327,7 +12284,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -12341,7 +12298,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -12355,7 +12312,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>109</v>
       </c>
@@ -12369,7 +12326,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>180</v>
       </c>
@@ -12383,7 +12340,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>181</v>
       </c>
@@ -12397,7 +12354,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>182</v>
       </c>
@@ -12411,7 +12368,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -12425,7 +12382,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>179</v>
       </c>
@@ -12440,7 +12397,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>189</v>
       </c>
@@ -12455,7 +12412,7 @@
         <v>10.046400000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>190</v>
       </c>
@@ -12470,144 +12427,139 @@
         <v>19.933477200000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A42" s="84" t="s">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="86">
+      <c r="B42" s="85">
         <v>0.09</v>
       </c>
       <c r="C42" s="14">
         <v>0.85</v>
       </c>
-      <c r="D42" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A43" s="84" t="s">
+      <c r="D42" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="86">
+      <c r="B43" s="85">
         <v>0.02</v>
       </c>
       <c r="C43" s="14">
         <v>0.85</v>
       </c>
-      <c r="D43" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A44" s="84" t="s">
+      <c r="D43" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="86">
+      <c r="B44" s="85">
         <v>0.08</v>
       </c>
       <c r="C44" s="14">
         <v>0.85</v>
       </c>
-      <c r="D44" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A45" s="84" t="s">
+      <c r="D44" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B45" s="86">
+      <c r="B45" s="85">
         <v>0.18</v>
       </c>
       <c r="C45" s="14">
         <v>0.85</v>
       </c>
-      <c r="D45" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="D45" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="86">
+      <c r="B46" s="85">
         <v>0.02</v>
       </c>
       <c r="C46" s="14">
         <v>0.85</v>
       </c>
-      <c r="D46" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A47" s="84" t="s">
+      <c r="D46" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="86">
+      <c r="B47" s="85">
         <v>0.45</v>
       </c>
       <c r="C47" s="14">
         <v>0.85</v>
       </c>
-      <c r="D47" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="84" t="s">
+      <c r="D47" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="86">
+      <c r="B48" s="85">
         <v>0.03</v>
       </c>
       <c r="C48" s="14">
         <v>0.85</v>
       </c>
-      <c r="D48" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A49" s="84" t="s">
+      <c r="D48" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="86">
+      <c r="B49" s="85">
         <v>0.11</v>
       </c>
       <c r="C49" s="14">
         <v>0.85</v>
       </c>
-      <c r="D49" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A50" s="84" t="s">
+      <c r="D49" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="86">
+      <c r="B50" s="85">
         <v>0.01</v>
       </c>
       <c r="C50" s="14">
         <v>0.85</v>
       </c>
-      <c r="D50" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C51" s="87"/>
+      <c r="D50" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12619,7 +12571,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -12627,7 +12579,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12665,7 +12617,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -12707,7 +12659,7 @@
         <v>173766200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -12749,7 +12701,7 @@
         <v>175848400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -12791,7 +12743,7 @@
         <v>177930600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -12833,7 +12785,7 @@
         <v>180012800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -12875,7 +12827,7 @@
         <v>182095000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -12917,7 +12869,7 @@
         <v>183822800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -12959,7 +12911,7 @@
         <v>185550600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -13001,7 +12953,7 @@
         <v>187278400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -13043,7 +12995,7 @@
         <v>189006200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -13085,7 +13037,7 @@
         <v>190734000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -13127,7 +13079,7 @@
         <v>192287600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -13169,7 +13121,7 @@
         <v>193841200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -13211,7 +13163,7 @@
         <v>195394800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -13257,11 +13209,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13273,12 +13220,12 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -13301,7 +13248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13324,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13347,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -13370,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -13393,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13416,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -13439,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -13462,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -13485,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -13508,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -13531,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -13554,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -13577,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -13600,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -13623,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -13646,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -13669,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -13692,7 +13639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -13715,7 +13662,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -13738,7 +13685,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -13761,7 +13708,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -13784,7 +13731,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -13807,7 +13754,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -13830,7 +13777,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -13853,7 +13800,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -13876,7 +13823,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -13906,11 +13853,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13922,9 +13864,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -13944,7 +13886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -13964,7 +13906,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -13984,7 +13926,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -14004,7 +13946,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -14029,7 +13971,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -14058,11 +14000,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14074,7 +14011,7 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -14083,7 +14020,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -14100,7 +14037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -14115,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -14128,7 +14065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -14143,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -14158,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
@@ -14173,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>82</v>
@@ -14188,7 +14125,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>128</v>
@@ -14203,7 +14140,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>129</v>
@@ -14218,7 +14155,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>130</v>
@@ -14233,13 +14170,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -14254,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -14266,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -14280,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -14294,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -14308,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -14322,7 +14259,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -14336,7 +14273,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -14350,7 +14287,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -14364,7 +14301,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -14385,11 +14322,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14401,9 +14333,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14426,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
@@ -14449,7 +14381,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -14470,7 +14402,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -14491,7 +14423,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -14512,7 +14444,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -14535,7 +14467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -14555,7 +14487,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
@@ -14575,7 +14507,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
@@ -14595,7 +14527,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -14618,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -14638,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -14658,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -14683,11 +14615,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14699,12 +14626,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -14724,7 +14651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -14745,7 +14672,7 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -14760,7 +14687,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -14777,7 +14704,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -14794,7 +14721,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -14811,14 +14738,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -14827,7 +14754,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
@@ -14847,7 +14774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -14864,7 +14791,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -14881,7 +14808,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -14898,7 +14825,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -14915,7 +14842,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -14932,7 +14859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -14949,7 +14876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -14970,11 +14897,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14989,7 +14911,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -14997,7 +14919,7 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -15026,7 +14948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -15055,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -15078,7 +15000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -15101,7 +15023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -15124,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -15150,7 +15072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -15173,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -15196,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -15219,7 +15141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -15245,7 +15167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -15268,7 +15190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -15291,7 +15213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -15314,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -15340,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15363,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -15386,7 +15308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -15409,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -15435,7 +15357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -15458,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -15481,7 +15403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -15504,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -15533,7 +15455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -15556,7 +15478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
@@ -15579,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
@@ -15602,7 +15524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -15628,7 +15550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -15651,7 +15573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>183</v>
       </c>
@@ -15674,7 +15596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>184</v>
       </c>
@@ -15697,7 +15619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -15723,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -15746,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
         <v>183</v>
       </c>
@@ -15769,7 +15691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
@@ -15792,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -15818,7 +15740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -15841,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
         <v>183</v>
       </c>
@@ -15864,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
@@ -15887,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -15913,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -15936,7 +15858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
@@ -15959,7 +15881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
@@ -15982,7 +15904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -16011,7 +15933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
@@ -16034,7 +15956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
@@ -16057,7 +15979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
@@ -16080,7 +16002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -16106,7 +16028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
@@ -16129,7 +16051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
@@ -16152,7 +16074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
@@ -16175,7 +16097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -16201,7 +16123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -16224,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
@@ -16247,7 +16169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
@@ -16270,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -16296,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
@@ -16319,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
@@ -16342,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
@@ -16365,7 +16287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -16391,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -16414,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
@@ -16437,7 +16359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
@@ -16460,7 +16382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -16486,7 +16408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -16509,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
@@ -16532,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
@@ -16555,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -16581,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -16604,7 +16526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
@@ -16627,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
@@ -16650,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -16679,7 +16601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C77" s="4" t="s">
         <v>119</v>
       </c>
@@ -16702,7 +16624,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -16728,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
@@ -16751,7 +16673,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>99</v>
       </c>
@@ -16777,7 +16699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
@@ -16800,7 +16722,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -16829,7 +16751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -16852,7 +16774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
@@ -16875,7 +16797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
@@ -16898,17 +16820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16923,7 +16840,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
@@ -16933,7 +16850,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -16956,7 +16873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -16977,7 +16894,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -16997,7 +16914,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -17020,7 +16937,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
@@ -17040,7 +16957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
@@ -17060,7 +16977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -17080,7 +16997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
@@ -17100,7 +17017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -17120,7 +17037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>122</v>
       </c>
@@ -17143,7 +17060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="76" t="s">
         <v>57</v>
@@ -17164,8 +17081,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1"/>
-    <row r="15" spans="1:7">
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>187</v>
       </c>
@@ -17188,7 +17105,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>188</v>
       </c>
@@ -17215,10 +17132,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="460" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="6" activeTab="18"/>
+    <workbookView xWindow="2600" yWindow="460" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="Odds ratios" sheetId="27" r:id="rId9"/>
     <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId10"/>
     <sheet name="IYCF packages" sheetId="33" r:id="rId11"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId12"/>
-    <sheet name="Interventions target population" sheetId="21" r:id="rId13"/>
-    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId14"/>
-    <sheet name="Interventions anemia" sheetId="30" r:id="rId15"/>
-    <sheet name="Interventions wasting" sheetId="31" r:id="rId16"/>
-    <sheet name="Interventions for children" sheetId="28" r:id="rId17"/>
-    <sheet name="Interventions family planning" sheetId="34" r:id="rId18"/>
-    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId19"/>
+    <sheet name="IYCF target pop" sheetId="35" r:id="rId12"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId13"/>
+    <sheet name="Interventions target population" sheetId="21" r:id="rId14"/>
+    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId15"/>
+    <sheet name="Interventions anemia" sheetId="30" r:id="rId16"/>
+    <sheet name="Interventions wasting" sheetId="31" r:id="rId17"/>
+    <sheet name="Interventions for children" sheetId="28" r:id="rId18"/>
+    <sheet name="Interventions family planning" sheetId="34" r:id="rId19"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -3625,7 +3626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="217">
   <si>
     <t>year</t>
   </si>
@@ -7878,16 +7879,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8060,6 +8061,109 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8127,7 +8231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
@@ -9302,7 +9406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -9536,7 +9640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -10992,7 +11096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11083,7 +11187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11731,7 +11835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11831,735 +11935,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D2" s="14">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0.621</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0.247</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D6" s="14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="63">
-        <v>0</v>
-      </c>
-      <c r="C7" s="64">
-        <v>0.85</v>
-      </c>
-      <c r="D7" s="70">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="34">
-        <v>0</v>
-      </c>
-      <c r="C8" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="19">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="63">
-        <v>0</v>
-      </c>
-      <c r="C9" s="64">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="34">
-        <v>0</v>
-      </c>
-      <c r="C10" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D11" s="14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="65">
-        <v>0</v>
-      </c>
-      <c r="C12" s="66">
-        <v>0.85</v>
-      </c>
-      <c r="D12" s="66">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="65">
-        <v>0</v>
-      </c>
-      <c r="C14" s="66">
-        <v>0.85</v>
-      </c>
-      <c r="D14" s="66">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="14">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="14">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="14">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="14">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="14">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="14">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="14">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="14">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="14">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="14">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="19">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="19">
-        <v>0</v>
-      </c>
-      <c r="C36" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D36" s="19">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="19">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="C38" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D38" s="19">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="14">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D39" s="19">
-        <f>180</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="14">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D40" s="19">
-        <f>30*AVERAGE('Incidence of conditions'!B5:F5)</f>
-        <v>10.046400000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D41" s="19">
-        <f>179.97*AVERAGE('Incidence of conditions'!B6:F6)</f>
-        <v>19.933477200000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="85">
-        <v>0.09</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D42" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="85">
-        <v>0.02</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D43" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="85">
-        <v>0.08</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D44" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B45" s="85">
-        <v>0.18</v>
-      </c>
-      <c r="C45" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D45" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="85">
-        <v>0.02</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D46" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="85">
-        <v>0.45</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D47" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="85">
-        <v>0.03</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D48" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="85">
-        <v>0.11</v>
-      </c>
-      <c r="C49" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D49" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="85">
-        <v>0.01</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D50" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="86"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13204,6 +12579,735 @@
       <c r="L15" s="55">
         <v>196948400</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="14">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.621</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.247</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="63">
+        <v>0</v>
+      </c>
+      <c r="C7" s="64">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="63">
+        <v>0</v>
+      </c>
+      <c r="C9" s="64">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="34">
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="65">
+        <v>0</v>
+      </c>
+      <c r="C12" s="66">
+        <v>0.85</v>
+      </c>
+      <c r="D12" s="66">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="65">
+        <v>0</v>
+      </c>
+      <c r="C14" s="66">
+        <v>0.85</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="14">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="14">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="14">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="19">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="19">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="14">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D39" s="19">
+        <f>180</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D40" s="19">
+        <f>30*AVERAGE('Incidence of conditions'!B5:F5)</f>
+        <v>10.046400000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D41" s="19">
+        <f>179.97*AVERAGE('Incidence of conditions'!B6:F6)</f>
+        <v>19.933477200000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="85">
+        <v>0.09</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D42" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="85">
+        <v>0.02</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D43" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="85">
+        <v>0.08</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="85">
+        <v>0.18</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D45" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="85">
+        <v>0.02</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D46" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="85">
+        <v>0.45</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D47" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="85">
+        <v>0.03</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D48" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="85">
+        <v>0.11</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D49" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="85">
+        <v>0.01</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D50" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="460" windowWidth="20580" windowHeight="13460" tabRatio="500" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25480" windowHeight="15200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,54 +121,6 @@
           </rPr>
           <t xml:space="preserve">
 per 100,000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction of pregnancies ending in spontaneous abortion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
@@ -192,7 +144,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Per 1000 live births</t>
+Fraction of pregnancies ending in spontaneous abortion</t>
         </r>
       </text>
     </comment>
@@ -216,7 +168,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Per 1000 live births</t>
+Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
@@ -244,7 +196,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3626,7 +3626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="219">
   <si>
     <t>year</t>
   </si>
@@ -4277,6 +4277,12 @@
   </si>
   <si>
     <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>fraction PW attending health facility</t>
+  </si>
+  <si>
+    <t>fraction children attending health facility</t>
   </si>
 </sst>
 </file>
@@ -5068,7 +5074,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5208,6 +5214,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="555">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7064,10 +7071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7119,7 +7126,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="18">
-        <f>(C3+C3*C13/(1000-C13))/(1-C12)</f>
+        <f>(C3+C3*C15/(1000-C15))/(1-C14)</f>
         <v>3677298.8269880489</v>
       </c>
     </row>
@@ -7148,184 +7155,200 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="33"/>
+      <c r="B9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="89">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="89">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C13" s="19">
         <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="19">
-        <v>25.36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="19">
-        <v>25.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="19">
-        <v>34.68</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="19">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="19">
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C18" s="19">
         <v>39.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C21" s="44">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="44">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="44">
-        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="44">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C25" s="44">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="33"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B28" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C28" s="52">
         <v>8634000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="51" t="s">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C29" s="52">
         <v>13550000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="51" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C30" s="52">
         <v>12394000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="51" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C31" s="52">
         <v>9148000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="51"/>
-      <c r="C30" s="53"/>
-    </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="53"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B34" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C34" s="43">
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="50" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C35" s="43">
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="50" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C36" s="43">
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="50" t="s">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C37" s="43">
         <v>1.2542476833820825E-2</v>
       </c>
     </row>
@@ -8063,8 +8086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8092,6 +8115,7 @@
         <v>81</v>
       </c>
       <c r="B2">
+        <f>'Baseline year demographics'!C9</f>
         <v>0.5</v>
       </c>
       <c r="C2">
@@ -8106,6 +8130,7 @@
         <v>6</v>
       </c>
       <c r="B3">
+        <f>'Baseline year demographics'!C10</f>
         <v>0.3</v>
       </c>
       <c r="C3">
@@ -8120,6 +8145,7 @@
         <v>7</v>
       </c>
       <c r="B4">
+        <f>'Baseline year demographics'!C10</f>
         <v>0.3</v>
       </c>
       <c r="C4">
@@ -8134,6 +8160,7 @@
         <v>8</v>
       </c>
       <c r="B5">
+        <f>'Baseline year demographics'!C10</f>
         <v>0.3</v>
       </c>
       <c r="C5">
@@ -8148,6 +8175,7 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <f>'Baseline year demographics'!C10</f>
         <v>0.3</v>
       </c>
       <c r="C6">
@@ -9159,23 +9187,23 @@
         <v>0</v>
       </c>
       <c r="E37" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="F37" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="G37" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="H37" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="I37" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
     </row>
@@ -9190,23 +9218,23 @@
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="F38" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="G38" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="H38" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="I38" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
     </row>
@@ -9221,23 +9249,23 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="F39" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="G39" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="H39" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="I39" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
     </row>
@@ -9311,23 +9339,23 @@
         <v>0</v>
       </c>
       <c r="E42" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="F42" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="G42" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="H42" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="I42" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
     </row>
@@ -9342,23 +9370,23 @@
         <v>0</v>
       </c>
       <c r="E43" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="F43" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="G43" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="H43" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="I43" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
     </row>
@@ -9373,23 +9401,23 @@
         <v>0</v>
       </c>
       <c r="E44" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="F44" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="G44" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="H44" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="I44" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
     </row>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25480" windowHeight="15200" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25480" windowHeight="15200" tabRatio="500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3544,7 +3544,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3626,7 +3626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="219">
   <si>
     <t>year</t>
   </si>
@@ -4517,7 +4517,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="555">
+  <cellStyleXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4529,6 +4529,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5216,7 +5226,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="555">
+  <cellStyles count="565">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5494,6 +5504,11 @@
     <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5770,6 +5785,11 @@
     <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -7073,8 +7093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7361,10 +7381,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7449,38 +7469,44 @@
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E4" s="73">
+        <f t="shared" ref="E4:H4" si="0">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F4" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G4" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H4" s="73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D5" s="73">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E5" s="73">
         <v>3.07</v>
-      </c>
-      <c r="F4" s="73">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G4" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="H4" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="88"/>
-      <c r="C5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="73">
-        <v>2.17</v>
-      </c>
-      <c r="E5" s="73">
-        <v>2.48</v>
       </c>
       <c r="F5" s="73">
         <v>1.1499999999999999</v>
@@ -7493,23 +7519,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="88" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="88"/>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D6" s="73">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="73">
-        <v>1.5</v>
+        <v>2.48</v>
       </c>
       <c r="F6" s="73">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G6" s="73">
-        <v>1.1499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="H6" s="75">
         <v>1</v>
@@ -7518,27 +7542,32 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="88"/>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D7" s="73">
-        <v>1</v>
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="E7" s="73">
-        <v>1.5</v>
+        <f t="shared" ref="E7:H7" si="1">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="F7" s="73">
-        <v>1.25</v>
+        <f t="shared" si="1"/>
+        <v>1.0098057976734853</v>
       </c>
       <c r="G7" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7" s="75">
+        <f t="shared" si="1"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H7" s="73">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>193</v>
@@ -7547,10 +7576,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="73">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="G8" s="73">
         <v>1.1499999999999999</v>
@@ -7568,10 +7597,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="73">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="G9" s="73">
         <v>1.1000000000000001</v>
@@ -7581,85 +7610,104 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E10" s="73">
+        <f t="shared" ref="E10:H10" si="2">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F10" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G10" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H10" s="73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="73">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G11" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H11" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="88"/>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="73">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>1</v>
+      </c>
+      <c r="F12" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G12" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H12" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="88"/>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E13" s="73">
+        <f t="shared" ref="E13:H13" si="3">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F13" s="73">
+        <f t="shared" si="3"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G13" s="73">
+        <f t="shared" si="3"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H13" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="88" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="73">
-        <v>1</v>
-      </c>
-      <c r="E10" s="73">
-        <v>1</v>
-      </c>
-      <c r="F10" s="73">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H10" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="88"/>
-      <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="73">
-        <v>1</v>
-      </c>
-      <c r="E11" s="73">
-        <v>1</v>
-      </c>
-      <c r="F11" s="73">
-        <v>1</v>
-      </c>
-      <c r="G11" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H11" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="E12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="F12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="G12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="H12" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>193</v>
@@ -7671,12 +7719,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="73">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G14" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="H14" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H14" s="75">
         <v>1</v>
       </c>
     </row>
@@ -7692,150 +7740,147 @@
         <v>1</v>
       </c>
       <c r="F15" s="73">
+        <v>1</v>
+      </c>
+      <c r="G15" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H15" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="88"/>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E16" s="73">
+        <f>E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F16" s="73">
+        <f t="shared" ref="F16:H16" si="4">F17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G16" s="73">
+        <f t="shared" si="4"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H16" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="81">
         <v>1.05</v>
       </c>
-      <c r="G15" s="73">
+      <c r="E17" s="81">
         <v>1.05</v>
       </c>
-      <c r="H15" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F17" s="81">
+        <v>1.05</v>
+      </c>
+      <c r="G17" s="81">
+        <v>1.05</v>
+      </c>
+      <c r="H17" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="73">
-        <v>1</v>
-      </c>
-      <c r="E16" s="73">
-        <v>1</v>
-      </c>
-      <c r="F16" s="73">
+      <c r="D19" s="73">
+        <v>1</v>
+      </c>
+      <c r="E19" s="73">
+        <v>1</v>
+      </c>
+      <c r="F19" s="73">
         <v>1.05</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G19" s="73">
         <v>1.05</v>
       </c>
-      <c r="H16" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="88"/>
-      <c r="C17" t="s">
+      <c r="H19" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="88"/>
+      <c r="C20" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="73">
-        <v>1</v>
-      </c>
-      <c r="E17" s="73">
-        <v>1</v>
-      </c>
-      <c r="F17" s="73">
+      <c r="D20" s="73">
+        <v>1</v>
+      </c>
+      <c r="E20" s="73">
+        <v>1</v>
+      </c>
+      <c r="F20" s="73">
         <v>1.05</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G20" s="73">
         <v>1.05</v>
       </c>
-      <c r="H17" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="73">
-        <v>1</v>
-      </c>
-      <c r="E18" s="73">
-        <v>1</v>
-      </c>
-      <c r="F18" s="73">
-        <v>2.5</v>
-      </c>
-      <c r="G18" s="73">
-        <v>2.5</v>
-      </c>
-      <c r="H18" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="88"/>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="73">
-        <v>1</v>
-      </c>
-      <c r="E19" s="73">
-        <v>1</v>
-      </c>
-      <c r="F19" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="G19" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="H19" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="73">
-        <v>1</v>
-      </c>
-      <c r="E20" s="73">
-        <v>1</v>
-      </c>
-      <c r="F20" s="73">
-        <v>2</v>
-      </c>
-      <c r="G20" s="73">
-        <v>2</v>
-      </c>
       <c r="H20" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="88"/>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D21" s="73">
-        <v>1</v>
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="E21" s="73">
-        <v>1</v>
+        <f t="shared" ref="E21:H21" si="5">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="F21" s="73">
-        <v>1.9</v>
+        <f t="shared" si="5"/>
+        <v>1.0098057976734853</v>
       </c>
       <c r="G21" s="73">
-        <v>1.9</v>
+        <f t="shared" si="5"/>
+        <v>1.0098057976734853</v>
       </c>
       <c r="H21" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>193</v>
@@ -7847,16 +7892,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="73">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G22" s="73">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="H22" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="88"/>
       <c r="C23" t="s">
         <v>194</v>
@@ -7868,50 +7913,286 @@
         <v>1</v>
       </c>
       <c r="F23" s="73">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G23" s="73">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="H23" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="80" t="s">
-        <v>112</v>
-      </c>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="88"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E24" s="73">
+        <f t="shared" ref="E24:H24" si="6">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F24" s="73">
+        <f t="shared" si="6"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G24" s="73">
+        <f t="shared" si="6"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H24" s="73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="73">
+        <v>1</v>
+      </c>
+      <c r="E25" s="73">
+        <v>1</v>
+      </c>
+      <c r="F25" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="88"/>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="73">
+        <v>1</v>
+      </c>
+      <c r="E26" s="73">
+        <v>1</v>
+      </c>
+      <c r="F26" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="G26" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="H26" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="88"/>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E27" s="73">
+        <f t="shared" ref="E27:H27" si="7">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F27" s="73">
+        <f t="shared" si="7"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G27" s="73">
+        <f t="shared" si="7"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H27" s="73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="73">
+        <v>1</v>
+      </c>
+      <c r="E28" s="73">
+        <v>1</v>
+      </c>
+      <c r="F28" s="73">
+        <v>2</v>
+      </c>
+      <c r="G28" s="73">
+        <v>2</v>
+      </c>
+      <c r="H28" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="88"/>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="73">
+        <v>1</v>
+      </c>
+      <c r="E29" s="73">
+        <v>1</v>
+      </c>
+      <c r="F29" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="G29" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="H29" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="88"/>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E30" s="73">
+        <f t="shared" ref="E30:H30" si="8">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F30" s="73">
+        <f t="shared" si="8"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G30" s="73">
+        <f t="shared" si="8"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H30" s="73">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="73">
+        <v>1</v>
+      </c>
+      <c r="E31" s="73">
+        <v>1</v>
+      </c>
+      <c r="F31" s="73">
+        <v>1</v>
+      </c>
+      <c r="G31" s="73">
+        <v>2</v>
+      </c>
+      <c r="H31" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="88"/>
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="73">
+        <v>1</v>
+      </c>
+      <c r="E32" s="73">
+        <v>1</v>
+      </c>
+      <c r="F32" s="73">
+        <v>1</v>
+      </c>
+      <c r="G32" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="H32" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="88"/>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E33" s="73">
+        <f t="shared" ref="E33:H33" si="9">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F33" s="73">
+        <f t="shared" si="9"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G33" s="73">
+        <f t="shared" si="9"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H33" s="73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="81">
         <v>1.05</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E34" s="81">
         <v>1.05</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F34" s="81">
         <v>1.05</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G34" s="81">
         <v>1.05</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H34" s="81">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7922,8 +8203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7957,6 +8238,9 @@
       <c r="B2" t="s">
         <v>81</v>
       </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
       <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -8087,7 +8371,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Bangladesh/2017Nov/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="22440" windowHeight="14580" tabRatio="500" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="1420" yWindow="580" windowWidth="22440" windowHeight="14580" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -18,22 +23,23 @@
     <sheet name="Odds ratios" sheetId="27" r:id="rId9"/>
     <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId10"/>
     <sheet name="IYCF packages" sheetId="33" r:id="rId11"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId12"/>
-    <sheet name="Interventions target population" sheetId="21" r:id="rId13"/>
-    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId14"/>
-    <sheet name="Interventions anemia" sheetId="30" r:id="rId15"/>
-    <sheet name="Interventions wasting" sheetId="31" r:id="rId16"/>
-    <sheet name="Interventions for children" sheetId="28" r:id="rId17"/>
-    <sheet name="Interventions family planning" sheetId="34" r:id="rId18"/>
-    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId19"/>
+    <sheet name="IYCF target pop" sheetId="35" r:id="rId12"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId13"/>
+    <sheet name="Interventions target population" sheetId="21" r:id="rId14"/>
+    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId15"/>
+    <sheet name="Interventions anemia" sheetId="30" r:id="rId16"/>
+    <sheet name="Interventions wasting" sheetId="31" r:id="rId17"/>
+    <sheet name="Interventions for children" sheetId="28" r:id="rId18"/>
+    <sheet name="Interventions family planning" sheetId="34" r:id="rId19"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,54 +121,6 @@
           </rPr>
           <t xml:space="preserve">
 per 100,000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction of pregnancies ending in spontaneous abortion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
@@ -186,7 +144,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Per 1000 live births</t>
+Fraction of pregnancies ending in spontaneous abortion</t>
         </r>
       </text>
     </comment>
@@ -210,7 +168,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Per 1000 live births</t>
+Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
@@ -238,7 +196,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3538,7 +3544,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
   <si>
     <t>year</t>
   </si>
@@ -4271,6 +4277,12 @@
   </si>
   <si>
     <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>fraction PW attending health facility</t>
+  </si>
+  <si>
+    <t>fraction children attending health facility</t>
   </si>
 </sst>
 </file>
@@ -4402,11 +4414,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5069,7 +5083,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5193,9 +5207,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5210,6 +5221,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="565">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7076,19 +7091,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -7099,7 +7114,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -7110,7 +7125,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7118,7 +7133,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>135</v>
       </c>
@@ -7126,16 +7141,16 @@
         <v>171684000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="18">
-        <f>(C3+C3*C13/(1000-C13))/(1-C12)</f>
+        <f>(C3+C3*C15/(1000-C15))/(1-C14)</f>
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>72</v>
       </c>
@@ -7143,7 +7158,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -7151,7 +7166,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
@@ -7159,185 +7174,201 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B9" s="33"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C13" s="19">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B12" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C14" s="19">
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B13" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C15" s="19">
         <v>25.36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B14" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C16" s="19">
         <v>25.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B15" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C17" s="19">
         <v>34.68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B16" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C18" s="19">
         <v>39.32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C21" s="44">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B20" s="33" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C22" s="44">
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B21" s="33" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C23" s="44">
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B22" s="33" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C24" s="44">
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B23" s="33" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C25" s="44">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="33"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B28" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C28" s="52">
         <v>8634000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
-      <c r="B27" s="51" t="s">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C29" s="52">
         <v>13550000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B28" s="51" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C30" s="52">
         <v>12394000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B29" s="51" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C31" s="52">
         <v>9148000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B30" s="51"/>
-      <c r="C30" s="53"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="51"/>
+      <c r="C32" s="53"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B34" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C34" s="43">
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B33" s="50" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C35" s="43">
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B34" s="50" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C36" s="43">
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B35" s="50" t="s">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C37" s="43">
         <v>1.2542476833820825E-2</v>
       </c>
     </row>
@@ -7345,30 +7376,25 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
@@ -7394,11 +7420,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7420,8 +7446,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="88"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="89"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7442,39 +7468,45 @@
       </c>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="88" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="89"/>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E4" s="73">
+        <f t="shared" ref="E4:H4" si="0">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F4" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G4" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H4" s="73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="73"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D5" s="73">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E5" s="73">
         <v>3.07</v>
-      </c>
-      <c r="F4" s="73">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G4" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="H4" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="88"/>
-      <c r="C5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="73">
-        <v>2.17</v>
-      </c>
-      <c r="E5" s="73">
-        <v>2.48</v>
       </c>
       <c r="F5" s="73">
         <v>1.1499999999999999</v>
@@ -7486,53 +7518,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="88" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="89"/>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="73">
+        <v>2.17</v>
+      </c>
+      <c r="E6" s="73">
+        <v>2.48</v>
+      </c>
+      <c r="F6" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G6" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H6" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="89"/>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E7" s="73">
+        <f t="shared" ref="E7:H7" si="1">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F7" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G7" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H7" s="73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="89" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="73">
-        <v>1</v>
-      </c>
-      <c r="E6" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="73">
-        <v>1.3</v>
-      </c>
-      <c r="G6" s="73">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H6" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="88"/>
-      <c r="C7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="73">
-        <v>1</v>
-      </c>
-      <c r="E7" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="73">
-        <v>1.25</v>
-      </c>
-      <c r="G7" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="88" t="s">
-        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>193</v>
@@ -7541,10 +7576,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="73">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="G8" s="73">
         <v>1.1499999999999999</v>
@@ -7553,8 +7588,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="88"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="89"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -7562,10 +7597,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="73">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="G9" s="73">
         <v>1.1000000000000001</v>
@@ -7574,86 +7609,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="88" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="89"/>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E10" s="73">
+        <f t="shared" ref="E10:H10" si="2">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F10" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G10" s="73">
+        <f t="shared" si="2"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H10" s="73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="73">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G11" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H11" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="89"/>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="73">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>1</v>
+      </c>
+      <c r="F12" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G12" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H12" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="89"/>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E13" s="73">
+        <f t="shared" ref="E13:H13" si="3">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F13" s="73">
+        <f t="shared" si="3"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G13" s="73">
+        <f t="shared" si="3"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H13" s="73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="89" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="73">
-        <v>1</v>
-      </c>
-      <c r="E10" s="73">
-        <v>1</v>
-      </c>
-      <c r="F10" s="73">
-        <v>1</v>
-      </c>
-      <c r="G10" s="73">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H10" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="88"/>
-      <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="73">
-        <v>1</v>
-      </c>
-      <c r="E11" s="73">
-        <v>1</v>
-      </c>
-      <c r="F11" s="73">
-        <v>1</v>
-      </c>
-      <c r="G11" s="73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H11" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="E12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="F12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="G12" s="81">
-        <v>1.05</v>
-      </c>
-      <c r="H12" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>193</v>
@@ -7665,17 +7719,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="73">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G14" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="H14" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="88"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H14" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="89"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -7686,150 +7740,147 @@
         <v>1</v>
       </c>
       <c r="F15" s="73">
+        <v>1</v>
+      </c>
+      <c r="G15" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H15" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="89"/>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="73">
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E16" s="73">
+        <f>E17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F16" s="73">
+        <f t="shared" ref="F16:H16" si="4">F17^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G16" s="73">
+        <f t="shared" si="4"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H16" s="73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="80">
         <v>1.05</v>
       </c>
-      <c r="G15" s="73">
+      <c r="E17" s="80">
         <v>1.05</v>
       </c>
-      <c r="H15" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="88" t="s">
+      <c r="F17" s="80">
+        <v>1.05</v>
+      </c>
+      <c r="G17" s="80">
+        <v>1.05</v>
+      </c>
+      <c r="H17" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="73">
+        <v>1</v>
+      </c>
+      <c r="E19" s="73">
+        <v>1</v>
+      </c>
+      <c r="F19" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G19" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H19" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="89"/>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="73">
+        <v>1</v>
+      </c>
+      <c r="E20" s="73">
+        <v>1</v>
+      </c>
+      <c r="F20" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G20" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H20" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="89"/>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E21" s="73">
+        <f t="shared" ref="E21:H21" si="5">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F21" s="73">
+        <f t="shared" si="5"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G21" s="73">
+        <f t="shared" si="5"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H21" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="89" t="s">
         <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="73">
-        <v>1</v>
-      </c>
-      <c r="E16" s="73">
-        <v>1</v>
-      </c>
-      <c r="F16" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="G16" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="H16" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="88"/>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="73">
-        <v>1</v>
-      </c>
-      <c r="E17" s="73">
-        <v>1</v>
-      </c>
-      <c r="F17" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="G17" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="H17" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="73">
-        <v>1</v>
-      </c>
-      <c r="E18" s="73">
-        <v>1</v>
-      </c>
-      <c r="F18" s="73">
-        <v>2.5</v>
-      </c>
-      <c r="G18" s="73">
-        <v>2.5</v>
-      </c>
-      <c r="H18" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="88"/>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="73">
-        <v>1</v>
-      </c>
-      <c r="E19" s="73">
-        <v>1</v>
-      </c>
-      <c r="F19" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="G19" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="H19" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="73">
-        <v>1</v>
-      </c>
-      <c r="E20" s="73">
-        <v>1</v>
-      </c>
-      <c r="F20" s="73">
-        <v>2</v>
-      </c>
-      <c r="G20" s="73">
-        <v>2</v>
-      </c>
-      <c r="H20" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="88"/>
-      <c r="C21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="73">
-        <v>1</v>
-      </c>
-      <c r="E21" s="73">
-        <v>1</v>
-      </c>
-      <c r="F21" s="73">
-        <v>1.9</v>
-      </c>
-      <c r="G21" s="73">
-        <v>1.9</v>
-      </c>
-      <c r="H21" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="88" t="s">
-        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>193</v>
@@ -7841,17 +7892,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="73">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G22" s="73">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="H22" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="88"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="89"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -7862,58 +7913,289 @@
         <v>1</v>
       </c>
       <c r="F23" s="73">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G23" s="73">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="H23" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="80" t="s">
-        <v>112</v>
-      </c>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="89"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E24" s="73">
+        <f t="shared" ref="E24:H24" si="6">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F24" s="73">
+        <f t="shared" si="6"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G24" s="73">
+        <f t="shared" si="6"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H24" s="73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="73">
+        <v>1</v>
+      </c>
+      <c r="E25" s="73">
+        <v>1</v>
+      </c>
+      <c r="F25" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="89"/>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="73">
+        <v>1</v>
+      </c>
+      <c r="E26" s="73">
+        <v>1</v>
+      </c>
+      <c r="F26" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="G26" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="H26" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="89"/>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E27" s="73">
+        <f t="shared" ref="E27:H27" si="7">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F27" s="73">
+        <f t="shared" si="7"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G27" s="73">
+        <f t="shared" si="7"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H27" s="73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="73">
+        <v>1</v>
+      </c>
+      <c r="E28" s="73">
+        <v>1</v>
+      </c>
+      <c r="F28" s="73">
+        <v>2</v>
+      </c>
+      <c r="G28" s="73">
+        <v>2</v>
+      </c>
+      <c r="H28" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="89"/>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="73">
+        <v>1</v>
+      </c>
+      <c r="E29" s="73">
+        <v>1</v>
+      </c>
+      <c r="F29" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="G29" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="H29" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="89"/>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E30" s="73">
+        <f t="shared" ref="E30:H30" si="8">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F30" s="73">
+        <f t="shared" si="8"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G30" s="73">
+        <f t="shared" si="8"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H30" s="73">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="73">
+        <v>1</v>
+      </c>
+      <c r="E31" s="73">
+        <v>1</v>
+      </c>
+      <c r="F31" s="73">
+        <v>1</v>
+      </c>
+      <c r="G31" s="73">
+        <v>2</v>
+      </c>
+      <c r="H31" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="89"/>
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="73">
+        <v>1</v>
+      </c>
+      <c r="E32" s="73">
+        <v>1</v>
+      </c>
+      <c r="F32" s="73">
+        <v>1</v>
+      </c>
+      <c r="G32" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="H32" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="89"/>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="73">
+        <f>D34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="E33" s="73">
+        <f t="shared" ref="E33:H33" si="9">E34^(1/5)</f>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="F33" s="73">
+        <f t="shared" si="9"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="G33" s="73">
+        <f t="shared" si="9"/>
+        <v>1.0098057976734853</v>
+      </c>
+      <c r="H33" s="73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="80">
         <v>1.05</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E34" s="80">
         <v>1.05</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F34" s="80">
         <v>1.05</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G34" s="80">
         <v>1.05</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H34" s="80">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7925,14 +8207,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>200</v>
       </c>
@@ -7949,144 +8231,243 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="82"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="81"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="82"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="81"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="82"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="81"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
       <c r="E7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="82"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="82"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="81"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="82"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="81"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="82"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="81"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="82"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="81"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>203</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="82"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="81"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="82"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="81"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="82"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="E18" s="81"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="82"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="E19" s="81"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="82"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="E20" s="81"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <f>'Baseline year demographics'!C9</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -8097,12 +8478,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8119,7 +8500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8136,14 +8517,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8152,23 +8533,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
@@ -8179,7 +8555,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
@@ -8209,7 +8585,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -8238,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>176</v>
@@ -8265,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -8291,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
@@ -8317,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -8345,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -8374,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -8402,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -8431,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -8460,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
@@ -8486,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
@@ -8512,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
@@ -8538,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
@@ -8568,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>171</v>
@@ -8595,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -8622,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
@@ -8648,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
@@ -8675,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -8702,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -8731,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -8757,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -8783,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -8809,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>158</v>
       </c>
@@ -8835,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -8861,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>160</v>
       </c>
@@ -8887,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>164</v>
@@ -8914,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -8940,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -8966,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>167</v>
       </c>
@@ -8992,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -9018,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>169</v>
       </c>
@@ -9044,7 +9420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>170</v>
       </c>
@@ -9070,8 +9446,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B36" s="86" t="s">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="85" t="s">
         <v>206</v>
       </c>
       <c r="C36" s="3">
@@ -9096,8 +9472,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B37" s="86" t="s">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="85" t="s">
         <v>207</v>
       </c>
       <c r="C37" s="3">
@@ -9122,8 +9498,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B38" s="86" t="s">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="85" t="s">
         <v>208</v>
       </c>
       <c r="C38" s="3">
@@ -9148,8 +9524,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B39" s="86" t="s">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="85" t="s">
         <v>211</v>
       </c>
       <c r="C39" s="3">
@@ -9174,8 +9550,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B40" s="86" t="s">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="85" t="s">
         <v>212</v>
       </c>
       <c r="C40" s="3">
@@ -9200,8 +9576,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B41" s="86" t="s">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="85" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="3">
@@ -9226,8 +9602,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B42" s="86" t="s">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="85" t="s">
         <v>210</v>
       </c>
       <c r="C42" s="3">
@@ -9252,8 +9628,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B43" s="86" t="s">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="85" t="s">
         <v>213</v>
       </c>
       <c r="C43" s="3">
@@ -9278,8 +9654,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B44" s="86" t="s">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C44" s="3">
@@ -9304,10 +9680,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
@@ -9321,27 +9697,27 @@
         <v>0</v>
       </c>
       <c r="E46" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="F46" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="G46" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="H46" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="I46" s="35">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
@@ -9352,27 +9728,27 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="F47" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="G47" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="H47" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="I47" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
@@ -9383,27 +9759,27 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="F48" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="G48" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="H48" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="I48" s="3">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>109</v>
       </c>
@@ -9429,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1">
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
@@ -9462,7 +9838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
         <v>180</v>
       </c>
@@ -9473,27 +9849,27 @@
         <v>0</v>
       </c>
       <c r="E51" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="F51" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="G51" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="H51" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
       <c r="I51" s="71">
-        <f>'Baseline year demographics'!$C$21</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="12" t="s">
         <v>181</v>
       </c>
@@ -9504,27 +9880,27 @@
         <v>0</v>
       </c>
       <c r="E52" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="F52" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="G52" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="H52" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
       <c r="I52" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="12" t="s">
         <v>182</v>
       </c>
@@ -9535,45 +9911,40 @@
         <v>0</v>
       </c>
       <c r="E53" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="F53" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="G53" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="H53" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
       <c r="I53" s="69">
-        <f>'Baseline year demographics'!$C$20</f>
+        <f>'Baseline year demographics'!$C$22</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -9584,14 +9955,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -9611,7 +9982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -9631,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -9648,7 +10019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -9668,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -9685,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -9705,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -9722,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -9742,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -9761,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -9781,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -9804,15 +10175,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -9823,7 +10189,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
@@ -9832,7 +10198,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1">
+    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -9879,7 +10245,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -9926,7 +10292,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
@@ -9970,7 +10336,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -10014,7 +10380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -10058,7 +10424,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -10102,7 +10468,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -10146,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -10190,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -10234,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -10278,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>158</v>
       </c>
@@ -10322,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>159</v>
       </c>
@@ -10366,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -10410,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -10454,7 +10820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -10498,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>166</v>
       </c>
@@ -10542,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -10586,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -10630,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -10674,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>170</v>
       </c>
@@ -10718,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -10762,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1">
+    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
@@ -10806,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="60" t="s">
         <v>83</v>
       </c>
@@ -10850,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="60" t="s">
         <v>173</v>
       </c>
@@ -10894,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="60" t="s">
         <v>87</v>
       </c>
@@ -10938,7 +11304,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -10985,7 +11351,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -11029,7 +11395,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -11073,7 +11439,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -11117,7 +11483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" s="61" t="s">
         <v>180</v>
       </c>
@@ -11161,7 +11527,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B32" s="61" t="s">
         <v>181</v>
       </c>
@@ -11205,7 +11571,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="61" t="s">
         <v>182</v>
       </c>
@@ -11249,31 +11615,26 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11284,13 +11645,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -11313,7 +11674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>191</v>
       </c>
@@ -11336,7 +11697,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -11361,15 +11722,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11380,7 +11736,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -11391,7 +11747,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -11417,7 +11773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -11443,7 +11799,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -11463,7 +11819,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -11485,7 +11841,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="60" t="s">
         <v>163</v>
@@ -11509,7 +11865,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -11535,7 +11891,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
@@ -11555,7 +11911,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>183</v>
       </c>
@@ -11578,7 +11934,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -11598,7 +11954,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -11624,7 +11980,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
@@ -11644,7 +12000,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -11667,7 +12023,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
@@ -11687,7 +12043,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -11713,7 +12069,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
@@ -11733,7 +12089,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>183</v>
       </c>
@@ -11756,7 +12112,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
@@ -11776,7 +12132,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -11802,7 +12158,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
@@ -11823,7 +12179,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -11847,7 +12203,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
@@ -11868,7 +12224,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>180</v>
       </c>
@@ -11895,7 +12251,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
         <v>68</v>
@@ -11917,7 +12273,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -11943,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
         <v>68</v>
@@ -11964,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>182</v>
       </c>
@@ -11990,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -12014,15 +12370,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -12033,13 +12384,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>215</v>
       </c>
@@ -12047,820 +12398,81 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="86">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13">
-      <c r="A4" s="86" t="s">
+      <c r="B3" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13">
-      <c r="A5" s="86" t="s">
+      <c r="B4" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13">
-      <c r="A6" s="86" t="s">
+      <c r="B5" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="13">
-      <c r="A7" s="86" t="s">
+      <c r="B6" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="86">
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13">
-      <c r="A8" s="86" t="s">
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13">
-      <c r="A9" s="86" t="s">
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13">
-      <c r="A10" s="86" t="s">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="86">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D2" s="14">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0.621</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0.247</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D6" s="14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="63">
-        <v>0</v>
-      </c>
-      <c r="C7" s="64">
-        <v>0.85</v>
-      </c>
-      <c r="D7" s="70">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="34">
-        <v>0</v>
-      </c>
-      <c r="C8" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="19">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="63">
-        <v>0</v>
-      </c>
-      <c r="C9" s="64">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="34">
-        <v>0</v>
-      </c>
-      <c r="C10" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D11" s="14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="65">
-        <v>0</v>
-      </c>
-      <c r="C12" s="66">
-        <v>0.85</v>
-      </c>
-      <c r="D12" s="66">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="65">
-        <v>0</v>
-      </c>
-      <c r="C14" s="66">
-        <v>0.85</v>
-      </c>
-      <c r="D14" s="66">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="14">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="14">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="14">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="14">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="14">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="14">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="14">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="14">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="14">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="14">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="14">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="19">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="19">
-        <v>0</v>
-      </c>
-      <c r="C36" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D36" s="19">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="19">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="C38" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D38" s="19">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="14">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D39" s="19">
-        <f>180</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="14">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D40" s="19">
-        <f>30*AVERAGE('Incidence of conditions'!B5:F5)</f>
-        <v>10.046400000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D41" s="19">
-        <f>179.97*AVERAGE('Incidence of conditions'!B6:F6)</f>
-        <v>19.933477200000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A42" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="89">
-        <v>0.09</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D42" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A43" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D43" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A44" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="89">
-        <v>0.08</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D44" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A45" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B45" s="89">
-        <v>0.18</v>
-      </c>
-      <c r="C45" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D45" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D46" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A47" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="89">
-        <v>0.45</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D47" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="89">
-        <v>0.03</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D48" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A49" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="89">
-        <v>0.11</v>
-      </c>
-      <c r="C49" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D49" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A50" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="89">
-        <v>0.01</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D50" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
-      <c r="C51" s="85"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12872,7 +12484,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -12880,7 +12492,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12918,7 +12530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -12960,7 +12572,7 @@
         <v>173766200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -13002,7 +12614,7 @@
         <v>175848400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -13044,7 +12656,7 @@
         <v>177930600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -13086,7 +12698,7 @@
         <v>180012800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -13128,7 +12740,7 @@
         <v>182095000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -13170,7 +12782,7 @@
         <v>183822800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -13212,7 +12824,7 @@
         <v>185550600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -13254,7 +12866,7 @@
         <v>187278400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -13296,7 +12908,7 @@
         <v>189006200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -13338,7 +12950,7 @@
         <v>190734000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -13380,7 +12992,7 @@
         <v>192287600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -13422,7 +13034,7 @@
         <v>193841200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -13464,7 +13076,7 @@
         <v>195394800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -13510,11 +13122,735 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="14">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.621</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.247</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="63">
+        <v>0</v>
+      </c>
+      <c r="C7" s="64">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="63">
+        <v>0</v>
+      </c>
+      <c r="C9" s="64">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="34">
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="65">
+        <v>0</v>
+      </c>
+      <c r="C12" s="66">
+        <v>0.85</v>
+      </c>
+      <c r="D12" s="66">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="65">
+        <v>0</v>
+      </c>
+      <c r="C14" s="66">
+        <v>0.85</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="14">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="14">
+        <v>0</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="14">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="14">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="19">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="19">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="14">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D39" s="19">
+        <f>180</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D40" s="19">
+        <f>30*AVERAGE('Incidence of conditions'!B5:F5)</f>
+        <v>10.046400000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D41" s="19">
+        <f>179.97*AVERAGE('Incidence of conditions'!B6:F6)</f>
+        <v>19.933477200000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="88">
+        <v>0.09</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D42" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D43" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="88">
+        <v>0.08</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D45" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D46" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="88">
+        <v>0.45</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D47" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D48" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="88">
+        <v>0.11</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D49" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D50" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13526,12 +13862,12 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -13554,7 +13890,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13577,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13600,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -13623,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -13646,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13669,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -13692,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -13715,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -13738,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -13761,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -13784,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -13807,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -13830,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -13853,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -13876,7 +14212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -13899,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -13922,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -13945,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -13968,7 +14304,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -13991,7 +14327,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -14014,7 +14350,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -14037,7 +14373,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -14060,7 +14396,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -14083,7 +14419,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -14106,7 +14442,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -14129,7 +14465,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -14159,11 +14495,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14175,9 +14506,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -14197,7 +14528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -14217,7 +14548,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -14237,7 +14568,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -14257,7 +14588,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -14282,7 +14613,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -14311,11 +14642,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14327,7 +14653,7 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -14336,7 +14662,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -14353,7 +14679,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -14368,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -14381,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -14396,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -14411,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
@@ -14426,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>82</v>
@@ -14441,7 +14767,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>128</v>
@@ -14456,7 +14782,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>129</v>
@@ -14471,7 +14797,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>130</v>
@@ -14486,13 +14812,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -14507,7 +14833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -14519,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -14533,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -14547,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -14561,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -14575,7 +14901,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -14589,7 +14915,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -14603,7 +14929,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -14617,7 +14943,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -14638,11 +14964,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14654,9 +14975,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14679,7 +15000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
@@ -14702,7 +15023,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -14723,7 +15044,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -14744,7 +15065,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -14765,7 +15086,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -14788,7 +15109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -14808,7 +15129,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
@@ -14828,7 +15149,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
@@ -14848,7 +15169,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -14871,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -14891,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -14911,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -14936,11 +15257,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14952,12 +15268,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -14977,7 +15293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -14998,7 +15314,7 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -15013,7 +15329,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -15030,7 +15346,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -15047,7 +15363,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -15064,14 +15380,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -15080,7 +15396,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
@@ -15100,7 +15416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -15117,7 +15433,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -15134,7 +15450,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -15151,7 +15467,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -15168,7 +15484,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -15185,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -15202,7 +15518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -15223,11 +15539,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15242,7 +15553,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -15250,7 +15561,7 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -15279,7 +15590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -15308,7 +15619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -15331,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -15354,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -15377,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -15403,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -15426,7 +15737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -15449,7 +15760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -15472,7 +15783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -15498,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -15521,7 +15832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -15544,7 +15855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -15567,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -15593,7 +15904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15616,7 +15927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -15639,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -15662,7 +15973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -15688,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -15711,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -15734,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -15757,7 +16068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -15786,7 +16097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -15809,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
@@ -15832,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
@@ -15855,7 +16166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -15881,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -15904,7 +16215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>183</v>
       </c>
@@ -15927,7 +16238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>184</v>
       </c>
@@ -15950,7 +16261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -15976,7 +16287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -15999,7 +16310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
         <v>183</v>
       </c>
@@ -16022,7 +16333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
@@ -16045,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -16071,7 +16382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -16094,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
         <v>183</v>
       </c>
@@ -16117,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
@@ -16140,7 +16451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -16166,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -16189,7 +16500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
@@ -16212,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
@@ -16235,7 +16546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -16264,7 +16575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
@@ -16287,7 +16598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
@@ -16310,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
@@ -16333,7 +16644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -16359,7 +16670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
@@ -16382,7 +16693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
@@ -16405,7 +16716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
@@ -16428,7 +16739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -16454,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -16477,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
@@ -16500,7 +16811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
@@ -16523,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -16549,7 +16860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
@@ -16572,7 +16883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
@@ -16595,7 +16906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
@@ -16618,7 +16929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -16644,7 +16955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -16667,7 +16978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
@@ -16690,7 +17001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
@@ -16713,7 +17024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -16739,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -16762,7 +17073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
@@ -16785,7 +17096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
@@ -16808,7 +17119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -16834,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -16857,7 +17168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
@@ -16880,7 +17191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
@@ -16903,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -16932,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C77" s="4" t="s">
         <v>119</v>
       </c>
@@ -16955,7 +17266,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -16981,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
@@ -17004,7 +17315,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>99</v>
       </c>
@@ -17030,7 +17341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
@@ -17053,7 +17364,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -17082,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -17105,7 +17416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
@@ -17128,7 +17439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
@@ -17151,17 +17462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17176,7 +17482,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
@@ -17186,7 +17492,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -17209,7 +17515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -17230,7 +17536,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -17250,7 +17556,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -17273,7 +17579,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
@@ -17293,7 +17599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
@@ -17313,7 +17619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -17333,7 +17639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
@@ -17353,7 +17659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -17373,7 +17679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>122</v>
       </c>
@@ -17396,7 +17702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="76" t="s">
         <v>57</v>
@@ -17417,8 +17723,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1"/>
-    <row r="15" spans="1:7">
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>187</v>
       </c>
@@ -17441,7 +17747,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>188</v>
       </c>
@@ -17468,10 +17774,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Bangladesh/2017Nov/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="580" windowWidth="22440" windowHeight="14580" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -33,13 +28,13 @@
     <sheet name="Interventions family planning" sheetId="34" r:id="rId19"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -50,6 +45,7 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Janka Petravic</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0">
@@ -100,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="C11" authorId="2">
       <text>
         <r>
           <rPr>
@@ -110,7 +106,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -120,7 +116,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-per 100,000 live births</t>
+made this number up</t>
         </r>
       </text>
     </comment>
@@ -144,7 +140,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Fraction of pregnancies ending in spontaneous abortion</t>
+per 100,000 live births</t>
         </r>
       </text>
     </comment>
@@ -168,7 +164,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
+Fraction of pregnancies ending in spontaneous abortion</t>
         </r>
       </text>
     </comment>
@@ -192,7 +188,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Per 1000 live births</t>
+Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
@@ -244,7 +240,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3626,7 +3646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="220">
   <si>
     <t>year</t>
   </si>
@@ -4283,6 +4303,9 @@
   </si>
   <si>
     <t>fraction children attending health facility</t>
+  </si>
+  <si>
+    <t>unmet need for family planning</t>
   </si>
 </sst>
 </file>
@@ -5221,10 +5244,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="565">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7091,19 +7114,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -7114,7 +7137,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -7125,7 +7148,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7133,7 +7156,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="B4" s="33" t="s">
         <v>135</v>
       </c>
@@ -7141,16 +7164,16 @@
         <v>171684000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="18">
-        <f>(C3+C3*C15/(1000-C15))/(1-C14)</f>
+        <f>(C3+C3*C16/(1000-C16))/(1-C15)</f>
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="B6" s="33" t="s">
         <v>72</v>
       </c>
@@ -7158,7 +7181,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -7166,7 +7189,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
@@ -7174,201 +7197,209 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="89">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="89">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="33"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="89">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C14" s="19">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B15" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C15" s="19">
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B16" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C16" s="19">
         <v>25.36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B17" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C17" s="19">
         <v>25.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C18" s="19">
         <v>34.68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B19" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C19" s="19">
         <v>39.32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C22" s="44">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="33" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B23" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C23" s="44">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="33" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B24" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C24" s="44">
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="33" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B25" s="33" t="s">
         <v>108</v>
-      </c>
-      <c r="C24" s="44">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="33" t="s">
-        <v>76</v>
       </c>
       <c r="C25" s="44">
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="33"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B26" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B28" s="33"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B29" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C29" s="52">
         <v>8634000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="51" t="s">
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="B30" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C30" s="52">
         <v>13550000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="51" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B31" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C31" s="52">
         <v>12394000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="51" t="s">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B32" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C32" s="52">
         <v>9148000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="51"/>
-      <c r="C32" s="53"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B33" s="51"/>
+      <c r="C33" s="53"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B35" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C35" s="43">
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="50" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B36" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C36" s="43">
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="50" t="s">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B37" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C37" s="43">
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="50" t="s">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B38" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C38" s="43">
         <v>1.2542476833820825E-2</v>
       </c>
     </row>
@@ -7376,6 +7407,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7383,18 +7419,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
@@ -7420,11 +7456,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7446,8 +7482,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="89"/>
+    <row r="3" spans="1:10">
+      <c r="B3" s="90"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7468,8 +7504,8 @@
       </c>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="89"/>
+    <row r="4" spans="1:10">
+      <c r="B4" s="90"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
@@ -7495,8 +7531,8 @@
       </c>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
+    <row r="5" spans="1:10">
+      <c r="B5" s="90" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7518,8 +7554,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="89"/>
+    <row r="6" spans="1:10">
+      <c r="B6" s="90"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -7539,8 +7575,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="89"/>
+    <row r="7" spans="1:10">
+      <c r="B7" s="90"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -7565,8 +7601,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="89" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="90" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -7588,8 +7624,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="89"/>
+    <row r="9" spans="1:10">
+      <c r="B9" s="90"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -7609,8 +7645,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="89"/>
+    <row r="10" spans="1:10">
+      <c r="B10" s="90"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
@@ -7635,8 +7671,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="89" t="s">
+    <row r="11" spans="1:10">
+      <c r="B11" s="90" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -7658,8 +7694,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="89"/>
+    <row r="12" spans="1:10">
+      <c r="B12" s="90"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -7679,8 +7715,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="89"/>
+    <row r="13" spans="1:10">
+      <c r="B13" s="90"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -7705,8 +7741,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="89" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" s="90" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -7728,8 +7764,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="89"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="90"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -7749,8 +7785,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="89"/>
+    <row r="16" spans="1:10">
+      <c r="B16" s="90"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
@@ -7775,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="B17" s="87" t="s">
         <v>112</v>
       </c>
@@ -7798,18 +7834,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="D18" s="75"/>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="90" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -7831,8 +7867,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="89"/>
+    <row r="20" spans="1:8">
+      <c r="B20" s="90"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -7852,8 +7888,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="89"/>
+    <row r="21" spans="1:8">
+      <c r="B21" s="90"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -7878,8 +7914,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="89" t="s">
+    <row r="22" spans="1:8">
+      <c r="B22" s="90" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -7901,8 +7937,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="89"/>
+    <row r="23" spans="1:8">
+      <c r="B23" s="90"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -7922,8 +7958,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="89"/>
+    <row r="24" spans="1:8">
+      <c r="B24" s="90"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -7948,8 +7984,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="89" t="s">
+    <row r="25" spans="1:8">
+      <c r="B25" s="90" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -7971,8 +8007,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="89"/>
+    <row r="26" spans="1:8">
+      <c r="B26" s="90"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -7992,8 +8028,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="89"/>
+    <row r="27" spans="1:8">
+      <c r="B27" s="90"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8018,8 +8054,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="89" t="s">
+    <row r="28" spans="1:8">
+      <c r="B28" s="90" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8041,8 +8077,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="89"/>
+    <row r="29" spans="1:8">
+      <c r="B29" s="90"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8062,8 +8098,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="89"/>
+    <row r="30" spans="1:8">
+      <c r="B30" s="90"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8088,8 +8124,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="89" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" s="90" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8111,8 +8147,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="89"/>
+    <row r="32" spans="1:8">
+      <c r="B32" s="90"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8132,8 +8168,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="89"/>
+    <row r="33" spans="2:8">
+      <c r="B33" s="90"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -8158,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8">
       <c r="B34" s="79" t="s">
         <v>112</v>
       </c>
@@ -8196,6 +8232,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8207,14 +8248,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>200</v>
       </c>
@@ -8231,7 +8272,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
@@ -8240,25 +8281,25 @@
       </c>
       <c r="E2" s="81"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="81"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="81"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="81"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8267,7 +8308,7 @@
       </c>
       <c r="E6" s="81"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -8277,7 +8318,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
@@ -8286,38 +8327,38 @@
       </c>
       <c r="E9" s="81"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="81"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="81"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="81"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="81"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>203</v>
       </c>
@@ -8326,31 +8367,31 @@
       </c>
       <c r="E16" s="81"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="81"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="81"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="81"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="81"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -8360,6 +8401,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8371,9 +8417,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>199</v>
       </c>
@@ -8387,7 +8433,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -8402,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8417,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8432,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8447,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8464,6 +8510,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8478,12 +8529,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8500,7 +8551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8517,14 +8568,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8533,6 +8584,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8544,7 +8600,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
@@ -8555,7 +8611,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
@@ -8585,7 +8641,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -8614,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>176</v>
@@ -8641,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -8667,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
@@ -8693,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -8721,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -8750,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -8778,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -8807,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -8836,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
@@ -8862,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
@@ -8888,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
@@ -8914,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
@@ -8944,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>171</v>
@@ -8971,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -8998,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
@@ -9024,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
@@ -9051,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -9078,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -9107,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -9133,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -9159,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -9185,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="B26" t="s">
         <v>158</v>
       </c>
@@ -9211,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -9237,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="B28" t="s">
         <v>160</v>
       </c>
@@ -9263,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>164</v>
@@ -9290,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -9316,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -9342,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="B32" t="s">
         <v>167</v>
       </c>
@@ -9368,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -9394,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="B34" t="s">
         <v>169</v>
       </c>
@@ -9420,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="B35" t="s">
         <v>170</v>
       </c>
@@ -9446,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="B36" s="85" t="s">
         <v>206</v>
       </c>
@@ -9472,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="B37" s="85" t="s">
         <v>207</v>
       </c>
@@ -9498,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="B38" s="85" t="s">
         <v>208</v>
       </c>
@@ -9524,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="B39" s="85" t="s">
         <v>211</v>
       </c>
@@ -9550,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="B40" s="85" t="s">
         <v>212</v>
       </c>
@@ -9576,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="B41" s="85" t="s">
         <v>209</v>
       </c>
@@ -9602,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="B42" s="85" t="s">
         <v>210</v>
       </c>
@@ -9628,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="B43" s="85" t="s">
         <v>213</v>
       </c>
@@ -9654,7 +9710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="B44" s="85" t="s">
         <v>214</v>
       </c>
@@ -9680,10 +9736,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
@@ -9697,27 +9753,27 @@
         <v>0</v>
       </c>
       <c r="E46" s="35">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="F46" s="35">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="G46" s="35">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="H46" s="35">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="I46" s="35">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
@@ -9728,27 +9784,27 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="F47" s="3">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="G47" s="3">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="H47" s="3">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="I47" s="3">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
@@ -9759,27 +9815,27 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="F48" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="G48" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="H48" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="I48" s="3">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
       <c r="B49" s="4" t="s">
         <v>109</v>
       </c>
@@ -9805,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
@@ -9838,7 +9894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="12" t="s">
         <v>180</v>
       </c>
@@ -9849,27 +9905,27 @@
         <v>0</v>
       </c>
       <c r="E51" s="71">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="F51" s="71">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="G51" s="71">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="H51" s="71">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
       <c r="I51" s="71">
-        <f>'Baseline year demographics'!$C$23</f>
+        <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" s="12" t="s">
         <v>181</v>
       </c>
@@ -9880,27 +9936,27 @@
         <v>0</v>
       </c>
       <c r="E52" s="69">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="F52" s="69">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="G52" s="69">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="H52" s="69">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
       <c r="I52" s="69">
-        <f>'Baseline year demographics'!$C$24</f>
+        <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" s="12" t="s">
         <v>182</v>
       </c>
@@ -9911,36 +9967,41 @@
         <v>0</v>
       </c>
       <c r="E53" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="F53" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="G53" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="H53" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
       <c r="I53" s="69">
-        <f>'Baseline year demographics'!$C$22</f>
+        <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9955,14 +10016,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -9982,7 +10043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -10002,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10019,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -10039,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -10056,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -10076,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -10093,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -10113,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -10132,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -10152,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -10175,6 +10236,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10189,7 +10255,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
@@ -10198,7 +10264,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -10245,7 +10311,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -10292,7 +10358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
@@ -10336,7 +10402,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -10380,7 +10446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -10424,7 +10490,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -10468,7 +10534,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -10512,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -10556,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -10600,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -10644,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>158</v>
       </c>
@@ -10688,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>159</v>
       </c>
@@ -10732,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -10776,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -10820,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -10864,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>166</v>
       </c>
@@ -10908,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -10952,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -10996,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -11040,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>170</v>
       </c>
@@ -11084,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -11128,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="14" customHeight="1">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
@@ -11172,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="B23" s="60" t="s">
         <v>83</v>
       </c>
@@ -11216,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="B24" s="60" t="s">
         <v>173</v>
       </c>
@@ -11260,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="B25" s="60" t="s">
         <v>87</v>
       </c>
@@ -11304,7 +11370,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -11351,7 +11417,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -11395,7 +11461,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -11439,7 +11505,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -11483,7 +11549,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="B31" s="61" t="s">
         <v>180</v>
       </c>
@@ -11527,7 +11593,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="B32" s="61" t="s">
         <v>181</v>
       </c>
@@ -11571,7 +11637,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15">
       <c r="B33" s="61" t="s">
         <v>182</v>
       </c>
@@ -11615,22 +11681,27 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15">
       <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11645,13 +11716,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -11674,7 +11745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>191</v>
       </c>
@@ -11697,7 +11768,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -11722,6 +11793,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11736,7 +11812,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -11747,7 +11823,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -11773,7 +11849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -11799,7 +11875,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -11819,7 +11895,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -11841,7 +11917,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="60" t="s">
         <v>163</v>
@@ -11865,7 +11941,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -11891,7 +11967,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
@@ -11911,7 +11987,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>183</v>
       </c>
@@ -11934,7 +12010,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -11954,7 +12030,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -11980,7 +12056,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
@@ -12000,7 +12076,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -12023,7 +12099,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
@@ -12043,7 +12119,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -12069,7 +12145,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
@@ -12089,7 +12165,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>183</v>
       </c>
@@ -12112,7 +12188,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
@@ -12132,7 +12208,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -12158,7 +12234,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
@@ -12179,7 +12255,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -12203,7 +12279,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
@@ -12224,7 +12300,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
         <v>180</v>
       </c>
@@ -12251,7 +12327,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
         <v>68</v>
@@ -12273,7 +12349,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -12299,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
         <v>68</v>
@@ -12320,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>182</v>
       </c>
@@ -12346,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -12370,6 +12446,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12384,13 +12465,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
         <v>215</v>
       </c>
@@ -12398,7 +12479,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="13">
       <c r="A2" s="85" t="s">
         <v>206</v>
       </c>
@@ -12406,7 +12487,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="13">
       <c r="A3" s="85" t="s">
         <v>207</v>
       </c>
@@ -12414,7 +12495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="13">
       <c r="A4" s="85" t="s">
         <v>208</v>
       </c>
@@ -12422,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="13">
       <c r="A5" s="85" t="s">
         <v>211</v>
       </c>
@@ -12430,7 +12511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="13">
       <c r="A6" s="85" t="s">
         <v>212</v>
       </c>
@@ -12438,7 +12519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="13">
       <c r="A7" s="85" t="s">
         <v>209</v>
       </c>
@@ -12446,7 +12527,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="13">
       <c r="A8" s="85" t="s">
         <v>210</v>
       </c>
@@ -12454,7 +12535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="13">
       <c r="A9" s="85" t="s">
         <v>213</v>
       </c>
@@ -12462,7 +12543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="13">
       <c r="A10" s="85" t="s">
         <v>214</v>
       </c>
@@ -12473,6 +12554,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12484,7 +12570,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -12492,7 +12578,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12530,7 +12616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -12572,7 +12658,7 @@
         <v>173766200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -12614,7 +12700,7 @@
         <v>175848400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -12656,7 +12742,7 @@
         <v>177930600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -12698,7 +12784,7 @@
         <v>180012800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -12740,7 +12826,7 @@
         <v>182095000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -12782,7 +12868,7 @@
         <v>183822800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -12824,7 +12910,7 @@
         <v>185550600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -12866,7 +12952,7 @@
         <v>187278400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -12908,7 +12994,7 @@
         <v>189006200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -12950,7 +13036,7 @@
         <v>190734000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -12992,7 +13078,7 @@
         <v>192287600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -13034,7 +13120,7 @@
         <v>193841200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -13076,7 +13162,7 @@
         <v>195394800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -13122,6 +13208,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13133,7 +13224,7 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -13141,7 +13232,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13155,7 +13246,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -13169,7 +13260,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -13183,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -13197,7 +13288,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -13211,7 +13302,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -13225,7 +13316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>84</v>
       </c>
@@ -13239,7 +13330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
@@ -13253,7 +13344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -13267,7 +13358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>173</v>
       </c>
@@ -13281,7 +13372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -13295,7 +13386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -13309,7 +13400,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -13323,7 +13414,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -13337,7 +13428,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>175</v>
       </c>
@@ -13351,7 +13442,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -13365,7 +13456,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -13379,7 +13470,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -13393,7 +13484,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -13407,7 +13498,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -13421,7 +13512,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -13435,7 +13526,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -13449,7 +13540,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -13463,7 +13554,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -13477,7 +13568,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -13491,7 +13582,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -13505,7 +13596,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -13519,7 +13610,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -13533,7 +13624,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -13547,7 +13638,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -13561,7 +13652,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -13575,7 +13666,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -13589,7 +13680,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -13603,7 +13694,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>109</v>
       </c>
@@ -13617,7 +13708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>180</v>
       </c>
@@ -13631,7 +13722,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>181</v>
       </c>
@@ -13645,7 +13736,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>182</v>
       </c>
@@ -13659,7 +13750,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -13673,7 +13764,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>179</v>
       </c>
@@ -13688,7 +13779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>189</v>
       </c>
@@ -13703,7 +13794,7 @@
         <v>10.046400000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>190</v>
       </c>
@@ -13718,7 +13809,7 @@
         <v>19.933477200000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="82" t="s">
         <v>206</v>
       </c>
@@ -13732,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="82" t="s">
         <v>207</v>
       </c>
@@ -13746,7 +13837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="82" t="s">
         <v>208</v>
       </c>
@@ -13760,7 +13851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="82" t="s">
         <v>211</v>
       </c>
@@ -13774,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="82" t="s">
         <v>212</v>
       </c>
@@ -13788,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="82" t="s">
         <v>209</v>
       </c>
@@ -13802,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="82" t="s">
         <v>210</v>
       </c>
@@ -13816,7 +13907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="82" t="s">
         <v>213</v>
       </c>
@@ -13830,7 +13921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="82" t="s">
         <v>214</v>
       </c>
@@ -13844,13 +13935,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="C51" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13862,12 +13958,12 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -13890,7 +13986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13913,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13936,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -13959,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -13982,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -14005,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -14028,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -14051,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -14074,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14097,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -14120,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -14143,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -14166,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -14189,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -14212,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -14235,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -14258,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -14281,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -14304,7 +14400,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -14327,7 +14423,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -14350,7 +14446,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -14373,7 +14469,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -14396,7 +14492,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -14419,7 +14515,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -14442,7 +14538,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -14465,7 +14561,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -14495,6 +14591,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14506,9 +14607,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -14528,7 +14629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -14548,7 +14649,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -14568,7 +14669,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -14588,7 +14689,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -14613,7 +14714,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -14642,6 +14743,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14653,7 +14759,7 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -14662,7 +14768,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -14679,7 +14785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -14694,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -14707,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -14722,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -14737,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
@@ -14752,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>82</v>
@@ -14767,7 +14873,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>128</v>
@@ -14782,7 +14888,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>129</v>
@@ -14797,7 +14903,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>130</v>
@@ -14812,13 +14918,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -14833,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -14845,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -14859,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -14873,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -14887,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -14901,7 +15007,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -14915,7 +15021,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -14929,7 +15035,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -14943,7 +15049,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -14964,6 +15070,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14975,9 +15086,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15000,7 +15111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
@@ -15023,7 +15134,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -15044,7 +15155,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -15065,7 +15176,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -15086,7 +15197,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -15109,7 +15220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -15129,7 +15240,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
@@ -15149,7 +15260,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
@@ -15169,7 +15280,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -15192,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -15212,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -15232,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -15257,6 +15368,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15268,12 +15384,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -15293,7 +15409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -15314,7 +15430,7 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -15329,7 +15445,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -15346,7 +15462,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -15363,7 +15479,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -15380,14 +15496,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -15396,7 +15512,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
@@ -15416,7 +15532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -15433,7 +15549,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -15450,7 +15566,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -15467,7 +15583,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -15484,7 +15600,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -15501,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -15518,7 +15634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -15539,6 +15655,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15553,7 +15674,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -15561,7 +15682,7 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -15590,7 +15711,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -15619,7 +15740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -15642,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -15665,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -15688,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -15714,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -15737,7 +15858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -15760,7 +15881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -15783,7 +15904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -15809,7 +15930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -15832,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -15855,7 +15976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -15878,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -15904,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15927,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -15950,7 +16071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -15973,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -15999,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -16022,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -16045,7 +16166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -16068,7 +16189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -16097,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -16120,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
@@ -16143,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
@@ -16166,7 +16287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -16192,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -16215,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="C30" s="4" t="s">
         <v>183</v>
       </c>
@@ -16238,7 +16359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="C31" s="4" t="s">
         <v>184</v>
       </c>
@@ -16261,7 +16382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -16287,7 +16408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -16310,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="C34" s="4" t="s">
         <v>183</v>
       </c>
@@ -16333,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
@@ -16356,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -16382,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -16405,7 +16526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="C38" s="4" t="s">
         <v>183</v>
       </c>
@@ -16428,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
@@ -16451,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -16477,7 +16598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -16500,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
@@ -16523,7 +16644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
@@ -16546,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -16575,7 +16696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
@@ -16598,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
@@ -16621,7 +16742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9">
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
@@ -16644,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9">
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -16670,7 +16791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9">
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
@@ -16693,7 +16814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
@@ -16716,7 +16837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
@@ -16739,7 +16860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -16765,7 +16886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9">
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -16788,7 +16909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
@@ -16811,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9">
       <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
@@ -16834,7 +16955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -16860,7 +16981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
@@ -16883,7 +17004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9">
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
@@ -16906,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9">
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
@@ -16929,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -16955,7 +17076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9">
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -16978,7 +17099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9">
       <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
@@ -17001,7 +17122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
@@ -17024,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -17050,7 +17171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -17073,7 +17194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
@@ -17096,7 +17217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
@@ -17119,7 +17240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -17145,7 +17266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -17168,7 +17289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
@@ -17191,7 +17312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
@@ -17214,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -17243,7 +17364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="C77" s="4" t="s">
         <v>119</v>
       </c>
@@ -17266,7 +17387,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -17292,7 +17413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9">
       <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
@@ -17315,7 +17436,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
         <v>99</v>
       </c>
@@ -17341,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
@@ -17364,7 +17485,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -17393,7 +17514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -17416,7 +17537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
@@ -17439,7 +17560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
@@ -17462,12 +17583,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17482,7 +17608,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
@@ -17492,7 +17618,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -17515,7 +17641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -17536,7 +17662,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -17556,7 +17682,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -17579,7 +17705,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
@@ -17599,7 +17725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
@@ -17619,7 +17745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -17639,7 +17765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
@@ -17659,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -17679,7 +17805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="77" t="s">
         <v>122</v>
       </c>
@@ -17702,7 +17828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="78"/>
       <c r="B13" s="76" t="s">
         <v>57</v>
@@ -17723,8 +17849,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14" customHeight="1"/>
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>187</v>
       </c>
@@ -17747,7 +17873,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>188</v>
       </c>
@@ -17774,5 +17900,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Bangladesh/2017Nov/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -28,13 +33,13 @@
     <sheet name="Interventions family planning" sheetId="34" r:id="rId19"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -3454,8 +3459,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Janka Petravic</author>
+    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
-    <author>Sam</author>
   </authors>
   <commentList>
     <comment ref="F5" authorId="0">
@@ -3482,11 +3487,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This 'dilutes' OR so that we 'cover' everyone with IYCF</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B12" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
@@ -3506,7 +3559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="1">
+    <comment ref="B15" authorId="2">
       <text>
         <r>
           <rPr>
@@ -3530,7 +3583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="2">
+    <comment ref="C17" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="222">
   <si>
     <t>year</t>
   </si>
@@ -4306,6 +4359,12 @@
   </si>
   <si>
     <t>unmet need for family planning</t>
+  </si>
+  <si>
+    <t>Complementary feeding (adjusted food secure without promotion)</t>
+  </si>
+  <si>
+    <t>Public provision of complementary foods (food insecure)</t>
   </si>
 </sst>
 </file>
@@ -4446,7 +4505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4501,6 +4560,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5106,7 +5171,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5248,6 +5313,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="565">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7116,17 +7182,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -7137,7 +7203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -7148,7 +7214,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7156,7 +7222,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>135</v>
       </c>
@@ -7164,7 +7230,7 @@
         <v>171684000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7173,7 +7239,7 @@
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>72</v>
       </c>
@@ -7181,7 +7247,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -7189,7 +7255,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
@@ -7197,7 +7263,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>217</v>
       </c>
@@ -7205,7 +7271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
@@ -7213,7 +7279,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>219</v>
       </c>
@@ -7221,14 +7287,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>141</v>
       </c>
@@ -7239,7 +7305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>136</v>
       </c>
@@ -7247,7 +7313,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -7255,7 +7321,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -7263,7 +7329,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>139</v>
       </c>
@@ -7271,7 +7337,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>140</v>
       </c>
@@ -7279,11 +7345,11 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>75</v>
       </c>
@@ -7294,7 +7360,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="33" t="s">
         <v>106</v>
       </c>
@@ -7302,7 +7368,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="33" t="s">
         <v>107</v>
       </c>
@@ -7310,7 +7376,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="33" t="s">
         <v>108</v>
       </c>
@@ -7318,7 +7384,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="33" t="s">
         <v>76</v>
       </c>
@@ -7326,10 +7392,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="33"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>134</v>
       </c>
@@ -7340,7 +7406,7 @@
         <v>8634000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="51" t="s">
         <v>128</v>
       </c>
@@ -7348,7 +7414,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="51" t="s">
         <v>129</v>
       </c>
@@ -7356,7 +7422,7 @@
         <v>12394000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="51" t="s">
         <v>130</v>
       </c>
@@ -7364,11 +7430,11 @@
         <v>9148000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="51"/>
       <c r="C33" s="53"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>125</v>
       </c>
@@ -7379,7 +7445,7 @@
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
         <v>128</v>
       </c>
@@ -7387,7 +7453,7 @@
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="50" t="s">
         <v>129</v>
       </c>
@@ -7395,7 +7461,7 @@
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
         <v>130</v>
       </c>
@@ -7407,11 +7473,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7423,14 +7484,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
@@ -7456,7 +7517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -7482,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="90"/>
       <c r="C3" t="s">
         <v>194</v>
@@ -7504,7 +7565,7 @@
       </c>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="90"/>
       <c r="C4" t="s">
         <v>204</v>
@@ -7531,7 +7592,7 @@
       </c>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="90" t="s">
         <v>6</v>
       </c>
@@ -7554,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="90"/>
       <c r="C6" t="s">
         <v>194</v>
@@ -7575,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="90"/>
       <c r="C7" t="s">
         <v>204</v>
@@ -7601,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="90" t="s">
         <v>7</v>
       </c>
@@ -7624,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="90"/>
       <c r="C9" t="s">
         <v>194</v>
@@ -7645,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="90"/>
       <c r="C10" t="s">
         <v>204</v>
@@ -7671,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="90" t="s">
         <v>8</v>
       </c>
@@ -7694,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="90"/>
       <c r="C12" t="s">
         <v>194</v>
@@ -7715,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="90"/>
       <c r="C13" t="s">
         <v>204</v>
@@ -7741,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="90" t="s">
         <v>9</v>
       </c>
@@ -7764,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="90"/>
       <c r="C15" t="s">
         <v>194</v>
@@ -7785,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="90"/>
       <c r="C16" t="s">
         <v>204</v>
@@ -7811,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>112</v>
       </c>
@@ -7834,14 +7895,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D18" s="75"/>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
@@ -7867,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="90"/>
       <c r="C20" t="s">
         <v>194</v>
@@ -7888,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="90"/>
       <c r="C21" t="s">
         <v>204</v>
@@ -7914,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="90" t="s">
         <v>6</v>
       </c>
@@ -7937,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="90"/>
       <c r="C23" t="s">
         <v>194</v>
@@ -7958,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="90"/>
       <c r="C24" t="s">
         <v>204</v>
@@ -7984,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="90" t="s">
         <v>7</v>
       </c>
@@ -8007,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="90"/>
       <c r="C26" t="s">
         <v>194</v>
@@ -8028,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="90"/>
       <c r="C27" t="s">
         <v>204</v>
@@ -8054,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="90" t="s">
         <v>8</v>
       </c>
@@ -8077,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="90"/>
       <c r="C29" t="s">
         <v>194</v>
@@ -8098,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="90"/>
       <c r="C30" t="s">
         <v>204</v>
@@ -8124,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="90" t="s">
         <v>9</v>
       </c>
@@ -8147,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="90"/>
       <c r="C32" t="s">
         <v>194</v>
@@ -8168,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="90"/>
       <c r="C33" t="s">
         <v>204</v>
@@ -8194,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="79" t="s">
         <v>112</v>
       </c>
@@ -8232,11 +8293,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8248,14 +8304,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>200</v>
       </c>
@@ -8272,7 +8328,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
@@ -8281,25 +8337,25 @@
       </c>
       <c r="E2" s="81"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="81"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="81"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="81"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8308,7 +8364,7 @@
       </c>
       <c r="E6" s="81"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -8318,7 +8374,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
@@ -8327,38 +8383,38 @@
       </c>
       <c r="E9" s="81"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="81"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="81"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="81"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="81"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>203</v>
       </c>
@@ -8367,31 +8423,31 @@
       </c>
       <c r="E16" s="81"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="81"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="81"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="81"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="81"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -8401,11 +8457,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8417,9 +8468,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>199</v>
       </c>
@@ -8433,7 +8484,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -8448,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8463,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8478,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8493,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8510,11 +8561,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8529,12 +8575,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8551,7 +8597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8568,14 +8614,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8584,11 +8630,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8600,7 +8641,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
@@ -8611,7 +8652,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
@@ -8641,7 +8682,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -8670,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>176</v>
@@ -8697,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -8723,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
@@ -8749,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -8777,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -8806,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -8834,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -8863,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -8892,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
@@ -8918,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
@@ -8944,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
@@ -8970,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
@@ -9000,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>171</v>
@@ -9027,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -9054,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
@@ -9080,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
@@ -9107,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -9134,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -9163,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -9189,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -9215,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -9241,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>158</v>
       </c>
@@ -9267,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -9293,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>160</v>
       </c>
@@ -9319,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>164</v>
@@ -9346,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -9372,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -9398,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>167</v>
       </c>
@@ -9424,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -9450,7 +9491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>169</v>
       </c>
@@ -9476,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>170</v>
       </c>
@@ -9502,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="85" t="s">
         <v>206</v>
       </c>
@@ -9528,7 +9569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="85" t="s">
         <v>207</v>
       </c>
@@ -9554,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="85" t="s">
         <v>208</v>
       </c>
@@ -9580,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="85" t="s">
         <v>211</v>
       </c>
@@ -9606,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="85" t="s">
         <v>212</v>
       </c>
@@ -9632,7 +9673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="85" t="s">
         <v>209</v>
       </c>
@@ -9658,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="85" t="s">
         <v>210</v>
       </c>
@@ -9684,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="85" t="s">
         <v>213</v>
       </c>
@@ -9710,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="85" t="s">
         <v>214</v>
       </c>
@@ -9736,10 +9777,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
@@ -9773,7 +9814,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
@@ -9804,7 +9845,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
@@ -9835,7 +9876,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>109</v>
       </c>
@@ -9861,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1">
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
@@ -9894,7 +9935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
         <v>180</v>
       </c>
@@ -9925,7 +9966,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="12" t="s">
         <v>181</v>
       </c>
@@ -9956,7 +9997,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="12" t="s">
         <v>182</v>
       </c>
@@ -9987,21 +10028,16 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10016,14 +10052,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -10043,7 +10079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -10063,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10080,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -10100,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -10117,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -10137,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -10154,7 +10190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -10174,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -10193,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -10213,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -10236,11 +10272,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10255,7 +10286,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
@@ -10264,7 +10295,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1">
+    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -10311,7 +10342,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -10358,7 +10389,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
@@ -10402,7 +10433,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -10446,7 +10477,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -10490,7 +10521,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -10534,7 +10565,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -10578,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -10622,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -10666,7 +10697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -10710,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>158</v>
       </c>
@@ -10754,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>159</v>
       </c>
@@ -10798,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -10842,7 +10873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -10886,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -10930,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>166</v>
       </c>
@@ -10974,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -11018,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -11062,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -11106,7 +11137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>170</v>
       </c>
@@ -11150,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -11194,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1">
+    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
@@ -11238,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="60" t="s">
         <v>83</v>
       </c>
@@ -11282,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="60" t="s">
         <v>173</v>
       </c>
@@ -11326,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="60" t="s">
         <v>87</v>
       </c>
@@ -11370,7 +11401,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -11417,7 +11448,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -11461,7 +11492,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -11505,7 +11536,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -11549,7 +11580,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" s="61" t="s">
         <v>180</v>
       </c>
@@ -11593,7 +11624,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B32" s="61" t="s">
         <v>181</v>
       </c>
@@ -11637,7 +11668,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="61" t="s">
         <v>182</v>
       </c>
@@ -11681,27 +11712,22 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11716,13 +11742,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -11745,7 +11771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>191</v>
       </c>
@@ -11768,7 +11794,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -11793,11 +11819,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11812,7 +11833,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -11823,7 +11844,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -11849,7 +11870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -11875,7 +11896,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -11895,7 +11916,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -11917,7 +11938,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="60" t="s">
         <v>163</v>
@@ -11941,7 +11962,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -11967,7 +11988,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
@@ -11987,7 +12008,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>183</v>
       </c>
@@ -12010,7 +12031,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -12030,7 +12051,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -12056,7 +12077,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
@@ -12076,7 +12097,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -12099,7 +12120,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
@@ -12119,7 +12140,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -12145,7 +12166,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
@@ -12165,7 +12186,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>183</v>
       </c>
@@ -12188,7 +12209,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
@@ -12208,7 +12229,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -12234,7 +12255,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
@@ -12255,7 +12276,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -12279,7 +12300,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
@@ -12300,7 +12321,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>180</v>
       </c>
@@ -12327,7 +12348,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
         <v>68</v>
@@ -12349,7 +12370,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -12375,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
         <v>68</v>
@@ -12396,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>182</v>
       </c>
@@ -12422,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -12446,11 +12467,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12465,13 +12481,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>215</v>
       </c>
@@ -12479,7 +12495,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="85" t="s">
         <v>206</v>
       </c>
@@ -12487,7 +12503,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="85" t="s">
         <v>207</v>
       </c>
@@ -12495,7 +12511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="85" t="s">
         <v>208</v>
       </c>
@@ -12503,7 +12519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13">
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="85" t="s">
         <v>211</v>
       </c>
@@ -12511,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13">
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="85" t="s">
         <v>212</v>
       </c>
@@ -12519,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13">
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="85" t="s">
         <v>209</v>
       </c>
@@ -12527,7 +12543,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13">
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="85" t="s">
         <v>210</v>
       </c>
@@ -12535,7 +12551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13">
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="85" t="s">
         <v>213</v>
       </c>
@@ -12543,7 +12559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="85" t="s">
         <v>214</v>
       </c>
@@ -12554,11 +12570,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12570,7 +12581,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -12578,7 +12589,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12616,7 +12627,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -12658,7 +12669,7 @@
         <v>173766200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -12700,7 +12711,7 @@
         <v>175848400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -12742,7 +12753,7 @@
         <v>177930600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -12784,7 +12795,7 @@
         <v>180012800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -12826,7 +12837,7 @@
         <v>182095000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -12868,7 +12879,7 @@
         <v>183822800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -12910,7 +12921,7 @@
         <v>185550600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -12952,7 +12963,7 @@
         <v>187278400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -12994,7 +13005,7 @@
         <v>189006200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -13036,7 +13047,7 @@
         <v>190734000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -13078,7 +13089,7 @@
         <v>192287600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -13120,7 +13131,7 @@
         <v>193841200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -13162,7 +13173,7 @@
         <v>195394800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -13208,11 +13219,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13224,7 +13230,7 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -13232,7 +13238,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13246,7 +13252,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -13260,7 +13266,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -13274,7 +13280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -13302,7 +13308,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -13316,7 +13322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>84</v>
       </c>
@@ -13330,7 +13336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
@@ -13344,7 +13350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
         <v>173</v>
       </c>
@@ -13372,7 +13378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -13386,7 +13392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -13400,7 +13406,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -13414,7 +13420,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -13428,7 +13434,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>175</v>
       </c>
@@ -13442,7 +13448,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -13456,7 +13462,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -13470,7 +13476,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -13484,7 +13490,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -13498,7 +13504,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -13512,7 +13518,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -13526,7 +13532,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -13540,7 +13546,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -13554,7 +13560,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -13568,7 +13574,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -13582,7 +13588,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -13596,7 +13602,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -13610,7 +13616,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -13624,7 +13630,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -13638,7 +13644,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -13652,7 +13658,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -13666,7 +13672,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -13680,7 +13686,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -13694,7 +13700,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>109</v>
       </c>
@@ -13708,7 +13714,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>180</v>
       </c>
@@ -13722,7 +13728,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>181</v>
       </c>
@@ -13736,7 +13742,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>182</v>
       </c>
@@ -13750,7 +13756,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -13764,7 +13770,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>179</v>
       </c>
@@ -13779,7 +13785,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>189</v>
       </c>
@@ -13794,7 +13800,7 @@
         <v>10.046400000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>190</v>
       </c>
@@ -13809,7 +13815,7 @@
         <v>19.933477200000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="82" t="s">
         <v>206</v>
       </c>
@@ -13823,7 +13829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="82" t="s">
         <v>207</v>
       </c>
@@ -13837,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="82" t="s">
         <v>208</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="82" t="s">
         <v>211</v>
       </c>
@@ -13865,7 +13871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="82" t="s">
         <v>212</v>
       </c>
@@ -13879,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="82" t="s">
         <v>209</v>
       </c>
@@ -13893,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="82" t="s">
         <v>210</v>
       </c>
@@ -13907,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="82" t="s">
         <v>213</v>
       </c>
@@ -13921,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="82" t="s">
         <v>214</v>
       </c>
@@ -13935,18 +13941,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13958,12 +13959,12 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -14101,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -14124,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -14170,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14193,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -14216,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -14262,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -14285,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -14308,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -14331,7 +14332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -14377,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -14423,7 +14424,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -14515,7 +14516,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -14591,11 +14592,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14607,9 +14603,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -14629,7 +14625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -14649,7 +14645,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -14669,7 +14665,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -14689,7 +14685,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -14714,7 +14710,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -14743,11 +14739,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14759,7 +14750,7 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -14768,7 +14759,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -14785,7 +14776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -14800,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -14813,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -14828,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -14843,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
@@ -14858,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>82</v>
@@ -14873,7 +14864,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>128</v>
@@ -14888,7 +14879,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>129</v>
@@ -14903,7 +14894,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>130</v>
@@ -14918,13 +14909,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -14939,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -14951,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -14965,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -14979,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -14993,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -15007,7 +14998,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -15021,7 +15012,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -15035,7 +15026,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -15049,7 +15040,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -15070,11 +15061,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15086,9 +15072,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15111,7 +15097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
@@ -15134,7 +15120,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -15155,7 +15141,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -15176,7 +15162,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -15197,7 +15183,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -15220,7 +15206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -15240,7 +15226,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
@@ -15260,7 +15246,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
@@ -15280,7 +15266,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -15303,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -15323,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -15343,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -15368,11 +15354,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15384,12 +15365,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -15409,7 +15390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -15430,7 +15411,7 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -15445,7 +15426,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -15462,7 +15443,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -15479,7 +15460,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -15496,14 +15477,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -15512,7 +15493,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
@@ -15532,7 +15513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -15549,7 +15530,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -15566,7 +15547,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -15583,7 +15564,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -15600,7 +15581,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -15617,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -15634,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -15655,11 +15636,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15674,7 +15650,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -15682,7 +15658,7 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -15711,7 +15687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -15740,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -15763,7 +15739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -15786,7 +15762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -15809,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -15835,7 +15811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -15858,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -15881,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -15904,7 +15880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -15930,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -15953,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -15976,7 +15952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -15999,7 +15975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -16025,7 +16001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16048,7 +16024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -16071,7 +16047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -16094,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -16120,7 +16096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -16143,7 +16119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -16166,7 +16142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -16189,7 +16165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -16218,7 +16194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -16241,7 +16217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
@@ -16264,7 +16240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
@@ -16287,7 +16263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -16313,7 +16289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -16336,7 +16312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>183</v>
       </c>
@@ -16359,7 +16335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>184</v>
       </c>
@@ -16382,7 +16358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -16408,7 +16384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -16431,7 +16407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
         <v>183</v>
       </c>
@@ -16454,7 +16430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
@@ -16477,7 +16453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -16503,7 +16479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -16526,7 +16502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
         <v>183</v>
       </c>
@@ -16549,7 +16525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
@@ -16572,7 +16548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -16598,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -16621,7 +16597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
@@ -16644,7 +16620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
@@ -16667,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -16696,7 +16672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
@@ -16719,7 +16695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
@@ -16742,7 +16718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
@@ -16765,7 +16741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -16791,7 +16767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
@@ -16814,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
@@ -16837,7 +16813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
@@ -16860,7 +16836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -16886,7 +16862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -16909,7 +16885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
@@ -16932,7 +16908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
@@ -16955,7 +16931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -16981,7 +16957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
@@ -17004,7 +16980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
@@ -17027,7 +17003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
@@ -17050,7 +17026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -17076,7 +17052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -17099,7 +17075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
@@ -17122,7 +17098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
@@ -17145,7 +17121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -17171,7 +17147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -17194,7 +17170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
@@ -17217,7 +17193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
@@ -17240,7 +17216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -17266,7 +17242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -17289,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
@@ -17312,7 +17288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
@@ -17335,7 +17311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -17364,7 +17340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C77" s="4" t="s">
         <v>119</v>
       </c>
@@ -17387,7 +17363,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -17413,7 +17389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
@@ -17436,7 +17412,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>99</v>
       </c>
@@ -17462,7 +17438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
@@ -17485,7 +17461,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -17514,7 +17490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -17537,7 +17513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
@@ -17560,7 +17536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
@@ -17583,17 +17559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17602,13 +17573,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
@@ -17618,7 +17589,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -17641,7 +17612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -17662,7 +17633,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -17682,7 +17653,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>120</v>
       </c>
@@ -17705,7 +17676,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
@@ -17725,7 +17696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
@@ -17745,7 +17716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>142</v>
       </c>
@@ -17765,7 +17736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
@@ -17785,7 +17756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
@@ -17805,77 +17776,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
-      <c r="A12" s="77" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <f>1 + (E7-1)*(1-'Baseline year demographics'!C7)</f>
+        <v>1.2751999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <f>1 + (E7-1)*(1-'Baseline year demographics'!C7)</f>
+        <v>1.2751999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f>E10/E9</f>
+        <v>1.4937499999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f>F10/F9</f>
+        <v>1.4937499999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B14" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C14" s="6">
         <v>5.16</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D14" s="6">
         <v>5.16</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14">
-      <c r="A13" s="78"/>
-      <c r="B13" s="76" t="s">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="78"/>
+      <c r="B15" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
         <v>1.82</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F15" s="8">
         <v>1.82</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1"/>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="60">
-        <v>1.04</v>
-      </c>
-      <c r="D15" s="60">
-        <v>1.04</v>
-      </c>
-      <c r="E15" s="60">
-        <v>1.04</v>
-      </c>
-      <c r="F15" s="60">
-        <v>1.04</v>
-      </c>
-      <c r="G15" s="60">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>28</v>
@@ -17893,6 +17885,29 @@
         <v>1.04</v>
       </c>
       <c r="G17" s="60">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="D19" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="E19" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="F19" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="G19" s="60">
         <v>1.04</v>
       </c>
     </row>
@@ -17900,10 +17915,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -350,6 +350,7 @@
   <authors>
     <author>Janka Petravic</author>
     <author>Ruth</author>
+    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
@@ -475,6 +476,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction poor</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H15" authorId="0">
       <text>
         <r>
@@ -499,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="2">
+    <comment ref="B19" authorId="3">
       <text>
         <r>
           <rPr>
@@ -523,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="2">
+    <comment ref="B20" authorId="3">
       <text>
         <r>
           <rPr>
@@ -547,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="2">
+    <comment ref="A22" authorId="3">
       <text>
         <r>
           <rPr>
@@ -571,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="2">
+    <comment ref="I22" authorId="3">
       <text>
         <r>
           <rPr>
@@ -619,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="2">
+    <comment ref="I29" authorId="3">
       <text>
         <r>
           <rPr>
@@ -667,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="2">
+    <comment ref="E46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -691,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="2">
+    <comment ref="F46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -715,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="2">
+    <comment ref="G46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -739,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="2">
+    <comment ref="H46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -763,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="2">
+    <comment ref="I46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -787,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="2">
+    <comment ref="E47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -811,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="2">
+    <comment ref="F47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -835,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="2">
+    <comment ref="G47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -859,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="2">
+    <comment ref="H47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -883,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="2">
+    <comment ref="I47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -907,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="2">
+    <comment ref="E48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -931,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="2">
+    <comment ref="F48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -955,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="2">
+    <comment ref="G48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -979,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="2">
+    <comment ref="H48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="2">
+    <comment ref="I48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="2">
+    <comment ref="C50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="2">
+    <comment ref="D50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="2">
+    <comment ref="E50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="2">
+    <comment ref="F50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1123,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="2">
+    <comment ref="G50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="2">
+    <comment ref="H50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1171,7 +1196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="2">
+    <comment ref="I50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="2">
+    <comment ref="E51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1219,7 +1244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="2">
+    <comment ref="F51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="2">
+    <comment ref="G51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1267,7 +1292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="2">
+    <comment ref="H51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1291,7 +1316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="2">
+    <comment ref="I51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="2">
+    <comment ref="E52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1339,7 +1364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="2">
+    <comment ref="F52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="2">
+    <comment ref="G52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1387,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H52" authorId="2">
+    <comment ref="H52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I52" authorId="2">
+    <comment ref="I52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="2">
+    <comment ref="E53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1459,7 +1484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="2">
+    <comment ref="F53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1483,7 +1508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G53" authorId="2">
+    <comment ref="G53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H53" authorId="2">
+    <comment ref="H53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1531,7 +1556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I53" authorId="2">
+    <comment ref="I53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -3458,12 +3483,36 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Sam</author>
     <author>Janka Petravic</author>
-    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3487,7 +3536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="1">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3507,11 +3556,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This 'dilutes' OR so that we 'cover' everyone with IYCF</t>
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF</t>
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3535,7 +3584,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="2">
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="2">
       <text>
         <r>
           <rPr>
@@ -3559,7 +3656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="2">
+    <comment ref="B18" authorId="2">
       <text>
         <r>
           <rPr>
@@ -3583,7 +3680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="1">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3699,7 +3796,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="221">
   <si>
     <t>year</t>
   </si>
@@ -4361,10 +4458,7 @@
     <t>unmet need for family planning</t>
   </si>
   <si>
-    <t>Complementary feeding (adjusted food secure without promotion)</t>
-  </si>
-  <si>
-    <t>Public provision of complementary foods (food insecure)</t>
+    <t>OR for food security groups</t>
   </si>
 </sst>
 </file>
@@ -5171,7 +5265,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5310,10 +5404,13 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="565">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7521,7 +7618,7 @@
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7544,7 +7641,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="90"/>
+      <c r="B3" s="91"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7566,7 +7663,7 @@
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="90"/>
+      <c r="B4" s="91"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
@@ -7593,7 +7690,7 @@
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7616,7 +7713,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="90"/>
+      <c r="B6" s="91"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -7637,7 +7734,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="90"/>
+      <c r="B7" s="91"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -7663,7 +7760,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="91" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -7686,7 +7783,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="90"/>
+      <c r="B9" s="91"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -7707,7 +7804,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="90"/>
+      <c r="B10" s="91"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
@@ -7733,7 +7830,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -7756,7 +7853,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="90"/>
+      <c r="B12" s="91"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -7777,7 +7874,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="90"/>
+      <c r="B13" s="91"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -7803,7 +7900,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="91" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -7826,7 +7923,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="90"/>
+      <c r="B15" s="91"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -7847,7 +7944,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
@@ -7906,7 +8003,7 @@
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="91" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -7929,7 +8026,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
+      <c r="B20" s="91"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -7950,7 +8047,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="90"/>
+      <c r="B21" s="91"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -7976,7 +8073,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -7999,7 +8096,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="90"/>
+      <c r="B23" s="91"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8020,7 +8117,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="90"/>
+      <c r="B24" s="91"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -8046,7 +8143,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="91" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8069,7 +8166,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="90"/>
+      <c r="B26" s="91"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8090,7 +8187,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="90"/>
+      <c r="B27" s="91"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8116,7 +8213,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8139,7 +8236,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="90"/>
+      <c r="B29" s="91"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8160,7 +8257,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="90"/>
+      <c r="B30" s="91"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8186,7 +8283,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="91" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8209,7 +8306,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="90"/>
+      <c r="B32" s="91"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8230,7 +8327,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="90"/>
+      <c r="B33" s="91"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -8637,8 +8734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8940,17 +9037,21 @@
       <c r="C11" s="69">
         <v>0</v>
       </c>
-      <c r="D11" s="69">
-        <v>1</v>
-      </c>
-      <c r="E11" s="69">
-        <v>1</v>
-      </c>
-      <c r="F11" s="69">
-        <v>1</v>
-      </c>
-      <c r="G11" s="69">
-        <v>1</v>
+      <c r="D11" s="92">
+        <f>'Baseline year demographics'!$C$7</f>
+        <v>0.36</v>
+      </c>
+      <c r="E11" s="92">
+        <f>'Baseline year demographics'!$C$7</f>
+        <v>0.36</v>
+      </c>
+      <c r="F11" s="92">
+        <f>'Baseline year demographics'!$C$7</f>
+        <v>0.36</v>
+      </c>
+      <c r="G11" s="92">
+        <f>'Baseline year demographics'!$C$7</f>
+        <v>0.36</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -13226,7 +13327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -17573,10 +17674,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17655,10 +17756,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -17670,15 +17771,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -17687,10 +17788,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -17698,7 +17799,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -17707,10 +17808,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="F7" s="4">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -17718,7 +17819,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -17738,7 +17839,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -17747,38 +17848,29 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>1.6</v>
+        <v>2.39</v>
       </c>
       <c r="F9" s="4">
-        <v>1.6</v>
+        <v>2.39</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2.39</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.39</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="91" t="s">
-        <v>220</v>
+      <c r="A11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -17787,127 +17879,191 @@
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <f>1 + (E7-1)*(1-'Baseline year demographics'!C7)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f>1 + (E6-1)*(1-'Baseline year demographics'!C7)</f>
         <v>1.2751999999999999</v>
       </c>
-      <c r="F11" s="4">
-        <f>1 + (E7-1)*(1-'Baseline year demographics'!C7)</f>
+      <c r="F12" s="4">
+        <f>1 + (E6-1)*(1-'Baseline year demographics'!C7)</f>
         <v>1.2751999999999999</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <f>E10/E9</f>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f>E9/E8</f>
         <v>1.4937499999999999</v>
       </c>
-      <c r="F12" s="4">
-        <f>F10/F9</f>
+      <c r="F13" s="4">
+        <f>F9/F8</f>
         <v>1.4937499999999999</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E9/E8</f>
+        <v>1.4937499999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F9/F8</f>
+        <v>1.4937499999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <f>E9/E8</f>
+        <v>1.4937499999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <f>F9/F8</f>
+        <v>1.4937499999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B17" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C17" s="6">
         <v>5.16</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D17" s="6">
         <v>5.16</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="76" t="s">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="78"/>
+      <c r="B18" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.82</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F18" s="8">
         <v>1.82</v>
       </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C20" s="60">
         <v>1.04</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D20" s="60">
         <v>1.04</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E20" s="60">
         <v>1.04</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F20" s="60">
         <v>1.04</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G20" s="60">
         <v>1.04</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C22" s="60">
         <v>1.04</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D22" s="60">
         <v>1.04</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E22" s="60">
         <v>1.04</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F22" s="60">
         <v>1.04</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G22" s="60">
         <v>1.04</v>
       </c>
     </row>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2404,7 +2404,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2429,7 +2429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="1">
+    <comment ref="D7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2453,7 +2453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="1">
+    <comment ref="D12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2477,7 +2477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="2">
+    <comment ref="A13" authorId="2">
       <text>
         <r>
           <rPr>
@@ -2501,7 +2501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2525,7 +2525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="2">
+    <comment ref="A14" authorId="2">
       <text>
         <r>
           <rPr>
@@ -2549,7 +2549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="2">
+    <comment ref="A21" authorId="2">
       <text>
         <r>
           <rPr>
@@ -2573,7 +2573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="1">
+    <comment ref="D21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2597,7 +2597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="2">
+    <comment ref="A28" authorId="2">
       <text>
         <r>
           <rPr>
@@ -2621,7 +2621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="1">
+    <comment ref="D28" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2645,7 +2645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2666,6 +2666,78 @@
           </rPr>
           <t xml:space="preserve">
 This is the fraction of the population eating these staples and belongs here.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+orton Copenhagen Consensus 2008</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+orton Copenhagen Consensus 2008</t>
         </r>
       </text>
     </comment>
@@ -2693,27 +2765,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="1">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Same effect as iron fortification</t>
+This is the fraction of the population eating these staples and belongs here.</t>
         </r>
       </text>
     </comment>
@@ -2741,7 +2813,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="1">
+    <comment ref="B36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="3">
       <text>
         <r>
           <rPr>
@@ -2751,7 +2847,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -2761,31 +2857,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-orton Copenhagen Consensus 2008</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the fraction of the population eating these staples and belongs here.</t>
+From Nick</t>
         </r>
       </text>
     </comment>
@@ -2809,83 +2881,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-orton Copenhagen Consensus 2008</t>
+Per person per year</t>
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D38" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-From Nick</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D39" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Per person per year</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D40" authorId="1">
+    <comment ref="D38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="221">
   <si>
     <t>year</t>
   </si>
@@ -4698,7 +4698,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="565">
+  <cellStyleXfs count="571">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4710,6 +4710,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5412,7 +5418,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="565">
+  <cellStyles count="571">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5695,6 +5701,9 @@
     <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5976,6 +5985,9 @@
     <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -13325,10 +13337,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13355,77 +13367,77 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="B2" s="14">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="C2" s="14">
         <v>0.85</v>
       </c>
       <c r="D2" s="14">
-        <v>3.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="B3" s="14">
-        <v>0</v>
+        <v>0.621</v>
       </c>
       <c r="C3" s="14">
         <v>0.85</v>
       </c>
       <c r="D3" s="14">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B4" s="14">
-        <v>0.621</v>
+        <v>0</v>
       </c>
       <c r="C4" s="14">
         <v>0.85</v>
       </c>
       <c r="D4" s="14">
-        <v>0.35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0.247</v>
-      </c>
-      <c r="C5" s="14">
+        <v>84</v>
+      </c>
+      <c r="B5" s="63">
+        <v>0</v>
+      </c>
+      <c r="C5" s="64">
         <v>0.85</v>
       </c>
-      <c r="D5" s="14">
-        <v>3.56</v>
+      <c r="D5" s="70">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
+        <v>172</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34">
         <v>0.85</v>
       </c>
-      <c r="D6" s="14">
-        <v>48</v>
+      <c r="D6" s="19">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="63">
         <v>0</v>
@@ -13434,12 +13446,12 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="70">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>172</v>
+      <c r="A8" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="B8" s="34">
         <v>0</v>
@@ -13448,40 +13460,40 @@
         <v>0.85</v>
       </c>
       <c r="D8" s="19">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="63">
-        <v>0</v>
-      </c>
-      <c r="C9" s="64">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
         <v>0.85</v>
       </c>
-      <c r="D9" s="70">
-        <v>1</v>
+      <c r="D9" s="14">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="34">
-        <v>0</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="65">
+        <v>0</v>
+      </c>
+      <c r="C10" s="66">
         <v>0.85</v>
       </c>
-      <c r="D10" s="19">
-        <v>1</v>
+      <c r="D10" s="66">
+        <v>2.99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
@@ -13490,12 +13502,12 @@
         <v>0.85</v>
       </c>
       <c r="D11" s="14">
-        <v>25</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>171</v>
+      <c r="A12" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B12" s="65">
         <v>0</v>
@@ -13504,12 +13516,12 @@
         <v>0.85</v>
       </c>
       <c r="D12" s="66">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>174</v>
+      <c r="A13" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B13" s="14">
         <v>0</v>
@@ -13518,26 +13530,26 @@
         <v>0.85</v>
       </c>
       <c r="D13" s="14">
-        <v>2.99</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="65">
-        <v>0</v>
-      </c>
-      <c r="C14" s="66">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
         <v>0.85</v>
       </c>
-      <c r="D14" s="66">
-        <v>1.78</v>
+      <c r="D14" s="14">
+        <v>2.06</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>175</v>
+      <c r="A15" t="s">
+        <v>154</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
@@ -13546,12 +13558,12 @@
         <v>0.85</v>
       </c>
       <c r="D15" s="14">
-        <v>1.78</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
@@ -13560,12 +13572,12 @@
         <v>0.85</v>
       </c>
       <c r="D16" s="14">
-        <v>2.06</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -13574,12 +13586,12 @@
         <v>0.85</v>
       </c>
       <c r="D17" s="14">
-        <v>0.55000000000000004</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" s="14">
         <v>0</v>
@@ -13588,12 +13600,12 @@
         <v>0.85</v>
       </c>
       <c r="D18" s="14">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B19" s="14">
         <v>0</v>
@@ -13602,12 +13614,12 @@
         <v>0.85</v>
       </c>
       <c r="D19" s="14">
-        <v>1.78</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B20" s="14">
         <v>0</v>
@@ -13616,12 +13628,12 @@
         <v>0.85</v>
       </c>
       <c r="D20" s="14">
-        <v>0.55000000000000004</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B21" s="14">
         <v>0</v>
@@ -13630,12 +13642,12 @@
         <v>0.85</v>
       </c>
       <c r="D21" s="14">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B22" s="14">
         <v>0</v>
@@ -13644,12 +13656,12 @@
         <v>0.85</v>
       </c>
       <c r="D22" s="14">
-        <v>1.78</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -13658,12 +13670,12 @@
         <v>0.85</v>
       </c>
       <c r="D23" s="14">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B24" s="14">
         <v>0</v>
@@ -13672,12 +13684,12 @@
         <v>0.85</v>
       </c>
       <c r="D24" s="14">
-        <v>0.55000000000000004</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B25" s="14">
         <v>0</v>
@@ -13686,12 +13698,12 @@
         <v>0.85</v>
       </c>
       <c r="D25" s="14">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" s="14">
         <v>0</v>
@@ -13700,12 +13712,12 @@
         <v>0.85</v>
       </c>
       <c r="D26" s="14">
-        <v>1.78</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B27" s="14">
         <v>0</v>
@@ -13714,12 +13726,12 @@
         <v>0.85</v>
       </c>
       <c r="D27" s="14">
-        <v>0.55000000000000004</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B28" s="14">
         <v>0</v>
@@ -13728,200 +13740,200 @@
         <v>0.85</v>
       </c>
       <c r="D28" s="14">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>169</v>
+      <c r="A29" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="14">
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1.78</v>
+        <v>0.12</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.18</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>170</v>
+      <c r="A30" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B30" s="14">
         <v>0</v>
       </c>
       <c r="C30" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.24</v>
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="14">
         <v>0</v>
       </c>
       <c r="C31" s="14">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
       <c r="D31" s="19">
-        <v>0.18</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B32" s="14">
         <v>0</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="19">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14">
         <v>0.05</v>
       </c>
-      <c r="D32" s="19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="14">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="14">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.85</v>
-      </c>
       <c r="D34" s="19">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="14">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D37" s="19">
+        <f>180</f>
         <v>180</v>
-      </c>
-      <c r="B35" s="19">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="19">
-        <v>0</v>
-      </c>
-      <c r="C36" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D36" s="19">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="19">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="B38" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
         <v>0.85</v>
       </c>
       <c r="D38" s="19">
-        <v>2.61</v>
+        <f>30*AVERAGE('Incidence of conditions'!B5:F5)</f>
+        <v>10.046400000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B39" s="14">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C39" s="13">
         <v>0.85</v>
       </c>
       <c r="D39" s="19">
-        <f>180</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="14">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D40" s="19">
-        <f>30*AVERAGE('Incidence of conditions'!B5:F5)</f>
-        <v>10.046400000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="D41" s="19">
         <f>179.97*AVERAGE('Incidence of conditions'!B6:F6)</f>
         <v>19.933477200000002</v>
       </c>
     </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="88">
+        <v>0.09</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D40" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D41" s="83">
+        <v>1</v>
+      </c>
+    </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B42" s="88">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C42" s="14">
         <v>0.85</v>
@@ -13932,10 +13944,10 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="82" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B43" s="88">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="C43" s="14">
         <v>0.85</v>
@@ -13946,10 +13958,10 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="82" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B44" s="88">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="C44" s="14">
         <v>0.85</v>
@@ -13960,10 +13972,10 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B45" s="88">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="C45" s="14">
         <v>0.85</v>
@@ -13974,10 +13986,10 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B46" s="88">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C46" s="14">
         <v>0.85</v>
@@ -13988,10 +14000,10 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="82" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B47" s="88">
-        <v>0.45</v>
+        <v>0.11</v>
       </c>
       <c r="C47" s="14">
         <v>0.85</v>
@@ -14002,10 +14014,10 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="82" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B48" s="88">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C48" s="14">
         <v>0.85</v>
@@ -14014,36 +14026,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="88">
-        <v>0.11</v>
-      </c>
-      <c r="C49" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D49" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D50" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="84"/>
+    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17676,8 +17660,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -4698,7 +4698,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="571">
+  <cellStyleXfs count="577">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4710,6 +4710,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5411,14 +5417,14 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="571">
+  <cellStyles count="577">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5704,6 +5710,9 @@
     <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5988,6 +5997,9 @@
     <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -7630,7 +7642,7 @@
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="92" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7653,7 +7665,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="91"/>
+      <c r="B3" s="92"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7675,7 +7687,7 @@
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
@@ -7702,7 +7714,7 @@
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="92" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7725,7 +7737,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -7746,7 +7758,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="91"/>
+      <c r="B7" s="92"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -7772,7 +7784,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="92" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -7795,7 +7807,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="91"/>
+      <c r="B9" s="92"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -7816,7 +7828,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="91"/>
+      <c r="B10" s="92"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
@@ -7842,7 +7854,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="92" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -7865,7 +7877,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="91"/>
+      <c r="B12" s="92"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -7886,7 +7898,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="91"/>
+      <c r="B13" s="92"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -7912,7 +7924,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="92" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -7935,7 +7947,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="91"/>
+      <c r="B15" s="92"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -7956,7 +7968,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="91"/>
+      <c r="B16" s="92"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
@@ -8015,7 +8027,7 @@
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="92" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -8038,7 +8050,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="91"/>
+      <c r="B20" s="92"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -8059,7 +8071,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="91"/>
+      <c r="B21" s="92"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -8085,7 +8097,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="92" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8108,7 +8120,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="91"/>
+      <c r="B23" s="92"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8129,7 +8141,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
+      <c r="B24" s="92"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -8155,7 +8167,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="92" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8178,7 +8190,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="91"/>
+      <c r="B26" s="92"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8199,7 +8211,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="91"/>
+      <c r="B27" s="92"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8225,7 +8237,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="92" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8248,7 +8260,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="91"/>
+      <c r="B29" s="92"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8269,7 +8281,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="91"/>
+      <c r="B30" s="92"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8295,7 +8307,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="92" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8318,7 +8330,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="91"/>
+      <c r="B32" s="92"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8339,7 +8351,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="91"/>
+      <c r="B33" s="92"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -9049,19 +9061,19 @@
       <c r="C11" s="69">
         <v>0</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
@@ -13339,8 +13351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17660,8 +17672,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17883,12 +17895,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <f>1 + (E6-1)*(1-'Baseline year demographics'!C7)</f>
-        <v>1.2751999999999999</v>
+        <f>1/(1 + (E6-1)*(1-'Baseline year demographics'!$C$7))</f>
+        <v>0.78419071518193229</v>
       </c>
       <c r="F12" s="4">
-        <f>1 + (E6-1)*(1-'Baseline year demographics'!C7)</f>
-        <v>1.2751999999999999</v>
+        <f>1/(1 + (F6-1)*(1-'Baseline year demographics'!$C$7))</f>
+        <v>0.78419071518193229</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -17905,12 +17917,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f>E9/E8</f>
-        <v>1.4937499999999999</v>
+        <f>1 / (E$9/E$8)</f>
+        <v>0.66945606694560678</v>
       </c>
       <c r="F13" s="4">
-        <f>F9/F8</f>
-        <v>1.4937499999999999</v>
+        <f>1 / (F$9/F$8)</f>
+        <v>0.66945606694560678</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -17927,12 +17939,12 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <f>E9/E8</f>
-        <v>1.4937499999999999</v>
+        <f t="shared" ref="E14:F15" si="0">1 / (E$9/E$8)</f>
+        <v>0.66945606694560678</v>
       </c>
       <c r="F14" s="4">
-        <f>F9/F8</f>
-        <v>1.4937499999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.66945606694560678</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -17949,12 +17961,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <f>E9/E8</f>
-        <v>1.4937499999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.66945606694560678</v>
       </c>
       <c r="F15" s="4">
-        <f>F9/F8</f>
-        <v>1.4937499999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.66945606694560678</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,16 @@
     <sheet name="Odds ratios" sheetId="27" r:id="rId9"/>
     <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId10"/>
     <sheet name="IYCF packages" sheetId="33" r:id="rId11"/>
-    <sheet name="IYCF target pop" sheetId="35" r:id="rId12"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId13"/>
-    <sheet name="Interventions target population" sheetId="21" r:id="rId14"/>
-    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId15"/>
-    <sheet name="Interventions anemia" sheetId="30" r:id="rId16"/>
-    <sheet name="Interventions wasting" sheetId="31" r:id="rId17"/>
-    <sheet name="Interventions for children" sheetId="28" r:id="rId18"/>
-    <sheet name="Interventions family planning" sheetId="34" r:id="rId19"/>
-    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
+    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId12"/>
+    <sheet name="IYCF costs" sheetId="36" r:id="rId13"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId14"/>
+    <sheet name="Interventions target population" sheetId="21" r:id="rId15"/>
+    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId16"/>
+    <sheet name="Interventions anemia" sheetId="30" r:id="rId17"/>
+    <sheet name="Interventions wasting" sheetId="31" r:id="rId18"/>
+    <sheet name="Interventions for children" sheetId="28" r:id="rId19"/>
+    <sheet name="Interventions family planning" sheetId="34" r:id="rId20"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -348,135 +349,58 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Janka Petravic</author>
-    <author>Ruth</author>
     <author>Sam</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-food insecure - default poor</t>
+1.5*unit cost of BFP</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-poor, not in malaria area
-</t>
+0.5* unit cost of BFP</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-poor, in malaria area
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-poor, not in malaria area</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-poor, in malaria area</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="2">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,1087 +420,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Fraction poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Coverage of these interventions is mutually exclusive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In baseline year, assuming only non-pregnant go to school</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I29" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In baseline year, assuming only non-pregnant go to school</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
+Totally fictional</t>
         </r>
       </text>
     </comment>
@@ -1587,35 +431,34 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Poor pregnant women - all target population</t>
+1.5*unit cost of BFP</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1625,7 +468,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -1635,11 +478,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+0.5* unit cost of BFP</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="1">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1649,7 +492,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -1659,55 +502,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
+Totally fictional</t>
         </r>
       </text>
     </comment>
@@ -1718,12 +513,183 @@
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Janka Petravic</author>
+    <author>Ruth</author>
+    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
-    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, not in malaria area
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, in malaria area
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, not in malaria area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, in malaria area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1747,111 +713,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1">
+    <comment ref="B20" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Also brestfeeding women up to 6 months?</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1">
+    <comment ref="A22" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Coverage of these interventions is mutually exclusive</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1">
+    <comment ref="I22" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+In baseline year, assuming only non-pregnant go to school</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1">
+    <comment ref="I23" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+food insecure - default poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="I29" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1871,395 +829,371 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+In baseline year, assuming only non-pregnant go to school</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="I30" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+food insecure - default poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="E46" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating wheat</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="F46" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating wheat</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1">
+    <comment ref="G46" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating wheat</t>
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1">
+    <comment ref="H46" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating wheat</t>
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1">
+    <comment ref="I46" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating wheat</t>
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="1">
+    <comment ref="E47" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating maize</t>
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="1">
+    <comment ref="F47" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating maize</t>
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="1">
+    <comment ref="G47" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating maize</t>
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="1">
+    <comment ref="H47" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating maize</t>
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="1">
+    <comment ref="I47" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Fraction eating maize</t>
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="1">
+    <comment ref="E48" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+fraction eating rice</t>
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="1">
+    <comment ref="F48" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
+fraction eating rice</t>
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="1">
+    <comment ref="G48" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
+fraction eating rice</t>
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="1">
+    <comment ref="H48" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Only in malaria risk</t>
+fraction eating rice</t>
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="2">
+    <comment ref="I48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -2269,7 +1203,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Ruth:</t>
+          <t xml:space="preserve"> Janka Petravic:</t>
         </r>
         <r>
           <rPr>
@@ -2279,32 +1213,535 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-made this number up
-</t>
+fraction eating rice</t>
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="1">
+    <comment ref="C50" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Same effect as iron fortification</t>
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D50" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F50" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I50" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G51" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H51" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I51" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G52" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I52" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G53" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H53" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
         </r>
       </text>
     </comment>
@@ -2315,11 +1752,35 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="F21" authorId="0">
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Poor pregnant women - all target population</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2339,11 +1800,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="1">
+    <comment ref="D9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2353,7 +1814,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -2363,11 +1824,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="1">
+    <comment ref="C11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2377,7 +1838,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -2387,7 +1848,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+% at risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -2396,6 +1881,686 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Microsoft Office User</author>
+    <author>Ruth</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="F21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WHO statement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ruth</author>
@@ -3796,7 +3961,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="224">
   <si>
     <t>year</t>
   </si>
@@ -4459,6 +4624,15 @@
   </si>
   <si>
     <t>OR for food security groups</t>
+  </si>
+  <si>
+    <t>Package information</t>
+  </si>
+  <si>
+    <t>Target populations</t>
+  </si>
+  <si>
+    <t>Unit costs</t>
   </si>
 </sst>
 </file>
@@ -8421,8 +8595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8502,11 +8676,17 @@
       <c r="B9" t="s">
         <v>81</v>
       </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
       <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
       </c>
       <c r="E10" s="81"/>
     </row>
@@ -8582,14 +8762,214 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <f>'Baseline year demographics'!C9</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f>'Baseline year demographics'!C10</f>
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D8">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D12" si="1">0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
@@ -8610,14 +8990,15 @@
         <v>81</v>
       </c>
       <c r="B2">
-        <f>'Baseline year demographics'!C9</f>
-        <v>0.5</v>
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -8625,14 +9006,15 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <f>'Baseline year demographics'!C10</f>
-        <v>0.3</v>
+        <f t="shared" ref="B3:B6" si="0">1.5*0.61</f>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f t="shared" ref="C3:C6" si="1">0.5*0.61</f>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -8640,14 +9022,15 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <f>'Baseline year demographics'!C10</f>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -8655,14 +9038,15 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <f>'Baseline year demographics'!C10</f>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -8670,22 +9054,24 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <f>'Baseline year demographics'!C10</f>
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -8754,7 +9140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
@@ -10166,7 +10552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -10400,7 +10786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11856,7 +12242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11947,7 +12333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -12595,7 +12981,656 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="24">
+        <v>3095470</v>
+      </c>
+      <c r="C2" s="25">
+        <v>15402200</v>
+      </c>
+      <c r="D2" s="25">
+        <v>8785700</v>
+      </c>
+      <c r="E2" s="25">
+        <v>13889200</v>
+      </c>
+      <c r="F2" s="25">
+        <v>12671800</v>
+      </c>
+      <c r="G2" s="25">
+        <v>9362400</v>
+      </c>
+      <c r="H2" s="26">
+        <f>D2+E2+F2+G2</f>
+        <v>44709100</v>
+      </c>
+      <c r="I2" s="27">
+        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
+        <v>3650590.4685349194</v>
+      </c>
+      <c r="J2" s="28">
+        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
+        <v>0.19650809343064388</v>
+      </c>
+      <c r="K2" s="26">
+        <f>H2-I2</f>
+        <v>41058509.531465083</v>
+      </c>
+      <c r="L2" s="55">
+        <v>173766200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="24">
+        <v>3071259</v>
+      </c>
+      <c r="C3" s="25">
+        <v>15629400.000000002</v>
+      </c>
+      <c r="D3" s="25">
+        <v>8937400.0000000019</v>
+      </c>
+      <c r="E3" s="25">
+        <v>14228400.000000002</v>
+      </c>
+      <c r="F3" s="25">
+        <v>12949600</v>
+      </c>
+      <c r="G3" s="25">
+        <v>9576800</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
+        <v>45692200</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" si="0"/>
+        <v>3622037.632993402</v>
+      </c>
+      <c r="J3" s="28">
+        <f t="shared" si="1"/>
+        <v>0.19560012431005733</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
+        <v>42070162.3670066</v>
+      </c>
+      <c r="L3" s="55">
+        <v>175848400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="24">
+        <v>3045241</v>
+      </c>
+      <c r="C4" s="25">
+        <v>15856600.000000002</v>
+      </c>
+      <c r="D4" s="25">
+        <v>9089100.0000000019</v>
+      </c>
+      <c r="E4" s="25">
+        <v>14567600.000000002</v>
+      </c>
+      <c r="F4" s="25">
+        <v>13227400</v>
+      </c>
+      <c r="G4" s="25">
+        <v>9791200.0000000019</v>
+      </c>
+      <c r="H4" s="26">
+        <f t="shared" si="2"/>
+        <v>46675300</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="0"/>
+        <v>3591353.7424015561</v>
+      </c>
+      <c r="J4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.19473040344679096</v>
+      </c>
+      <c r="K4" s="26">
+        <f t="shared" si="3"/>
+        <v>43083946.257598445</v>
+      </c>
+      <c r="L4" s="55">
+        <v>177930600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="24">
+        <v>3017266</v>
+      </c>
+      <c r="C5" s="25">
+        <v>16083800.000000004</v>
+      </c>
+      <c r="D5" s="25">
+        <v>9240800.0000000037</v>
+      </c>
+      <c r="E5" s="25">
+        <v>14906800.000000004</v>
+      </c>
+      <c r="F5" s="25">
+        <v>13505200</v>
+      </c>
+      <c r="G5" s="25">
+        <v>10005600.000000004</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" si="2"/>
+        <v>47658400.000000015</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>3558361.8967828737</v>
+      </c>
+      <c r="J5" s="28">
+        <f t="shared" si="1"/>
+        <v>0.19389656387960991</v>
+      </c>
+      <c r="K5" s="26">
+        <f t="shared" si="3"/>
+        <v>44100038.10321714</v>
+      </c>
+      <c r="L5" s="55">
+        <v>180012800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2990677</v>
+      </c>
+      <c r="C6" s="25">
+        <v>16311000.000000004</v>
+      </c>
+      <c r="D6" s="25">
+        <v>9392500.0000000037</v>
+      </c>
+      <c r="E6" s="25">
+        <v>15246000.000000004</v>
+      </c>
+      <c r="F6" s="25">
+        <v>13783000</v>
+      </c>
+      <c r="G6" s="25">
+        <v>10220000.000000004</v>
+      </c>
+      <c r="H6" s="26">
+        <f t="shared" si="2"/>
+        <v>48641500.000000015</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="0"/>
+        <v>3527004.6069471212</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1930964300031866</v>
+      </c>
+      <c r="K6" s="26">
+        <f t="shared" si="3"/>
+        <v>45114495.393052891</v>
+      </c>
+      <c r="L6" s="55">
+        <v>182095000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="24">
+        <v>2962144</v>
+      </c>
+      <c r="C7" s="25">
+        <v>16190600.000000004</v>
+      </c>
+      <c r="D7" s="25">
+        <v>9004300.0000000037</v>
+      </c>
+      <c r="E7" s="25">
+        <v>15785700.000000004</v>
+      </c>
+      <c r="F7" s="25">
+        <v>13711700</v>
+      </c>
+      <c r="G7" s="25">
+        <v>10609600.000000004</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="2"/>
+        <v>49111300.000000015</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>3493354.6934158299</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1833447699409301</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="3"/>
+        <v>45617945.306584187</v>
+      </c>
+      <c r="L7" s="55">
+        <v>183822800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2931643</v>
+      </c>
+      <c r="C8" s="25">
+        <v>16070200.000000004</v>
+      </c>
+      <c r="D8" s="25">
+        <v>8616100.0000000019</v>
+      </c>
+      <c r="E8" s="25">
+        <v>16325400.000000004</v>
+      </c>
+      <c r="F8" s="25">
+        <v>13640400</v>
+      </c>
+      <c r="G8" s="25">
+        <v>10999200.000000002</v>
+      </c>
+      <c r="H8" s="26">
+        <f t="shared" si="2"/>
+        <v>49581100.000000007</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>3457383.8521927581</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17377791134121673</v>
+      </c>
+      <c r="K8" s="26">
+        <f t="shared" si="3"/>
+        <v>46123716.147807248</v>
+      </c>
+      <c r="L8" s="55">
+        <v>185550600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2899255</v>
+      </c>
+      <c r="C9" s="25">
+        <v>15949800.000000006</v>
+      </c>
+      <c r="D9" s="25">
+        <v>8227900.0000000019</v>
+      </c>
+      <c r="E9" s="25">
+        <v>16865100.000000004</v>
+      </c>
+      <c r="F9" s="25">
+        <v>13569100</v>
+      </c>
+      <c r="G9" s="25">
+        <v>11388800</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="2"/>
+        <v>50050900.000000007</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>3419187.609265219</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16439065031797631</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="3"/>
+        <v>46631712.390734792</v>
+      </c>
+      <c r="L9" s="55">
+        <v>187278400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="24">
+        <v>2865008</v>
+      </c>
+      <c r="C10" s="25">
+        <v>15829400.000000006</v>
+      </c>
+      <c r="D10" s="25">
+        <v>7839700.0000000019</v>
+      </c>
+      <c r="E10" s="25">
+        <v>17404800.000000004</v>
+      </c>
+      <c r="F10" s="25">
+        <v>13497800</v>
+      </c>
+      <c r="G10" s="25">
+        <v>11778400</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="2"/>
+        <v>50520700.000000007</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>3378798.9859621613</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.15517797655218554</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="3"/>
+        <v>47141901.014037848</v>
+      </c>
+      <c r="L10" s="55">
+        <v>189006200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2836142</v>
+      </c>
+      <c r="C11" s="25">
+        <v>15709000.000000006</v>
+      </c>
+      <c r="D11" s="25">
+        <v>7451500.0000000019</v>
+      </c>
+      <c r="E11" s="25">
+        <v>17944500</v>
+      </c>
+      <c r="F11" s="25">
+        <v>13426500</v>
+      </c>
+      <c r="G11" s="25">
+        <v>12168000</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="2"/>
+        <v>50990500</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>3344756.3544830228</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1461350643747365</v>
+      </c>
+      <c r="K11" s="26">
+        <f t="shared" si="3"/>
+        <v>47645743.645516977</v>
+      </c>
+      <c r="L11" s="55">
+        <v>190734000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2805541</v>
+      </c>
+      <c r="C12" s="25">
+        <v>15358200.000000006</v>
+      </c>
+      <c r="D12" s="25">
+        <v>7411700.0000000019</v>
+      </c>
+      <c r="E12" s="25">
+        <v>17710400</v>
+      </c>
+      <c r="F12" s="25">
+        <v>13766300</v>
+      </c>
+      <c r="G12" s="25">
+        <v>12445000</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="2"/>
+        <v>51333400</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="0"/>
+        <v>3308667.5799422786</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14438357872262508</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="3"/>
+        <v>48024732.420057721</v>
+      </c>
+      <c r="L12" s="55">
+        <v>192287600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="24">
+        <v>2773236</v>
+      </c>
+      <c r="C13" s="25">
+        <v>15007400.000000007</v>
+      </c>
+      <c r="D13" s="25">
+        <v>7371900.0000000019</v>
+      </c>
+      <c r="E13" s="25">
+        <v>17476300</v>
+      </c>
+      <c r="F13" s="25">
+        <v>14106100</v>
+      </c>
+      <c r="G13" s="25">
+        <v>12722000</v>
+      </c>
+      <c r="H13" s="26">
+        <f t="shared" si="2"/>
+        <v>51676300</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="0"/>
+        <v>3270569.2216684073</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14265533716616713</v>
+      </c>
+      <c r="K13" s="26">
+        <f t="shared" si="3"/>
+        <v>48405730.778331593</v>
+      </c>
+      <c r="L13" s="55">
+        <v>193841200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2739273</v>
+      </c>
+      <c r="C14" s="25">
+        <v>14656600.000000007</v>
+      </c>
+      <c r="D14" s="25">
+        <v>7332100.0000000009</v>
+      </c>
+      <c r="E14" s="25">
+        <v>17242200</v>
+      </c>
+      <c r="F14" s="25">
+        <v>14445900</v>
+      </c>
+      <c r="G14" s="25">
+        <v>12999000</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="2"/>
+        <v>52019200</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="0"/>
+        <v>3230515.5289875376</v>
+      </c>
+      <c r="J14" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14094988004429135</v>
+      </c>
+      <c r="K14" s="26">
+        <f t="shared" si="3"/>
+        <v>48788684.471012466</v>
+      </c>
+      <c r="L14" s="55">
+        <v>195394800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="24">
+        <v>2703670</v>
+      </c>
+      <c r="C15" s="25">
+        <v>14305800.000000007</v>
+      </c>
+      <c r="D15" s="25">
+        <v>7292300.0000000009</v>
+      </c>
+      <c r="E15" s="25">
+        <v>17008100</v>
+      </c>
+      <c r="F15" s="25">
+        <v>14785700</v>
+      </c>
+      <c r="G15" s="25">
+        <v>13276000</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="2"/>
+        <v>52362100</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="0"/>
+        <v>3188527.7298968509</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="1"/>
+        <v>0.139266759736527</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="3"/>
+        <v>49173572.270103149</v>
+      </c>
+      <c r="L15" s="55">
+        <v>196948400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -12698,656 +13733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="24">
-        <v>3095470</v>
-      </c>
-      <c r="C2" s="25">
-        <v>15402200</v>
-      </c>
-      <c r="D2" s="25">
-        <v>8785700</v>
-      </c>
-      <c r="E2" s="25">
-        <v>13889200</v>
-      </c>
-      <c r="F2" s="25">
-        <v>12671800</v>
-      </c>
-      <c r="G2" s="25">
-        <v>9362400</v>
-      </c>
-      <c r="H2" s="26">
-        <f>D2+E2+F2+G2</f>
-        <v>44709100</v>
-      </c>
-      <c r="I2" s="27">
-        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
-        <v>3650590.4685349194</v>
-      </c>
-      <c r="J2" s="28">
-        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
-        <v>0.19650809343064388</v>
-      </c>
-      <c r="K2" s="26">
-        <f>H2-I2</f>
-        <v>41058509.531465083</v>
-      </c>
-      <c r="L2" s="55">
-        <v>173766200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="24">
-        <v>3071259</v>
-      </c>
-      <c r="C3" s="25">
-        <v>15629400.000000002</v>
-      </c>
-      <c r="D3" s="25">
-        <v>8937400.0000000019</v>
-      </c>
-      <c r="E3" s="25">
-        <v>14228400.000000002</v>
-      </c>
-      <c r="F3" s="25">
-        <v>12949600</v>
-      </c>
-      <c r="G3" s="25">
-        <v>9576800</v>
-      </c>
-      <c r="H3" s="26">
-        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
-        <v>45692200</v>
-      </c>
-      <c r="I3" s="27">
-        <f t="shared" si="0"/>
-        <v>3622037.632993402</v>
-      </c>
-      <c r="J3" s="28">
-        <f t="shared" si="1"/>
-        <v>0.19560012431005733</v>
-      </c>
-      <c r="K3" s="26">
-        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
-        <v>42070162.3670066</v>
-      </c>
-      <c r="L3" s="55">
-        <v>175848400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="24">
-        <v>3045241</v>
-      </c>
-      <c r="C4" s="25">
-        <v>15856600.000000002</v>
-      </c>
-      <c r="D4" s="25">
-        <v>9089100.0000000019</v>
-      </c>
-      <c r="E4" s="25">
-        <v>14567600.000000002</v>
-      </c>
-      <c r="F4" s="25">
-        <v>13227400</v>
-      </c>
-      <c r="G4" s="25">
-        <v>9791200.0000000019</v>
-      </c>
-      <c r="H4" s="26">
-        <f t="shared" si="2"/>
-        <v>46675300</v>
-      </c>
-      <c r="I4" s="27">
-        <f t="shared" si="0"/>
-        <v>3591353.7424015561</v>
-      </c>
-      <c r="J4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.19473040344679096</v>
-      </c>
-      <c r="K4" s="26">
-        <f t="shared" si="3"/>
-        <v>43083946.257598445</v>
-      </c>
-      <c r="L4" s="55">
-        <v>177930600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="24">
-        <v>3017266</v>
-      </c>
-      <c r="C5" s="25">
-        <v>16083800.000000004</v>
-      </c>
-      <c r="D5" s="25">
-        <v>9240800.0000000037</v>
-      </c>
-      <c r="E5" s="25">
-        <v>14906800.000000004</v>
-      </c>
-      <c r="F5" s="25">
-        <v>13505200</v>
-      </c>
-      <c r="G5" s="25">
-        <v>10005600.000000004</v>
-      </c>
-      <c r="H5" s="26">
-        <f t="shared" si="2"/>
-        <v>47658400.000000015</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" si="0"/>
-        <v>3558361.8967828737</v>
-      </c>
-      <c r="J5" s="28">
-        <f t="shared" si="1"/>
-        <v>0.19389656387960991</v>
-      </c>
-      <c r="K5" s="26">
-        <f t="shared" si="3"/>
-        <v>44100038.10321714</v>
-      </c>
-      <c r="L5" s="55">
-        <v>180012800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="24">
-        <v>2990677</v>
-      </c>
-      <c r="C6" s="25">
-        <v>16311000.000000004</v>
-      </c>
-      <c r="D6" s="25">
-        <v>9392500.0000000037</v>
-      </c>
-      <c r="E6" s="25">
-        <v>15246000.000000004</v>
-      </c>
-      <c r="F6" s="25">
-        <v>13783000</v>
-      </c>
-      <c r="G6" s="25">
-        <v>10220000.000000004</v>
-      </c>
-      <c r="H6" s="26">
-        <f t="shared" si="2"/>
-        <v>48641500.000000015</v>
-      </c>
-      <c r="I6" s="27">
-        <f t="shared" si="0"/>
-        <v>3527004.6069471212</v>
-      </c>
-      <c r="J6" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1930964300031866</v>
-      </c>
-      <c r="K6" s="26">
-        <f t="shared" si="3"/>
-        <v>45114495.393052891</v>
-      </c>
-      <c r="L6" s="55">
-        <v>182095000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="24">
-        <v>2962144</v>
-      </c>
-      <c r="C7" s="25">
-        <v>16190600.000000004</v>
-      </c>
-      <c r="D7" s="25">
-        <v>9004300.0000000037</v>
-      </c>
-      <c r="E7" s="25">
-        <v>15785700.000000004</v>
-      </c>
-      <c r="F7" s="25">
-        <v>13711700</v>
-      </c>
-      <c r="G7" s="25">
-        <v>10609600.000000004</v>
-      </c>
-      <c r="H7" s="26">
-        <f t="shared" si="2"/>
-        <v>49111300.000000015</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" si="0"/>
-        <v>3493354.6934158299</v>
-      </c>
-      <c r="J7" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1833447699409301</v>
-      </c>
-      <c r="K7" s="26">
-        <f t="shared" si="3"/>
-        <v>45617945.306584187</v>
-      </c>
-      <c r="L7" s="55">
-        <v>183822800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="24">
-        <v>2931643</v>
-      </c>
-      <c r="C8" s="25">
-        <v>16070200.000000004</v>
-      </c>
-      <c r="D8" s="25">
-        <v>8616100.0000000019</v>
-      </c>
-      <c r="E8" s="25">
-        <v>16325400.000000004</v>
-      </c>
-      <c r="F8" s="25">
-        <v>13640400</v>
-      </c>
-      <c r="G8" s="25">
-        <v>10999200.000000002</v>
-      </c>
-      <c r="H8" s="26">
-        <f t="shared" si="2"/>
-        <v>49581100.000000007</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>3457383.8521927581</v>
-      </c>
-      <c r="J8" s="28">
-        <f t="shared" si="1"/>
-        <v>0.17377791134121673</v>
-      </c>
-      <c r="K8" s="26">
-        <f t="shared" si="3"/>
-        <v>46123716.147807248</v>
-      </c>
-      <c r="L8" s="55">
-        <v>185550600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="24">
-        <v>2899255</v>
-      </c>
-      <c r="C9" s="25">
-        <v>15949800.000000006</v>
-      </c>
-      <c r="D9" s="25">
-        <v>8227900.0000000019</v>
-      </c>
-      <c r="E9" s="25">
-        <v>16865100.000000004</v>
-      </c>
-      <c r="F9" s="25">
-        <v>13569100</v>
-      </c>
-      <c r="G9" s="25">
-        <v>11388800</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="2"/>
-        <v>50050900.000000007</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" si="0"/>
-        <v>3419187.609265219</v>
-      </c>
-      <c r="J9" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16439065031797631</v>
-      </c>
-      <c r="K9" s="26">
-        <f t="shared" si="3"/>
-        <v>46631712.390734792</v>
-      </c>
-      <c r="L9" s="55">
-        <v>187278400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="24">
-        <v>2865008</v>
-      </c>
-      <c r="C10" s="25">
-        <v>15829400.000000006</v>
-      </c>
-      <c r="D10" s="25">
-        <v>7839700.0000000019</v>
-      </c>
-      <c r="E10" s="25">
-        <v>17404800.000000004</v>
-      </c>
-      <c r="F10" s="25">
-        <v>13497800</v>
-      </c>
-      <c r="G10" s="25">
-        <v>11778400</v>
-      </c>
-      <c r="H10" s="26">
-        <f t="shared" si="2"/>
-        <v>50520700.000000007</v>
-      </c>
-      <c r="I10" s="27">
-        <f t="shared" si="0"/>
-        <v>3378798.9859621613</v>
-      </c>
-      <c r="J10" s="28">
-        <f t="shared" si="1"/>
-        <v>0.15517797655218554</v>
-      </c>
-      <c r="K10" s="26">
-        <f t="shared" si="3"/>
-        <v>47141901.014037848</v>
-      </c>
-      <c r="L10" s="55">
-        <v>189006200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="24">
-        <v>2836142</v>
-      </c>
-      <c r="C11" s="25">
-        <v>15709000.000000006</v>
-      </c>
-      <c r="D11" s="25">
-        <v>7451500.0000000019</v>
-      </c>
-      <c r="E11" s="25">
-        <v>17944500</v>
-      </c>
-      <c r="F11" s="25">
-        <v>13426500</v>
-      </c>
-      <c r="G11" s="25">
-        <v>12168000</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="2"/>
-        <v>50990500</v>
-      </c>
-      <c r="I11" s="27">
-        <f t="shared" si="0"/>
-        <v>3344756.3544830228</v>
-      </c>
-      <c r="J11" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1461350643747365</v>
-      </c>
-      <c r="K11" s="26">
-        <f t="shared" si="3"/>
-        <v>47645743.645516977</v>
-      </c>
-      <c r="L11" s="55">
-        <v>190734000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="24">
-        <v>2805541</v>
-      </c>
-      <c r="C12" s="25">
-        <v>15358200.000000006</v>
-      </c>
-      <c r="D12" s="25">
-        <v>7411700.0000000019</v>
-      </c>
-      <c r="E12" s="25">
-        <v>17710400</v>
-      </c>
-      <c r="F12" s="25">
-        <v>13766300</v>
-      </c>
-      <c r="G12" s="25">
-        <v>12445000</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" si="2"/>
-        <v>51333400</v>
-      </c>
-      <c r="I12" s="27">
-        <f t="shared" si="0"/>
-        <v>3308667.5799422786</v>
-      </c>
-      <c r="J12" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14438357872262508</v>
-      </c>
-      <c r="K12" s="26">
-        <f t="shared" si="3"/>
-        <v>48024732.420057721</v>
-      </c>
-      <c r="L12" s="55">
-        <v>192287600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="24">
-        <v>2773236</v>
-      </c>
-      <c r="C13" s="25">
-        <v>15007400.000000007</v>
-      </c>
-      <c r="D13" s="25">
-        <v>7371900.0000000019</v>
-      </c>
-      <c r="E13" s="25">
-        <v>17476300</v>
-      </c>
-      <c r="F13" s="25">
-        <v>14106100</v>
-      </c>
-      <c r="G13" s="25">
-        <v>12722000</v>
-      </c>
-      <c r="H13" s="26">
-        <f t="shared" si="2"/>
-        <v>51676300</v>
-      </c>
-      <c r="I13" s="27">
-        <f t="shared" si="0"/>
-        <v>3270569.2216684073</v>
-      </c>
-      <c r="J13" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14265533716616713</v>
-      </c>
-      <c r="K13" s="26">
-        <f t="shared" si="3"/>
-        <v>48405730.778331593</v>
-      </c>
-      <c r="L13" s="55">
-        <v>193841200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="24">
-        <v>2739273</v>
-      </c>
-      <c r="C14" s="25">
-        <v>14656600.000000007</v>
-      </c>
-      <c r="D14" s="25">
-        <v>7332100.0000000009</v>
-      </c>
-      <c r="E14" s="25">
-        <v>17242200</v>
-      </c>
-      <c r="F14" s="25">
-        <v>14445900</v>
-      </c>
-      <c r="G14" s="25">
-        <v>12999000</v>
-      </c>
-      <c r="H14" s="26">
-        <f t="shared" si="2"/>
-        <v>52019200</v>
-      </c>
-      <c r="I14" s="27">
-        <f t="shared" si="0"/>
-        <v>3230515.5289875376</v>
-      </c>
-      <c r="J14" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14094988004429135</v>
-      </c>
-      <c r="K14" s="26">
-        <f t="shared" si="3"/>
-        <v>48788684.471012466</v>
-      </c>
-      <c r="L14" s="55">
-        <v>195394800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="24">
-        <v>2703670</v>
-      </c>
-      <c r="C15" s="25">
-        <v>14305800.000000007</v>
-      </c>
-      <c r="D15" s="25">
-        <v>7292300.0000000009</v>
-      </c>
-      <c r="E15" s="25">
-        <v>17008100</v>
-      </c>
-      <c r="F15" s="25">
-        <v>14785700</v>
-      </c>
-      <c r="G15" s="25">
-        <v>13276000</v>
-      </c>
-      <c r="H15" s="26">
-        <f t="shared" si="2"/>
-        <v>52362100</v>
-      </c>
-      <c r="I15" s="27">
-        <f t="shared" si="0"/>
-        <v>3188527.7298968509</v>
-      </c>
-      <c r="J15" s="28">
-        <f t="shared" si="1"/>
-        <v>0.139266759736527</v>
-      </c>
-      <c r="K15" s="26">
-        <f t="shared" si="3"/>
-        <v>49173572.270103149</v>
-      </c>
-      <c r="L15" s="55">
-        <v>196948400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -17672,8 +18058,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3721,7 +3721,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF</t>
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
         </r>
       </text>
     </comment>
@@ -4872,7 +4872,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="577">
+  <cellStyleXfs count="583">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4884,6 +4884,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5598,7 +5604,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="577">
+  <cellStyles count="583">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5887,6 +5893,9 @@
     <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6174,6 +6183,9 @@
     <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -8595,7 +8607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="133" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -18058,8 +18070,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="-33000" yWindow="-21140" windowWidth="26660" windowHeight="21140" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3961,7 +3961,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="224">
   <si>
     <t>year</t>
   </si>
@@ -4872,7 +4872,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="583">
+  <cellStyleXfs count="595">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4884,6 +4884,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5604,7 +5616,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="583">
+  <cellStyles count="595">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5896,6 +5908,12 @@
     <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6186,6 +6204,12 @@
     <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -7490,7 +7514,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7785,10 +7809,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8536,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="92"/>
       <c r="C33" t="s">
         <v>204</v>
@@ -8562,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="79" t="s">
         <v>112</v>
       </c>
@@ -8584,6 +8608,9 @@
       <c r="H34" s="80">
         <v>1</v>
       </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8607,8 +8634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8642,31 +8669,43 @@
       <c r="B2" t="s">
         <v>81</v>
       </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
       <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
       <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
       <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
       <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>205</v>
       </c>
       <c r="E6" s="81"/>
@@ -8677,9 +8716,6 @@
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
-      <c r="E7" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
@@ -8691,15 +8727,15 @@
       <c r="C9" t="s">
         <v>205</v>
       </c>
+      <c r="D9" t="s">
+        <v>205</v>
+      </c>
       <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -8766,9 +8802,13 @@
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8975,7 +9015,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9157,7 +9197,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10806,7 +10846,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12352,8 +12392,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13750,7 +13790,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15564,7 +15604,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16141,8 +16181,8 @@
   </sheetPr>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18070,8 +18110,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Bangladesh/2017Nov/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33000" yWindow="-21140" windowWidth="26660" windowHeight="21140" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-68100" yWindow="-3800" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -34,13 +29,13 @@
     <sheet name="Interventions family planning" sheetId="34" r:id="rId20"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -857,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="3">
+    <comment ref="E38" authorId="3">
       <text>
         <r>
           <rPr>
@@ -881,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="3">
+    <comment ref="F38" authorId="3">
       <text>
         <r>
           <rPr>
@@ -905,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="3">
+    <comment ref="G38" authorId="3">
       <text>
         <r>
           <rPr>
@@ -929,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="3">
+    <comment ref="H38" authorId="3">
       <text>
         <r>
           <rPr>
@@ -953,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="3">
+    <comment ref="I38" authorId="3">
       <text>
         <r>
           <rPr>
@@ -977,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="3">
+    <comment ref="E39" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1001,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="3">
+    <comment ref="F39" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="3">
+    <comment ref="G39" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="3">
+    <comment ref="H39" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="3">
+    <comment ref="I39" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="3">
+    <comment ref="E40" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1121,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="3">
+    <comment ref="F40" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="3">
+    <comment ref="G40" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1169,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="3">
+    <comment ref="H40" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="3">
+    <comment ref="I40" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="3">
+    <comment ref="C42" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="3">
+    <comment ref="D42" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="3">
+    <comment ref="E42" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="3">
+    <comment ref="F42" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="3">
+    <comment ref="G42" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="3">
+    <comment ref="H42" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1361,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="3">
+    <comment ref="I42" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="3">
+    <comment ref="E43" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1409,7 +1404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="3">
+    <comment ref="F43" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1433,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="3">
+    <comment ref="G43" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1457,7 +1452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="3">
+    <comment ref="H43" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="3">
+    <comment ref="I43" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="3">
+    <comment ref="E44" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="3">
+    <comment ref="F44" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="3">
+    <comment ref="G44" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1577,7 +1572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H52" authorId="3">
+    <comment ref="H44" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I52" authorId="3">
+    <comment ref="I44" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1625,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="3">
+    <comment ref="E45" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1649,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="3">
+    <comment ref="F45" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1673,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G53" authorId="3">
+    <comment ref="G45" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H53" authorId="3">
+    <comment ref="H45" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I53" authorId="3">
+    <comment ref="I45" authorId="3">
       <text>
         <r>
           <rPr>
@@ -2564,6 +2559,40 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ruth</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruth made these numbers up</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ruth</author>
     <author>Microsoft Office User</author>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Sam</author>
@@ -3961,7 +3990,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="227">
   <si>
     <t>year</t>
   </si>
@@ -4633,6 +4662,15 @@
   </si>
   <si>
     <t>Unit costs</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Family Planning</t>
+  </si>
+  <si>
+    <t>Proportional Cost</t>
   </si>
 </sst>
 </file>
@@ -4835,7 +4873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4871,8 +4909,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="595">
+  <cellStyleXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5468,8 +5519,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5600,7 +5653,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5615,8 +5667,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="595">
+  <cellStyles count="597">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5914,6 +5972,7 @@
     <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6210,6 +6269,7 @@
     <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -7517,13 +7577,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -7534,7 +7594,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -7545,7 +7605,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7553,7 +7613,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="B4" s="33" t="s">
         <v>135</v>
       </c>
@@ -7561,7 +7621,7 @@
         <v>171684000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7570,7 +7630,7 @@
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="B6" s="33" t="s">
         <v>72</v>
       </c>
@@ -7578,7 +7638,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -7586,7 +7646,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
@@ -7594,38 +7654,38 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="88">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="88">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="88">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>141</v>
       </c>
@@ -7636,7 +7696,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="B15" t="s">
         <v>136</v>
       </c>
@@ -7644,7 +7704,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -7652,7 +7712,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -7660,7 +7720,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="B18" t="s">
         <v>139</v>
       </c>
@@ -7668,7 +7728,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="B19" t="s">
         <v>140</v>
       </c>
@@ -7676,11 +7736,11 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>75</v>
       </c>
@@ -7691,7 +7751,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="B23" s="33" t="s">
         <v>106</v>
       </c>
@@ -7699,7 +7759,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="B24" s="33" t="s">
         <v>107</v>
       </c>
@@ -7707,7 +7767,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="B25" s="33" t="s">
         <v>108</v>
       </c>
@@ -7715,7 +7775,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="B26" s="33" t="s">
         <v>76</v>
       </c>
@@ -7723,10 +7783,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="B28" s="33"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>134</v>
       </c>
@@ -7737,7 +7797,7 @@
         <v>8634000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="B30" s="51" t="s">
         <v>128</v>
       </c>
@@ -7745,7 +7805,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="B31" s="51" t="s">
         <v>129</v>
       </c>
@@ -7753,7 +7813,7 @@
         <v>12394000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="B32" s="51" t="s">
         <v>130</v>
       </c>
@@ -7761,11 +7821,11 @@
         <v>9148000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="B33" s="51"/>
       <c r="C33" s="53"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>125</v>
       </c>
@@ -7776,7 +7836,7 @@
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="B36" s="50" t="s">
         <v>128</v>
       </c>
@@ -7784,7 +7844,7 @@
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="B37" s="50" t="s">
         <v>129</v>
       </c>
@@ -7792,7 +7852,7 @@
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="B38" s="50" t="s">
         <v>130</v>
       </c>
@@ -7804,6 +7864,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7815,14 +7880,14 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
@@ -7848,11 +7913,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7874,8 +7939,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="92"/>
+    <row r="3" spans="1:10">
+      <c r="B3" s="91"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7896,8 +7961,8 @@
       </c>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="92"/>
+    <row r="4" spans="1:10">
+      <c r="B4" s="91"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
@@ -7923,8 +7988,8 @@
       </c>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="92" t="s">
+    <row r="5" spans="1:10">
+      <c r="B5" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7946,8 +8011,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="92"/>
+    <row r="6" spans="1:10">
+      <c r="B6" s="91"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -7967,8 +8032,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="92"/>
+    <row r="7" spans="1:10">
+      <c r="B7" s="91"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -7993,8 +8058,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="92" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="91" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8016,8 +8081,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="92"/>
+    <row r="9" spans="1:10">
+      <c r="B9" s="91"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -8037,8 +8102,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="92"/>
+    <row r="10" spans="1:10">
+      <c r="B10" s="91"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
@@ -8063,8 +8128,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="92" t="s">
+    <row r="11" spans="1:10">
+      <c r="B11" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8086,8 +8151,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="92"/>
+    <row r="12" spans="1:10">
+      <c r="B12" s="91"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -8107,8 +8172,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="92"/>
+    <row r="13" spans="1:10">
+      <c r="B13" s="91"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8133,8 +8198,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="92" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" s="91" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8156,8 +8221,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="92"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="91"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -8177,8 +8242,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="92"/>
+    <row r="16" spans="1:10">
+      <c r="B16" s="91"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
@@ -8203,8 +8268,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="87" t="s">
+    <row r="17" spans="1:8">
+      <c r="B17" s="86" t="s">
         <v>112</v>
       </c>
       <c r="C17" t="s">
@@ -8226,18 +8291,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="D18" s="75"/>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="91" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -8259,8 +8324,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="92"/>
+    <row r="20" spans="1:8">
+      <c r="B20" s="91"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -8280,8 +8345,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="92"/>
+    <row r="21" spans="1:8">
+      <c r="B21" s="91"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -8306,8 +8371,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="92" t="s">
+    <row r="22" spans="1:8">
+      <c r="B22" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8329,8 +8394,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="92"/>
+    <row r="23" spans="1:8">
+      <c r="B23" s="91"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8350,8 +8415,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="92"/>
+    <row r="24" spans="1:8">
+      <c r="B24" s="91"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -8376,8 +8441,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="92" t="s">
+    <row r="25" spans="1:8">
+      <c r="B25" s="91" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8399,8 +8464,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="92"/>
+    <row r="26" spans="1:8">
+      <c r="B26" s="91"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8420,8 +8485,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="92"/>
+    <row r="27" spans="1:8">
+      <c r="B27" s="91"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8446,8 +8511,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="92" t="s">
+    <row r="28" spans="1:8">
+      <c r="B28" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8469,8 +8534,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="92"/>
+    <row r="29" spans="1:8">
+      <c r="B29" s="91"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8490,8 +8555,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="92"/>
+    <row r="30" spans="1:8">
+      <c r="B30" s="91"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8516,8 +8581,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="92" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" s="91" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8539,8 +8604,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="92"/>
+    <row r="32" spans="1:8">
+      <c r="B32" s="91"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8560,8 +8625,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="92"/>
+    <row r="33" spans="1:8">
+      <c r="B33" s="91"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -8586,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="B34" s="79" t="s">
         <v>112</v>
       </c>
@@ -8609,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="10"/>
     </row>
   </sheetData>
@@ -8627,6 +8692,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8634,18 +8704,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="133" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>200</v>
       </c>
@@ -8662,7 +8732,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
@@ -8674,7 +8744,7 @@
       </c>
       <c r="E2" s="81"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -8683,7 +8753,7 @@
       </c>
       <c r="E3" s="81"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -8692,7 +8762,7 @@
       </c>
       <c r="E4" s="81"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -8701,7 +8771,7 @@
       </c>
       <c r="E5" s="81"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8710,14 +8780,14 @@
       </c>
       <c r="E6" s="81"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
@@ -8732,38 +8802,38 @@
       </c>
       <c r="E9" s="81"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="81"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="81"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="81"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="81"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>203</v>
       </c>
@@ -8772,31 +8842,31 @@
       </c>
       <c r="E16" s="81"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="81"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="81"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="81"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="81"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -8810,6 +8880,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8821,12 +8896,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>221</v>
       </c>
@@ -8843,7 +8918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>222</v>
       </c>
@@ -8861,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -8876,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -8891,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -8906,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8921,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>223</v>
       </c>
@@ -8940,7 +9015,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -8956,7 +9031,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -8972,7 +9047,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -8988,7 +9063,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -9007,6 +9082,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9018,12 +9098,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>199</v>
       </c>
@@ -9037,7 +9117,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -9053,7 +9133,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9069,7 +9149,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9085,7 +9165,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9101,7 +9181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9120,6 +9200,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9134,12 +9219,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -9156,7 +9241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -9173,14 +9258,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -9189,18 +9274,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
@@ -9211,7 +9301,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
@@ -9241,7 +9331,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -9270,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>176</v>
@@ -9297,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -9323,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
@@ -9349,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -9377,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -9406,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -9434,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -9463,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -9492,26 +9582,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C11" s="69">
         <v>0</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
@@ -9522,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
@@ -9548,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
@@ -9574,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
@@ -9604,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>171</v>
@@ -9631,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -9658,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
@@ -9684,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
@@ -9711,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -9738,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -9767,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -9793,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -9819,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -9845,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="B26" t="s">
         <v>158</v>
       </c>
@@ -9871,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -9897,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="B28" t="s">
         <v>160</v>
       </c>
@@ -9923,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>164</v>
@@ -9950,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -9976,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -10002,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="B32" t="s">
         <v>167</v>
       </c>
@@ -10028,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -10054,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="B34" t="s">
         <v>169</v>
       </c>
@@ -10080,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="B35" t="s">
         <v>170</v>
       </c>
@@ -10106,9 +10196,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="85" t="s">
-        <v>206</v>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B36" s="84" t="s">
+        <v>225</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -10132,35 +10222,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="85" t="s">
-        <v>208</v>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B38" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -10168,25 +10235,30 @@
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="85" t="s">
-        <v>211</v>
+      <c r="E38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="F38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="G38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="H38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="I38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B39" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -10195,24 +10267,29 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
       <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="85" t="s">
-        <v>212</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="I39" s="3">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B40" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -10221,24 +10298,29 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
       </c>
       <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="85" t="s">
-        <v>209</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="3">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B41" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -10246,51 +10328,58 @@
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="85" t="s">
-        <v>213</v>
+      <c r="E41" s="35">
+        <v>1</v>
+      </c>
+      <c r="F41" s="35">
+        <v>1</v>
+      </c>
+      <c r="G41" s="35">
+        <v>1</v>
+      </c>
+      <c r="H41" s="35">
+        <v>1</v>
+      </c>
+      <c r="I41" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B43" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -10298,25 +10387,30 @@
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="85" t="s">
-        <v>214</v>
+      <c r="E43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="F43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="G43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="H43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="I43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B44" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -10324,283 +10418,78 @@
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="H44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="I44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B45" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="F45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="G45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="H45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="I45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="F46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="G46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="H46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="I46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="F47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="G47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="H47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="I47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="F48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="H48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="I48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="35">
-        <v>1</v>
-      </c>
-      <c r="F49" s="35">
-        <v>1</v>
-      </c>
-      <c r="G49" s="35">
-        <v>1</v>
-      </c>
-      <c r="H49" s="35">
-        <v>1</v>
-      </c>
-      <c r="I49" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="F50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="G50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="H50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="I50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="F51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="G51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="H51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="I51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="F52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="G52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="H52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="I52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="F53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="G53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="H53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="I53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="4"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B50" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10615,14 +10504,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -10642,7 +10531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -10662,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10679,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -10699,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -10716,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -10736,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -10753,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -10773,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -10792,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -10812,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -10835,6 +10724,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10849,7 +10743,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
@@ -10858,7 +10752,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -10905,7 +10799,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -10952,7 +10846,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
@@ -10996,7 +10890,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -11040,7 +10934,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -11084,7 +10978,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -11128,7 +11022,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -11172,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -11216,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -11260,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -11304,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>158</v>
       </c>
@@ -11348,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>159</v>
       </c>
@@ -11392,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -11436,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -11480,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -11524,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>166</v>
       </c>
@@ -11568,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -11612,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -11656,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -11700,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="B20" t="s">
         <v>170</v>
       </c>
@@ -11744,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -11788,7 +11682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="14" customHeight="1">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
@@ -11832,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="B23" s="60" t="s">
         <v>83</v>
       </c>
@@ -11876,7 +11770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="B24" s="60" t="s">
         <v>173</v>
       </c>
@@ -11920,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="B25" s="60" t="s">
         <v>87</v>
       </c>
@@ -11964,7 +11858,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -12011,7 +11905,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -12055,7 +11949,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -12099,7 +11993,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -12143,7 +12037,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="B31" s="61" t="s">
         <v>180</v>
       </c>
@@ -12187,7 +12081,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="B32" s="61" t="s">
         <v>181</v>
       </c>
@@ -12231,7 +12125,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15">
       <c r="B33" s="61" t="s">
         <v>182</v>
       </c>
@@ -12275,22 +12169,27 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15">
       <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12305,13 +12204,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -12334,7 +12233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>191</v>
       </c>
@@ -12357,7 +12256,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -12382,6 +12281,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12396,7 +12300,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -12407,7 +12311,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -12433,7 +12337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -12459,7 +12363,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -12479,7 +12383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -12501,7 +12405,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="60" t="s">
         <v>163</v>
@@ -12525,7 +12429,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -12551,7 +12455,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
@@ -12571,7 +12475,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>183</v>
       </c>
@@ -12594,7 +12498,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -12614,7 +12518,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -12640,7 +12544,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
@@ -12660,7 +12564,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -12683,7 +12587,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
@@ -12703,7 +12607,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -12729,7 +12633,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
@@ -12749,7 +12653,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>183</v>
       </c>
@@ -12772,7 +12676,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
@@ -12792,7 +12696,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -12818,7 +12722,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
@@ -12839,7 +12743,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -12863,7 +12767,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
@@ -12884,7 +12788,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
         <v>180</v>
       </c>
@@ -12911,7 +12815,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
         <v>68</v>
@@ -12933,7 +12837,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -12959,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
         <v>68</v>
@@ -12980,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>182</v>
       </c>
@@ -13006,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -13030,6 +12934,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13041,7 +12950,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -13049,7 +12958,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13087,7 +12996,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -13129,7 +13038,7 @@
         <v>173766200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -13171,7 +13080,7 @@
         <v>175848400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -13213,7 +13122,7 @@
         <v>177930600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -13255,7 +13164,7 @@
         <v>180012800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -13297,7 +13206,7 @@
         <v>182095000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -13339,7 +13248,7 @@
         <v>183822800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -13381,7 +13290,7 @@
         <v>185550600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -13423,7 +13332,7 @@
         <v>187278400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -13465,7 +13374,7 @@
         <v>189006200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -13507,7 +13416,7 @@
         <v>190734000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -13549,7 +13458,7 @@
         <v>192287600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -13591,7 +13500,7 @@
         <v>193841200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -13633,7 +13542,7 @@
         <v>195394800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -13679,109 +13588,223 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13">
+      <c r="A2" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="85">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
+      <c r="C2" s="92">
+        <v>0.09</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13">
+      <c r="A3" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="85" t="s">
+      <c r="B3" s="85">
+        <v>1</v>
+      </c>
+      <c r="C3" s="92">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>1.9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13">
+      <c r="A4" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="85" t="s">
+      <c r="B4" s="85">
+        <v>1</v>
+      </c>
+      <c r="C4" s="92">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13">
+      <c r="A5" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="85" t="s">
+      <c r="B5" s="85">
+        <v>1</v>
+      </c>
+      <c r="C5" s="92">
+        <v>0.18</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13">
+      <c r="A6" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="85" t="s">
+      <c r="B6" s="85">
+        <v>1</v>
+      </c>
+      <c r="C6" s="92">
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13">
+      <c r="A7" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="85">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="85" t="s">
+      <c r="C7" s="92">
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13">
+      <c r="A8" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="85">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="85" t="s">
+      <c r="C8" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13">
+      <c r="A9" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="85">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="85" t="s">
+      <c r="C9" s="92">
+        <v>0.11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13">
+      <c r="A10" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="85">
         <v>0.98</v>
       </c>
+      <c r="C10" s="92">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13789,11 +13812,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -13801,7 +13824,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13815,7 +13838,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>176</v>
       </c>
@@ -13829,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -13843,7 +13866,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>161</v>
       </c>
@@ -13857,7 +13880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>84</v>
       </c>
@@ -13871,7 +13894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -13885,7 +13908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>83</v>
       </c>
@@ -13899,7 +13922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>173</v>
       </c>
@@ -13913,7 +13936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -13927,7 +13950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -13941,7 +13964,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -13955,7 +13978,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
@@ -13969,7 +13992,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>175</v>
       </c>
@@ -13983,7 +14006,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -13997,7 +14020,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -14011,7 +14034,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -14025,7 +14048,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -14039,7 +14062,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -14053,7 +14076,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -14067,7 +14090,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -14081,7 +14104,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -14095,7 +14118,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -14109,7 +14132,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -14123,7 +14146,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -14137,7 +14160,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -14151,7 +14174,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -14165,7 +14188,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -14179,7 +14202,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -14193,7 +14216,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
@@ -14207,7 +14230,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>90</v>
       </c>
@@ -14221,7 +14244,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -14235,7 +14258,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>109</v>
       </c>
@@ -14249,7 +14272,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>180</v>
       </c>
@@ -14263,7 +14286,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>181</v>
       </c>
@@ -14277,7 +14300,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>182</v>
       </c>
@@ -14291,7 +14314,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -14305,7 +14328,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>179</v>
       </c>
@@ -14320,7 +14343,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>189</v>
       </c>
@@ -14335,7 +14358,7 @@
         <v>10.046400000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>190</v>
       </c>
@@ -14350,139 +14373,81 @@
         <v>19.933477200000002</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="88">
-        <v>0.09</v>
-      </c>
-      <c r="C40" s="14">
+        <v>225</v>
+      </c>
+      <c r="B40" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="93">
         <v>0.85</v>
       </c>
       <c r="D40" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="B41" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="C41" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D41" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="88">
-        <v>0.08</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D42" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="88">
-        <v>0.18</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D43" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D44" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="88">
-        <v>0.45</v>
-      </c>
-      <c r="C45" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D45" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D46" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="88">
-        <v>0.11</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D47" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D48" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="84"/>
+        <f>SUM('Interventions family planning'!E2:E10)</f>
+        <v>0.82100000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="94"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="94"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="97"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="94"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="97"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="94"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="97"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+    </row>
+    <row r="49" spans="3:3" ht="15.75" customHeight="1">
+      <c r="C49" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14494,12 +14459,12 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -14522,7 +14487,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -14545,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -14568,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -14591,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -14614,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -14637,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -14660,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -14683,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -14706,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14729,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -14752,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -14775,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -14798,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -14821,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -14844,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -14867,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -14890,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -14913,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -14936,7 +14901,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -14959,7 +14924,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -14982,7 +14947,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -15005,7 +14970,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -15028,7 +14993,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -15051,7 +15016,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -15074,7 +15039,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -15097,7 +15062,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -15127,6 +15092,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15138,9 +15108,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -15160,7 +15130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -15180,7 +15150,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -15200,7 +15170,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -15220,7 +15190,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -15245,7 +15215,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -15274,6 +15244,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15285,7 +15260,7 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -15294,7 +15269,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -15311,7 +15286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -15326,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -15339,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -15354,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -15369,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
@@ -15384,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>82</v>
@@ -15399,7 +15374,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>128</v>
@@ -15414,7 +15389,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>129</v>
@@ -15429,7 +15404,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>130</v>
@@ -15444,13 +15419,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -15465,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -15477,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -15491,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -15505,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -15519,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -15533,7 +15508,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -15547,7 +15522,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -15561,7 +15536,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -15575,7 +15550,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -15596,6 +15571,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15607,9 +15587,9 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15632,7 +15612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
@@ -15655,7 +15635,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -15676,7 +15656,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -15697,7 +15677,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -15718,7 +15698,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -15741,7 +15721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -15761,7 +15741,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
@@ -15781,7 +15761,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
@@ -15801,7 +15781,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -15824,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -15844,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -15864,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -15889,6 +15869,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15900,12 +15885,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -15925,7 +15910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -15946,7 +15931,7 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -15961,7 +15946,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -15978,7 +15963,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -15995,7 +15980,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -16012,14 +15997,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -16028,7 +16013,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
@@ -16048,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -16065,7 +16050,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -16082,7 +16067,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -16099,7 +16084,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -16116,7 +16101,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -16133,7 +16118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -16150,7 +16135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -16171,6 +16156,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16185,7 +16175,7 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -16193,7 +16183,7 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -16222,7 +16212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -16251,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -16274,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -16297,7 +16287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -16320,7 +16310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -16346,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -16369,7 +16359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -16392,7 +16382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -16415,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -16441,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -16464,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -16487,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -16510,7 +16500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -16536,7 +16526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16559,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -16582,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -16605,7 +16595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -16631,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -16654,7 +16644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -16677,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -16700,7 +16690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -16729,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -16752,7 +16742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
@@ -16775,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
@@ -16798,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -16824,7 +16814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -16847,7 +16837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="C30" s="4" t="s">
         <v>183</v>
       </c>
@@ -16870,7 +16860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="C31" s="4" t="s">
         <v>184</v>
       </c>
@@ -16893,7 +16883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -16919,7 +16909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -16942,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="C34" s="4" t="s">
         <v>183</v>
       </c>
@@ -16965,7 +16955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
@@ -16988,7 +16978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -17014,7 +17004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -17037,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="C38" s="4" t="s">
         <v>183</v>
       </c>
@@ -17060,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
@@ -17083,7 +17073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -17109,7 +17099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -17132,7 +17122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
@@ -17155,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
@@ -17178,7 +17168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -17207,7 +17197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
@@ -17230,7 +17220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
@@ -17253,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9">
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
@@ -17276,7 +17266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9">
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -17302,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9">
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
@@ -17325,7 +17315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
@@ -17348,7 +17338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
@@ -17371,7 +17361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -17397,7 +17387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9">
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -17420,7 +17410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
@@ -17443,7 +17433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9">
       <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
@@ -17466,7 +17456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -17492,7 +17482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
@@ -17515,7 +17505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9">
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
@@ -17538,7 +17528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9">
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
@@ -17561,7 +17551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -17587,7 +17577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9">
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -17610,7 +17600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9">
       <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
@@ -17633,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
@@ -17656,7 +17646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -17682,7 +17672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -17705,7 +17695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
@@ -17728,7 +17718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
@@ -17751,7 +17741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -17777,7 +17767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -17800,7 +17790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
@@ -17823,7 +17813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
@@ -17846,7 +17836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -17875,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="C77" s="4" t="s">
         <v>119</v>
       </c>
@@ -17898,7 +17888,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -17924,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9">
       <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
@@ -17947,7 +17937,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
         <v>99</v>
       </c>
@@ -17973,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
@@ -17996,7 +17986,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -18025,7 +18015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -18048,7 +18038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
@@ -18071,7 +18061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
@@ -18094,12 +18084,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18114,7 +18109,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
@@ -18124,7 +18119,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -18147,7 +18142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -18168,7 +18163,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -18188,7 +18183,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>220</v>
       </c>
@@ -18211,7 +18206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
@@ -18231,7 +18226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7" s="4" t="s">
         <v>142</v>
       </c>
@@ -18251,7 +18246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="4" t="s">
         <v>127</v>
       </c>
@@ -18271,7 +18266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -18291,7 +18286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18299,7 +18294,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>120</v>
       </c>
@@ -18322,8 +18317,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="90" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="4">
@@ -18344,8 +18339,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="90" t="s">
+    <row r="13" spans="1:7">
+      <c r="B13" s="89" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="4">
@@ -18366,8 +18361,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="90" t="s">
+    <row r="14" spans="1:7">
+      <c r="B14" s="89" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="4">
@@ -18388,8 +18383,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="90" t="s">
+    <row r="15" spans="1:7">
+      <c r="B15" s="89" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="4">
@@ -18410,7 +18405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="77" t="s">
         <v>122</v>
       </c>
@@ -18433,7 +18428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="78"/>
       <c r="B18" s="76" t="s">
         <v>57</v>
@@ -18454,8 +18449,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14" customHeight="1"/>
+    <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>187</v>
       </c>
@@ -18478,7 +18473,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
         <v>188</v>
       </c>
@@ -18505,5 +18500,10 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Bangladesh/2017Nov/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-68100" yWindow="-3800" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -29,13 +34,13 @@
     <sheet name="Interventions family planning" sheetId="34" r:id="rId20"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -852,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="3">
+    <comment ref="E46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -876,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="3">
+    <comment ref="F46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -900,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G38" authorId="3">
+    <comment ref="G46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -924,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H38" authorId="3">
+    <comment ref="H46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -948,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="3">
+    <comment ref="I46" authorId="3">
       <text>
         <r>
           <rPr>
@@ -972,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="3">
+    <comment ref="E47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -996,7 +1001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="3">
+    <comment ref="F47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="3">
+    <comment ref="G47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="3">
+    <comment ref="H47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="3">
+    <comment ref="I47" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="3">
+    <comment ref="E48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="3">
+    <comment ref="F48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="3">
+    <comment ref="G48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="3">
+    <comment ref="H48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="3">
+    <comment ref="I48" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="3">
+    <comment ref="C50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="3">
+    <comment ref="D50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="3">
+    <comment ref="E50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="3">
+    <comment ref="F50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="3">
+    <comment ref="G50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="3">
+    <comment ref="H50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="3">
+    <comment ref="I50" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="3">
+    <comment ref="E51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1404,7 +1409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="3">
+    <comment ref="F51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G43" authorId="3">
+    <comment ref="G51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="3">
+    <comment ref="H51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1476,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="3">
+    <comment ref="I51" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1500,7 +1505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="3">
+    <comment ref="E52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="3">
+    <comment ref="F52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1548,7 +1553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G44" authorId="3">
+    <comment ref="G52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1572,7 +1577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="3">
+    <comment ref="H52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1596,7 +1601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="3">
+    <comment ref="I52" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1620,7 +1625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="3">
+    <comment ref="E53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1644,7 +1649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="3">
+    <comment ref="F53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1668,7 +1673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G45" authorId="3">
+    <comment ref="G53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1692,7 +1697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H45" authorId="3">
+    <comment ref="H53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -1716,7 +1721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I45" authorId="3">
+    <comment ref="I53" authorId="3">
       <text>
         <r>
           <rPr>
@@ -2559,40 +2564,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ruth</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Ruth made these numbers up</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Ruth</author>
     <author>Microsoft Office User</author>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Sam</author>
@@ -3932,6 +3903,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -3990,7 +3985,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="225">
   <si>
     <t>year</t>
   </si>
@@ -4664,13 +4659,7 @@
     <t>Unit costs</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Family Planning</t>
-  </si>
-  <si>
-    <t>Proportional Cost</t>
+    <t>OR for stunting</t>
   </si>
 </sst>
 </file>
@@ -4873,7 +4862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4909,21 +4898,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="597">
+  <cellStyleXfs count="599">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5521,8 +5497,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5653,6 +5631,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5667,14 +5646,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="597">
+  <cellStyles count="599">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5973,6 +5949,7 @@
     <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6270,6 +6247,7 @@
     <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -7577,13 +7555,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>114</v>
       </c>
@@ -7594,7 +7572,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -7605,7 +7583,7 @@
         <v>15204000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -7613,7 +7591,7 @@
         <v>3118117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>135</v>
       </c>
@@ -7621,7 +7599,7 @@
         <v>171684000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7630,7 +7608,7 @@
         <v>3677298.8269880489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>72</v>
       </c>
@@ -7638,7 +7616,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
@@ -7646,7 +7624,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="33" t="s">
         <v>73</v>
       </c>
@@ -7654,38 +7632,38 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="89">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="89">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="89">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>141</v>
       </c>
@@ -7696,7 +7674,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>136</v>
       </c>
@@ -7704,7 +7682,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -7712,7 +7690,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>138</v>
       </c>
@@ -7720,7 +7698,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>139</v>
       </c>
@@ -7728,7 +7706,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>140</v>
       </c>
@@ -7736,11 +7714,11 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>75</v>
       </c>
@@ -7751,7 +7729,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="33" t="s">
         <v>106</v>
       </c>
@@ -7759,7 +7737,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="33" t="s">
         <v>107</v>
       </c>
@@ -7767,7 +7745,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="33" t="s">
         <v>108</v>
       </c>
@@ -7775,7 +7753,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="33" t="s">
         <v>76</v>
       </c>
@@ -7783,10 +7761,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="33"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>134</v>
       </c>
@@ -7797,7 +7775,7 @@
         <v>8634000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="51" t="s">
         <v>128</v>
       </c>
@@ -7805,7 +7783,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="51" t="s">
         <v>129</v>
       </c>
@@ -7813,7 +7791,7 @@
         <v>12394000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="51" t="s">
         <v>130</v>
       </c>
@@ -7821,11 +7799,11 @@
         <v>9148000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="51"/>
       <c r="C33" s="53"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>125</v>
       </c>
@@ -7836,7 +7814,7 @@
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
         <v>128</v>
       </c>
@@ -7844,7 +7822,7 @@
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="50" t="s">
         <v>129</v>
       </c>
@@ -7852,7 +7830,7 @@
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
         <v>130</v>
       </c>
@@ -7864,30 +7842,25 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>196</v>
       </c>
@@ -7913,11 +7886,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7939,8 +7912,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="91"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="93"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7961,35 +7934,35 @@
       </c>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="91"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="93"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
       <c r="D4" s="73">
-        <f>D17^(1/5)</f>
+        <f>D17^(1/2)</f>
+        <v>1.0246950765959599</v>
+      </c>
+      <c r="E4" s="73">
+        <f>E17^(1/3)</f>
+        <v>1.0163963568148535</v>
+      </c>
+      <c r="F4" s="73">
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
+      </c>
+      <c r="G4" s="73">
+        <f>G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
-      <c r="E4" s="73">
-        <f t="shared" ref="E4:H4" si="0">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="F4" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="G4" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0098057976734853</v>
-      </c>
       <c r="H4" s="73">
-        <f t="shared" si="0"/>
+        <f>H17^(1/5)</f>
         <v>1</v>
       </c>
       <c r="J4" s="73"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="91" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="93" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -8011,8 +7984,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="91"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="93"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -8032,34 +8005,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="91"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="93"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="73">
-        <f>D17^(1/5)</f>
+        <f>D17^(1/2)</f>
+        <v>1.0246950765959599</v>
+      </c>
+      <c r="E7" s="73">
+        <f>E17^(1/3)</f>
+        <v>1.0163963568148535</v>
+      </c>
+      <c r="F7" s="73">
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
+      </c>
+      <c r="G7" s="73">
+        <f>G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
-      <c r="E7" s="73">
-        <f t="shared" ref="E7:H7" si="1">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="F7" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="G7" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0098057976734853</v>
-      </c>
       <c r="H7" s="73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="91" t="s">
+        <f>H17^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="93" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8081,8 +8054,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="91"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="93"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -8102,34 +8075,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="91"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="93"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="73">
-        <f>D17^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="73">
+        <f>E17^(1/3)</f>
+        <v>1.0163963568148535</v>
+      </c>
+      <c r="F10" s="73">
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
+      </c>
+      <c r="G10" s="73">
+        <f>G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
-      <c r="E10" s="73">
-        <f t="shared" ref="E10:H10" si="2">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="F10" s="73">
-        <f t="shared" si="2"/>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="G10" s="73">
-        <f t="shared" si="2"/>
-        <v>1.0098057976734853</v>
-      </c>
       <c r="H10" s="73">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="91" t="s">
+        <f>H17^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="93" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8151,8 +8123,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="91"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="93"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -8172,34 +8144,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="91"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="93"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
       <c r="D13" s="73">
-        <f>D17^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="73">
+        <v>1</v>
+      </c>
+      <c r="F13" s="73">
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
+      </c>
+      <c r="G13" s="73">
+        <f>G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
-      <c r="E13" s="73">
-        <f t="shared" ref="E13:H13" si="3">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="F13" s="73">
-        <f t="shared" si="3"/>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="G13" s="73">
-        <f t="shared" si="3"/>
-        <v>1.0098057976734853</v>
-      </c>
       <c r="H13" s="73">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="91" t="s">
+        <f>H17^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="93" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8221,8 +8191,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="91"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="93"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -8242,34 +8212,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="91"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="93"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
       <c r="D16" s="73">
-        <f>D17^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="73">
+        <v>1</v>
+      </c>
+      <c r="F16" s="73">
+        <v>1</v>
+      </c>
+      <c r="G16" s="73">
+        <f>G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
-      <c r="E16" s="73">
-        <f>E17^(1/5)</f>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="F16" s="73">
-        <f t="shared" ref="F16:H16" si="4">F17^(1/5)</f>
-        <v>1.0098057976734853</v>
-      </c>
-      <c r="G16" s="73">
-        <f t="shared" si="4"/>
-        <v>1.0098057976734853</v>
-      </c>
       <c r="H16" s="73">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="86" t="s">
+        <f>H17^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="87" t="s">
         <v>112</v>
       </c>
       <c r="C17" t="s">
@@ -8291,18 +8258,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D18" s="75"/>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -8324,8 +8291,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="91"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="93"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -8345,8 +8312,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="91"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="93"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -8355,24 +8322,24 @@
         <v>1.0098057976734853</v>
       </c>
       <c r="E21" s="73">
-        <f t="shared" ref="E21:H21" si="5">E34^(1/5)</f>
+        <f>E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F21" s="73">
-        <f t="shared" si="5"/>
+        <f>F34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="G21" s="73">
-        <f t="shared" si="5"/>
+        <f>G34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H21" s="73">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="91" t="s">
+        <f>H34^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="93" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8394,8 +8361,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="91"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="93"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8415,8 +8382,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="91"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="93"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -8425,24 +8392,24 @@
         <v>1.0098057976734853</v>
       </c>
       <c r="E24" s="73">
-        <f t="shared" ref="E24:H24" si="6">E34^(1/5)</f>
+        <f>E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F24" s="73">
-        <f t="shared" si="6"/>
+        <f>F34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="G24" s="73">
-        <f t="shared" si="6"/>
+        <f>G34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H24" s="73">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="91" t="s">
+        <f>H34^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="93" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8464,8 +8431,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="91"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="93"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8485,8 +8452,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="91"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="93"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8495,24 +8462,24 @@
         <v>1.0098057976734853</v>
       </c>
       <c r="E27" s="73">
-        <f t="shared" ref="E27:H27" si="7">E34^(1/5)</f>
+        <f>E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F27" s="73">
-        <f t="shared" si="7"/>
+        <f>F34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="G27" s="73">
-        <f t="shared" si="7"/>
+        <f>G34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H27" s="73">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="91" t="s">
+        <f>H34^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="93" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8534,8 +8501,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="91"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="93"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8555,8 +8522,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="91"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="93"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8565,24 +8532,24 @@
         <v>1.0098057976734853</v>
       </c>
       <c r="E30" s="73">
-        <f t="shared" ref="E30:H30" si="8">E34^(1/5)</f>
+        <f>E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F30" s="73">
-        <f t="shared" si="8"/>
+        <f>F34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="G30" s="73">
-        <f t="shared" si="8"/>
+        <f>G34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H30" s="73">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="91" t="s">
+        <f>H34^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="93" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8604,8 +8571,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="91"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="93"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8625,8 +8592,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="91"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="93"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -8635,23 +8602,23 @@
         <v>1.0098057976734853</v>
       </c>
       <c r="E33" s="73">
-        <f t="shared" ref="E33:H33" si="9">E34^(1/5)</f>
+        <f>E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F33" s="73">
-        <f t="shared" si="9"/>
+        <f>F34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="G33" s="73">
-        <f t="shared" si="9"/>
+        <f>G34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H33" s="73">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <f>H34^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="79" t="s">
         <v>112</v>
       </c>
@@ -8674,11 +8641,395 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="10"/>
-    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="73">
+        <v>1</v>
+      </c>
+      <c r="E36" s="73">
+        <v>1</v>
+      </c>
+      <c r="F36" s="73">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+      <c r="G36" s="73">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+      <c r="H36" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="93"/>
+      <c r="C37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="73">
+        <v>1</v>
+      </c>
+      <c r="E37" s="73">
+        <v>1</v>
+      </c>
+      <c r="F37" s="73">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+      <c r="G37" s="73">
+        <f>0.98</f>
+        <v>0.98</v>
+      </c>
+      <c r="H37" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="93"/>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="73">
+        <f>D51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="73">
+        <f>E51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="73">
+        <f>F51^(1/4)</f>
+        <v>0.98787654742307407</v>
+      </c>
+      <c r="G38" s="73">
+        <f>G51^(1/5)</f>
+        <v>0.99028942228686234</v>
+      </c>
+      <c r="H38" s="73">
+        <f>H51^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="73">
+        <v>1</v>
+      </c>
+      <c r="E39" s="73">
+        <v>1</v>
+      </c>
+      <c r="F39" s="73">
+        <v>0.95</v>
+      </c>
+      <c r="G39" s="73">
+        <v>0.98</v>
+      </c>
+      <c r="H39" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="93"/>
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="73">
+        <v>1</v>
+      </c>
+      <c r="E40" s="73">
+        <v>1</v>
+      </c>
+      <c r="F40" s="73">
+        <v>0.95</v>
+      </c>
+      <c r="G40" s="73">
+        <v>0.98</v>
+      </c>
+      <c r="H40" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="93"/>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="73">
+        <f>D51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="73">
+        <f>E51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="73">
+        <f>F51^(1/4)</f>
+        <v>0.98787654742307407</v>
+      </c>
+      <c r="G41" s="73">
+        <f>G51^(1/5)</f>
+        <v>0.99028942228686234</v>
+      </c>
+      <c r="H41" s="73">
+        <f>H51^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="73">
+        <v>1</v>
+      </c>
+      <c r="E42" s="73">
+        <v>1</v>
+      </c>
+      <c r="F42" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="G42" s="73">
+        <v>0.95</v>
+      </c>
+      <c r="H42" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="93"/>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="73">
+        <v>1</v>
+      </c>
+      <c r="E43" s="73">
+        <v>1</v>
+      </c>
+      <c r="F43" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="G43" s="73">
+        <v>0.95</v>
+      </c>
+      <c r="H43" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="93"/>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="73">
+        <f>D51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="73">
+        <f>E51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="73">
+        <f>F51^(1/4)</f>
+        <v>0.98787654742307407</v>
+      </c>
+      <c r="G44" s="73">
+        <f>G51^(1/5)</f>
+        <v>0.99028942228686234</v>
+      </c>
+      <c r="H44" s="73">
+        <f>H51^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="73">
+        <v>1</v>
+      </c>
+      <c r="E45" s="73">
+        <v>1</v>
+      </c>
+      <c r="F45" s="73">
+        <v>0.78</v>
+      </c>
+      <c r="G45" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="93"/>
+      <c r="C46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="73">
+        <v>1</v>
+      </c>
+      <c r="E46" s="73">
+        <v>1</v>
+      </c>
+      <c r="F46" s="73">
+        <v>0.78</v>
+      </c>
+      <c r="G46" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="H46" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="93"/>
+      <c r="C47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="73">
+        <f>D51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="73">
+        <f>E51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="73">
+        <f>F51^(1/4)</f>
+        <v>0.98787654742307407</v>
+      </c>
+      <c r="G47" s="73">
+        <f>G51^(1/5)</f>
+        <v>0.99028942228686234</v>
+      </c>
+      <c r="H47" s="73">
+        <f>H51^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="73">
+        <v>1</v>
+      </c>
+      <c r="E48" s="73">
+        <v>1</v>
+      </c>
+      <c r="F48" s="73">
+        <v>1</v>
+      </c>
+      <c r="G48" s="73">
+        <v>0.78</v>
+      </c>
+      <c r="H48" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="93"/>
+      <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="73">
+        <v>1</v>
+      </c>
+      <c r="E49" s="73">
+        <v>1</v>
+      </c>
+      <c r="F49" s="73">
+        <v>1</v>
+      </c>
+      <c r="G49" s="73">
+        <v>0.78</v>
+      </c>
+      <c r="H49" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="93"/>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="73">
+        <f>D51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="73">
+        <f>E51^(1/5)</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="73">
+        <v>1</v>
+      </c>
+      <c r="G50" s="73">
+        <f>G51^(1/5)</f>
+        <v>0.99028942228686234</v>
+      </c>
+      <c r="H50" s="73">
+        <f>H51^(1/5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="80">
+        <v>1</v>
+      </c>
+      <c r="E51" s="80">
+        <v>1</v>
+      </c>
+      <c r="F51" s="80">
+        <f>1/1.05</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="G51" s="80">
+        <f>1/1.05</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="H51" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8692,11 +9043,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8705,17 +9051,17 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>200</v>
       </c>
@@ -8732,7 +9078,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
@@ -8744,7 +9090,7 @@
       </c>
       <c r="E2" s="81"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -8753,7 +9099,7 @@
       </c>
       <c r="E3" s="81"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -8762,7 +9108,7 @@
       </c>
       <c r="E4" s="81"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -8771,7 +9117,7 @@
       </c>
       <c r="E5" s="81"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8780,14 +9126,14 @@
       </c>
       <c r="E6" s="81"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
@@ -8802,38 +9148,38 @@
       </c>
       <c r="E9" s="81"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="81"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="81"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="81"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="81"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>203</v>
       </c>
@@ -8842,31 +9188,31 @@
       </c>
       <c r="E16" s="81"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="81"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="81"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="81"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="81"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -8880,11 +9226,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8892,16 +9233,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>221</v>
       </c>
@@ -8918,7 +9259,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>222</v>
       </c>
@@ -8936,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -8951,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -8966,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -8981,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -8996,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>223</v>
       </c>
@@ -9015,7 +9356,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -9031,7 +9372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -9047,7 +9388,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -9063,7 +9404,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -9082,11 +9423,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9098,12 +9434,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>199</v>
       </c>
@@ -9117,7 +9453,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -9133,7 +9469,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9149,7 +9485,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9165,7 +9501,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9181,7 +9517,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9200,11 +9536,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9219,12 +9550,12 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -9241,7 +9572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -9258,14 +9589,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -9274,23 +9605,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" customWidth="1"/>
@@ -9301,7 +9627,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
@@ -9331,7 +9657,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -9360,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>176</v>
@@ -9387,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -9413,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
@@ -9439,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
@@ -9467,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -9496,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
@@ -9524,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
@@ -9553,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -9582,26 +9908,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C11" s="69">
         <v>0</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="91">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
@@ -9612,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
@@ -9638,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
@@ -9664,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
@@ -9694,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>171</v>
@@ -9721,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>174</v>
       </c>
@@ -9748,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
@@ -9774,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>175</v>
       </c>
@@ -9801,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -9828,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>93</v>
       </c>
@@ -9857,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -9883,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -9909,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>157</v>
       </c>
@@ -9935,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>158</v>
       </c>
@@ -9961,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>159</v>
       </c>
@@ -9987,7 +10313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>160</v>
       </c>
@@ -10013,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>164</v>
@@ -10040,7 +10366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -10066,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -10092,7 +10418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>167</v>
       </c>
@@ -10118,7 +10444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>168</v>
       </c>
@@ -10144,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>169</v>
       </c>
@@ -10170,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>170</v>
       </c>
@@ -10196,9 +10522,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B36" s="84" t="s">
-        <v>225</v>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="85" t="s">
+        <v>206</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -10222,274 +10548,475 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B38" s="4" t="s">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="35">
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="35">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F46" s="35">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G46" s="35">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H46" s="35">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I46" s="35">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B39" s="4" t="s">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F47" s="3">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G47" s="3">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H47" s="3">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I47" s="3">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B40" s="4" t="s">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F48" s="3">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G48" s="3">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H48" s="3">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I48" s="3">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B41" s="4" t="s">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="35">
-        <v>1</v>
-      </c>
-      <c r="F41" s="35">
-        <v>1</v>
-      </c>
-      <c r="G41" s="35">
-        <v>1</v>
-      </c>
-      <c r="H41" s="35">
-        <v>1</v>
-      </c>
-      <c r="I41" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B42" s="4" t="s">
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="35">
+        <v>1</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="35">
+        <v>1</v>
+      </c>
+      <c r="H49" s="35">
+        <v>1</v>
+      </c>
+      <c r="I49" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I50" s="35">
         <f>'Baseline year demographics'!$C$8</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B43" s="12" t="s">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="71">
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="71">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="F43" s="71">
+      <c r="F51" s="71">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="G43" s="71">
+      <c r="G51" s="71">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="H43" s="71">
+      <c r="H51" s="71">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
-      <c r="I43" s="71">
+      <c r="I51" s="71">
         <f>'Baseline year demographics'!$C$24</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B44" s="12" t="s">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="69">
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="69">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F52" s="69">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="G44" s="69">
+      <c r="G52" s="69">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H52" s="69">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
-      <c r="I44" s="69">
+      <c r="I52" s="69">
         <f>'Baseline year demographics'!$C$25</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B45" s="12" t="s">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="69">
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="69">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F53" s="69">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="G45" s="69">
+      <c r="G53" s="69">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H53" s="69">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
-      <c r="I45" s="69">
+      <c r="I53" s="69">
         <f>'Baseline year demographics'!$C$23</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B50" s="4"/>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10504,14 +11031,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -10531,7 +11058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -10551,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10568,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -10588,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -10605,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -10625,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -10642,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -10662,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -10681,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -10701,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -10724,11 +11251,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10743,7 +11265,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
@@ -10752,7 +11274,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" customHeight="1">
+    <row r="1" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -10799,7 +11321,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>152</v>
       </c>
@@ -10846,7 +11368,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
@@ -10890,7 +11412,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>171</v>
       </c>
@@ -10934,7 +11456,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -10978,7 +11500,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -11022,7 +11544,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -11066,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -11110,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>156</v>
       </c>
@@ -11154,7 +11676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>157</v>
       </c>
@@ -11198,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>158</v>
       </c>
@@ -11242,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>159</v>
       </c>
@@ -11286,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>160</v>
       </c>
@@ -11330,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -11374,7 +11896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -11418,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>166</v>
       </c>
@@ -11462,7 +11984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>167</v>
       </c>
@@ -11506,7 +12028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -11550,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>169</v>
       </c>
@@ -11594,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>170</v>
       </c>
@@ -11638,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -11682,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1">
+    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
@@ -11726,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="60" t="s">
         <v>83</v>
       </c>
@@ -11770,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="60" t="s">
         <v>173</v>
       </c>
@@ -11814,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="60" t="s">
         <v>87</v>
       </c>
@@ -11858,7 +12380,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>153</v>
       </c>
@@ -11905,7 +12427,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
@@ -11949,7 +12471,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
@@ -11993,7 +12515,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -12037,7 +12559,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" s="61" t="s">
         <v>180</v>
       </c>
@@ -12081,7 +12603,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B32" s="61" t="s">
         <v>181</v>
       </c>
@@ -12125,7 +12647,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="61" t="s">
         <v>182</v>
       </c>
@@ -12169,27 +12691,22 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12204,13 +12721,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -12233,7 +12750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>191</v>
       </c>
@@ -12256,7 +12773,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>192</v>
       </c>
@@ -12281,11 +12798,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12300,7 +12812,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="39.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -12311,7 +12823,7 @@
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -12337,7 +12849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -12363,7 +12875,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -12383,7 +12895,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -12405,7 +12917,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="60" t="s">
         <v>163</v>
@@ -12429,7 +12941,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -12455,7 +12967,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
@@ -12475,7 +12987,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>183</v>
       </c>
@@ -12498,7 +13010,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
@@ -12518,7 +13030,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -12544,7 +13056,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
@@ -12564,7 +13076,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -12587,7 +13099,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
@@ -12607,7 +13119,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
@@ -12633,7 +13145,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
@@ -12653,7 +13165,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>183</v>
       </c>
@@ -12676,7 +13188,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
@@ -12696,7 +13208,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -12722,7 +13234,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
@@ -12743,7 +13255,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -12767,7 +13279,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
@@ -12788,7 +13300,7 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>180</v>
       </c>
@@ -12815,7 +13327,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
         <v>68</v>
@@ -12837,7 +13349,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
@@ -12863,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
         <v>68</v>
@@ -12884,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>182</v>
       </c>
@@ -12910,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -12934,11 +13446,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12950,7 +13457,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -12958,7 +13465,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12996,7 +13503,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -13038,7 +13545,7 @@
         <v>173766200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -13080,7 +13587,7 @@
         <v>175848400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -13122,7 +13629,7 @@
         <v>177930600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -13164,7 +13671,7 @@
         <v>180012800</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -13206,7 +13713,7 @@
         <v>182095000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -13248,7 +13755,7 @@
         <v>183822800</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -13290,7 +13797,7 @@
         <v>185550600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -13332,7 +13839,7 @@
         <v>187278400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>2025</v>
       </c>
@@ -13374,7 +13881,7 @@
         <v>189006200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2026</v>
       </c>
@@ -13416,7 +13923,7 @@
         <v>190734000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>2027</v>
       </c>
@@ -13458,7 +13965,7 @@
         <v>192287600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>2028</v>
       </c>
@@ -13500,7 +14007,7 @@
         <v>193841200</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2029</v>
       </c>
@@ -13542,7 +14049,7 @@
         <v>195394800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2030</v>
       </c>
@@ -13588,223 +14095,109 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13">
-      <c r="A2" s="84" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="85">
+      <c r="B2" s="86">
         <v>0.9</v>
       </c>
-      <c r="C2" s="92">
-        <v>0.09</v>
-      </c>
-      <c r="D2">
-        <v>0.8</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13">
-      <c r="A3" s="84" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="85">
-        <v>1</v>
-      </c>
-      <c r="C3" s="92">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>1.9</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13">
-      <c r="A4" s="84" t="s">
+      <c r="B3" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="85">
-        <v>1</v>
-      </c>
-      <c r="C4" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13">
-      <c r="A5" s="84" t="s">
+      <c r="B4" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="85">
-        <v>1</v>
-      </c>
-      <c r="C5" s="92">
-        <v>0.18</v>
-      </c>
-      <c r="D5">
-        <v>0.7</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13">
-      <c r="A6" s="84" t="s">
+      <c r="B5" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="85">
-        <v>1</v>
-      </c>
-      <c r="C6" s="92">
-        <v>0.02</v>
-      </c>
-      <c r="D6">
-        <v>0.7</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13">
-      <c r="A7" s="84" t="s">
+      <c r="B6" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="86">
         <v>0.93</v>
       </c>
-      <c r="C7" s="92">
-        <v>0.45</v>
-      </c>
-      <c r="D7">
-        <v>0.9</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13">
-      <c r="A8" s="84" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="86">
         <v>0.5</v>
       </c>
-      <c r="C8" s="92">
-        <v>0.03</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13">
-      <c r="A9" s="84" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="86">
         <v>0.5</v>
       </c>
-      <c r="C9" s="92">
-        <v>0.11</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13">
-      <c r="A10" s="84" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="86">
         <v>0.98</v>
       </c>
-      <c r="C10" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0.6</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13812,11 +14205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -13824,7 +14217,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13838,7 +14231,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>176</v>
       </c>
@@ -13852,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -13866,7 +14259,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>161</v>
       </c>
@@ -13880,7 +14273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>84</v>
       </c>
@@ -13894,7 +14287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>172</v>
       </c>
@@ -13908,7 +14301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>83</v>
       </c>
@@ -13922,7 +14315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>173</v>
       </c>
@@ -13936,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -13950,7 +14343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -13964,7 +14357,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -13978,7 +14371,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
@@ -13992,7 +14385,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>175</v>
       </c>
@@ -14006,7 +14399,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -14020,7 +14413,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -14034,7 +14427,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -14048,7 +14441,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -14062,7 +14455,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -14076,7 +14469,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -14090,7 +14483,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -14104,7 +14497,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -14118,7 +14511,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -14132,7 +14525,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -14146,7 +14539,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -14160,7 +14553,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -14174,7 +14567,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -14188,7 +14581,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -14202,7 +14595,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -14216,7 +14609,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
@@ -14230,7 +14623,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>90</v>
       </c>
@@ -14244,7 +14637,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -14258,7 +14651,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>109</v>
       </c>
@@ -14272,7 +14665,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>180</v>
       </c>
@@ -14286,7 +14679,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>181</v>
       </c>
@@ -14300,7 +14693,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>182</v>
       </c>
@@ -14314,7 +14707,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -14328,7 +14721,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>179</v>
       </c>
@@ -14343,7 +14736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>189</v>
       </c>
@@ -14358,7 +14751,7 @@
         <v>10.046400000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>190</v>
       </c>
@@ -14373,81 +14766,139 @@
         <v>19.933477200000002</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="93">
+        <v>206</v>
+      </c>
+      <c r="B40" s="88">
+        <v>0.09</v>
+      </c>
+      <c r="C40" s="14">
         <v>0.85</v>
       </c>
       <c r="D40" s="83">
-        <f>SUM('Interventions family planning'!E2:E10)</f>
-        <v>0.82100000000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A44" s="94"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="97"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="97"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="97"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
-    </row>
-    <row r="49" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C49" s="96"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D41" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="88">
+        <v>0.08</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D42" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D43" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D44" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="88">
+        <v>0.45</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D45" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D46" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="88">
+        <v>0.11</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D47" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="D48" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14459,12 +14910,12 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -14487,7 +14938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -14510,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -14533,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -14556,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -14579,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -14602,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -14625,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -14648,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -14671,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -14694,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -14717,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -14740,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -14763,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -14786,7 +15237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -14809,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -14832,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -14855,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -14878,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -14901,7 +15352,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -14924,7 +15375,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -14947,7 +15398,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -14970,7 +15421,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -14993,7 +15444,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -15016,7 +15467,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -15039,7 +15490,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -15062,7 +15513,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -15092,11 +15543,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15108,9 +15554,9 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -15130,7 +15576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -15150,7 +15596,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -15170,7 +15616,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -15190,7 +15636,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -15215,7 +15661,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -15244,11 +15690,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15260,7 +15701,7 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -15269,7 +15710,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -15286,7 +15727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -15301,7 +15742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -15314,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -15329,7 +15770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -15344,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>10</v>
@@ -15359,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>82</v>
@@ -15374,7 +15815,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>128</v>
@@ -15389,7 +15830,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>129</v>
@@ -15404,7 +15845,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>130</v>
@@ -15419,13 +15860,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>95</v>
       </c>
@@ -15440,7 +15881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -15452,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -15466,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -15480,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -15494,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -15508,7 +15949,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>128</v>
       </c>
@@ -15522,7 +15963,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>129</v>
       </c>
@@ -15536,7 +15977,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -15550,7 +15991,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>111</v>
       </c>
@@ -15571,11 +16012,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15587,9 +16023,9 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15612,7 +16048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
@@ -15635,7 +16071,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -15656,7 +16092,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>26</v>
@@ -15677,7 +16113,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -15698,7 +16134,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -15721,7 +16157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -15741,7 +16177,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
@@ -15761,7 +16197,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
@@ -15781,7 +16217,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -15804,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -15824,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -15844,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
@@ -15869,11 +16305,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15885,12 +16316,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
@@ -15910,7 +16341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -15931,7 +16362,7 @@
         <v>3.1128200000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>113</v>
       </c>
@@ -15946,7 +16377,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -15963,7 +16394,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -15980,7 +16411,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -15997,14 +16428,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -16013,7 +16444,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
@@ -16033,7 +16464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -16050,7 +16481,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -16067,7 +16498,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -16084,7 +16515,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -16101,7 +16532,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
@@ -16118,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
@@ -16135,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -16156,11 +16587,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16175,7 +16601,7 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
@@ -16183,7 +16609,7 @@
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -16212,7 +16638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -16241,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -16264,7 +16690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -16287,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -16310,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -16336,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -16359,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -16382,7 +16808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -16405,7 +16831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -16431,7 +16857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -16454,7 +16880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -16477,7 +16903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -16500,7 +16926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -16526,7 +16952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16549,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -16572,7 +16998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -16595,7 +17021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -16621,7 +17047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -16644,7 +17070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -16667,7 +17093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -16690,7 +17116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -16719,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -16742,7 +17168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
@@ -16765,7 +17191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
@@ -16788,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -16814,7 +17240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -16837,7 +17263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>183</v>
       </c>
@@ -16860,7 +17286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>184</v>
       </c>
@@ -16883,7 +17309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -16909,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -16932,7 +17358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
         <v>183</v>
       </c>
@@ -16955,7 +17381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
@@ -16978,7 +17404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -17004,7 +17430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -17027,7 +17453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
         <v>183</v>
       </c>
@@ -17050,7 +17476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
@@ -17073,7 +17499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -17099,7 +17525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -17122,7 +17548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
@@ -17145,7 +17571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>184</v>
       </c>
@@ -17168,7 +17594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -17197,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>40</v>
       </c>
@@ -17220,7 +17646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
@@ -17243,7 +17669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>42</v>
       </c>
@@ -17266,7 +17692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -17292,7 +17718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
@@ -17315,7 +17741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
@@ -17338,7 +17764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
@@ -17361,7 +17787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>17</v>
       </c>
@@ -17387,7 +17813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>40</v>
       </c>
@@ -17410,7 +17836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C56" s="4" t="s">
         <v>41</v>
       </c>
@@ -17433,7 +17859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
@@ -17456,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -17482,7 +17908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>40</v>
       </c>
@@ -17505,7 +17931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
@@ -17528,7 +17954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>42</v>
       </c>
@@ -17551,7 +17977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>28</v>
       </c>
@@ -17577,7 +18003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
@@ -17600,7 +18026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C64" s="4" t="s">
         <v>41</v>
       </c>
@@ -17623,7 +18049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
@@ -17646,7 +18072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -17672,7 +18098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
         <v>40</v>
       </c>
@@ -17695,7 +18121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C68" s="4" t="s">
         <v>41</v>
       </c>
@@ -17718,7 +18144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
@@ -17741,7 +18167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -17767,7 +18193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
@@ -17790,7 +18216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C72" s="4" t="s">
         <v>41</v>
       </c>
@@ -17813,7 +18239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
@@ -17836,7 +18262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -17865,7 +18291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C77" s="4" t="s">
         <v>119</v>
       </c>
@@ -17888,7 +18314,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -17914,7 +18340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>119</v>
       </c>
@@ -17937,7 +18363,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>99</v>
       </c>
@@ -17963,7 +18389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
@@ -17986,7 +18412,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -18015,7 +18441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -18038,7 +18464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
@@ -18061,7 +18487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
@@ -18084,17 +18510,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18106,10 +18527,10 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
@@ -18119,7 +18540,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
@@ -18142,7 +18563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>121</v>
       </c>
@@ -18163,7 +18584,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -18183,7 +18604,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>220</v>
       </c>
@@ -18206,7 +18627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
@@ -18226,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>142</v>
       </c>
@@ -18246,7 +18667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>127</v>
       </c>
@@ -18266,7 +18687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
@@ -18286,7 +18707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18294,7 +18715,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>120</v>
       </c>
@@ -18317,8 +18738,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="89" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="4">
@@ -18339,8 +18760,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="89" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="90" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="4">
@@ -18361,8 +18782,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="89" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="90" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="4">
@@ -18383,8 +18804,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="89" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="90" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="4">
@@ -18405,7 +18826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
         <v>122</v>
       </c>
@@ -18428,7 +18849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="76" t="s">
         <v>57</v>
@@ -18449,8 +18870,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" customHeight="1"/>
-    <row r="20" spans="1:7">
+    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>187</v>
       </c>
@@ -18473,7 +18894,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>188</v>
       </c>
@@ -18500,10 +18921,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -4575,9 +4575,6 @@
     <t>Delivery mode</t>
   </si>
   <si>
-    <t>Behaviour</t>
-  </si>
-  <si>
     <t>OR for correct breastfeeding</t>
   </si>
   <si>
@@ -4660,6 +4657,9 @@
   </si>
   <si>
     <t>OR for stunting</t>
+  </si>
+  <si>
+    <t>Odds ratios</t>
   </si>
 </sst>
 </file>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="89">
         <v>0.5</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="89">
         <v>0.3</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="89">
         <v>0.1</v>
@@ -7849,8 +7849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7862,10 +7862,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>195</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>81</v>
@@ -7937,7 +7937,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="93"/>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="73">
         <f>D17^(1/2)</f>
@@ -8008,7 +8008,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="93"/>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="73">
         <f>D17^(1/2)</f>
@@ -8078,7 +8078,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="93"/>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="73">
         <v>1</v>
@@ -8147,7 +8147,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="93"/>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="73">
         <v>1</v>
@@ -8215,7 +8215,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="93"/>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16" s="73">
         <v>1</v>
@@ -8240,7 +8240,7 @@
         <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="80">
         <v>1.05</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>81</v>
@@ -8315,7 +8315,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="93"/>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="73">
         <f>D34^(1/5)</f>
@@ -8385,7 +8385,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="93"/>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="73">
         <f>D34^(1/5)</f>
@@ -8455,7 +8455,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="93"/>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="73">
         <f>D34^(1/5)</f>
@@ -8525,7 +8525,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="93"/>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="73">
         <f>D34^(1/5)</f>
@@ -8595,7 +8595,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="93"/>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="73">
         <f>D34^(1/5)</f>
@@ -8623,7 +8623,7 @@
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="80">
         <v>1.05</v>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="93" t="s">
         <v>81</v>
@@ -8695,7 +8695,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="93"/>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="73">
         <f>D51^(1/5)</f>
@@ -8765,7 +8765,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="93"/>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D41" s="73">
         <f>D51^(1/5)</f>
@@ -8835,7 +8835,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="93"/>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D44" s="73">
         <f>D51^(1/5)</f>
@@ -8905,7 +8905,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="93"/>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D47" s="73">
         <f>D51^(1/5)</f>
@@ -8975,7 +8975,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="93"/>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D50" s="73">
         <f>D51^(1/5)</f>
@@ -9002,7 +9002,7 @@
         <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51" s="80">
         <v>1</v>
@@ -9063,10 +9063,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>193</v>
@@ -9075,18 +9075,18 @@
         <v>194</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="81"/>
     </row>
@@ -9095,7 +9095,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="81"/>
     </row>
@@ -9104,7 +9104,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="81"/>
     </row>
@@ -9113,7 +9113,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="81"/>
     </row>
@@ -9122,7 +9122,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="81"/>
     </row>
@@ -9135,16 +9135,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="81"/>
     </row>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
@@ -9219,7 +9219,7 @@
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -9244,10 +9244,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>193</v>
@@ -9256,12 +9256,12 @@
         <v>194</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
@@ -9441,7 +9441,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>193</v>
@@ -9450,7 +9450,7 @@
         <v>194</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -10524,7 +10524,7 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -10576,7 +10576,7 @@
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -10602,7 +10602,7 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -10680,7 +10680,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -14117,15 +14117,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="86">
         <v>0.9</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="86">
         <v>1</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="86">
         <v>1</v>
@@ -14149,7 +14149,7 @@
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="86">
         <v>1</v>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="86">
         <v>1</v>
@@ -14165,7 +14165,7 @@
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="86">
         <v>0.93</v>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="86">
         <v>0.5</v>
@@ -14181,7 +14181,7 @@
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="86">
         <v>0.5</v>
@@ -14189,7 +14189,7 @@
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="86">
         <v>0.98</v>
@@ -14768,7 +14768,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40" s="88">
         <v>0.09</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" s="88">
         <v>0.02</v>
@@ -14796,7 +14796,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B42" s="88">
         <v>0.08</v>
@@ -14810,7 +14810,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" s="88">
         <v>0.18</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" s="88">
         <v>0.02</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" s="88">
         <v>0.45</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" s="88">
         <v>0.03</v>
@@ -14866,7 +14866,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B47" s="88">
         <v>0.11</v>
@@ -14880,7 +14880,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B48" s="88">
         <v>0.01</v>
@@ -18606,7 +18606,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>47</v>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="6020" yWindow="600" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,14 @@
     <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId10"/>
     <sheet name="IYCF packages" sheetId="33" r:id="rId11"/>
     <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId12"/>
-    <sheet name="IYCF costs" sheetId="36" r:id="rId13"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId14"/>
-    <sheet name="Interventions target population" sheetId="21" r:id="rId15"/>
-    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId16"/>
-    <sheet name="Interventions anemia" sheetId="30" r:id="rId17"/>
-    <sheet name="Interventions wasting" sheetId="31" r:id="rId18"/>
-    <sheet name="Interventions for children" sheetId="28" r:id="rId19"/>
-    <sheet name="Interventions family planning" sheetId="34" r:id="rId20"/>
-    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId21"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId13"/>
+    <sheet name="Interventions target population" sheetId="21" r:id="rId14"/>
+    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId15"/>
+    <sheet name="Interventions anemia" sheetId="30" r:id="rId16"/>
+    <sheet name="Interventions wasting" sheetId="31" r:id="rId17"/>
+    <sheet name="Interventions for children" sheetId="28" r:id="rId18"/>
+    <sheet name="Interventions family planning" sheetId="34" r:id="rId19"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -431,10 +430,135 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Janka Petravic</author>
+    <author>Ruth</author>
     <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, not in malaria area
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, in malaria area
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, not in malaria area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+poor, in malaria area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="2">
       <text>
         <r>
           <rPr>
@@ -454,55 +578,1087 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1.5*unit cost of BFP</t>
+Fraction poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0.5* unit cost of BFP</t>
+food insecure - default poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="B19" authorId="3">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Totally fictional</t>
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also brestfeeding women up to 6 months?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Coverage of these interventions is mutually exclusive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In baseline year, assuming only non-pregnant go to school</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In baseline year, assuming only non-pregnant go to school</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I38" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H42" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I42" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H43" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I43" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H44" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F45" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G45" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H45" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I45" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
         </r>
       </text>
     </comment>
@@ -513,13 +1669,11 @@
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Janka Petravic</author>
-    <author>Ruth</author>
-    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +1683,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Janka Petravic:</t>
+          <t xml:space="preserve"> Janka Petravic:</t>
         </r>
         <r>
           <rPr>
@@ -539,109 +1693,83 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-food insecure - default poor</t>
+Poor pregnant women - all target population</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1">
+    <comment ref="C9" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-poor, not in malaria area
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1">
+    <comment ref="D9" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-poor, in malaria area
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="1">
+    <comment ref="C11" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-poor, not in malaria area</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-poor, in malaria area</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="2">
+    <comment ref="D11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -651,7 +1779,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -661,1087 +1789,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Fraction poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Coverage of these interventions is mutually exclusive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In baseline year, assuming only non-pregnant go to school</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I29" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In baseline year, assuming only non-pregnant go to school</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I46" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I47" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I48" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I50" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I51" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I52" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I53" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -1754,9 +1802,10 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1776,11 +1825,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Poor pregnant women - all target population</t>
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1">
+    <comment ref="L2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1790,7 +1839,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1800,11 +1851,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="1">
+    <comment ref="M2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1814,7 +1865,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1824,11 +1877,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="1">
+    <comment ref="N2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1838,7 +1891,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1848,11 +1903,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1">
+    <comment ref="O2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1862,6 +1917,368 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t>Microsoft Office User:</t>
         </r>
         <r>
@@ -1872,7 +2289,104 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -1883,36 +2397,35 @@
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Ruth</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+WHO statement</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1">
+    <comment ref="D22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1922,9 +2435,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -1934,11 +2445,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+LiST</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1">
+    <comment ref="D23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1948,9 +2459,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -1960,516 +2469,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only in malaria risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made this number up
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
+LiST</t>
         </r>
       </text>
     </comment>
@@ -2480,79 +2480,30 @@
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Microsoft Office User</author>
-    <author>Sam</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="F21" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D23" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST</t>
+Ruth made these numbers up</t>
         </r>
       </text>
     </comment>
@@ -3903,30 +3854,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -3985,7 +3912,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="228">
   <si>
     <t>year</t>
   </si>
@@ -4575,6 +4502,9 @@
     <t>Delivery mode</t>
   </si>
   <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
     <t>OR for correct breastfeeding</t>
   </si>
   <si>
@@ -4656,10 +4586,16 @@
     <t>Unit costs</t>
   </si>
   <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Family Planning</t>
+  </si>
+  <si>
+    <t>Proportional Cost</t>
+  </si>
+  <si>
     <t>OR for stunting</t>
-  </si>
-  <si>
-    <t>Odds ratios</t>
   </si>
 </sst>
 </file>
@@ -4862,7 +4798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4898,8 +4834,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="599">
+  <cellStyleXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5497,10 +5446,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5631,7 +5578,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5646,11 +5592,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="599">
+  <cellStyles count="597">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5949,7 +5902,6 @@
     <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6247,7 +6199,6 @@
     <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -7634,25 +7585,25 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="89">
+        <v>217</v>
+      </c>
+      <c r="C9" s="88">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="89">
+        <v>218</v>
+      </c>
+      <c r="C10" s="88">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="89">
+        <v>219</v>
+      </c>
+      <c r="C11" s="88">
         <v>0.1</v>
       </c>
     </row>
@@ -7847,25 +7798,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>195</v>
@@ -7888,9 +7839,9 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7913,7 +7864,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="93"/>
+      <c r="B3" s="98"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7935,34 +7886,34 @@
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="93"/>
+      <c r="B4" s="98"/>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D4" s="73">
-        <f>D17^(1/2)</f>
-        <v>1.0246950765959599</v>
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="E4" s="73">
-        <f>E17^(1/3)</f>
-        <v>1.0163963568148535</v>
+        <f t="shared" ref="E4:H4" si="0">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="F4" s="73">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <f t="shared" si="0"/>
+        <v>1.0098057976734853</v>
       </c>
       <c r="G4" s="73">
-        <f>G17^(1/5)</f>
+        <f t="shared" si="0"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H4" s="73">
-        <f>H17^(1/5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7985,7 +7936,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="93"/>
+      <c r="B6" s="98"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -8006,33 +7957,33 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="93"/>
+      <c r="B7" s="98"/>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D7" s="73">
-        <f>D17^(1/2)</f>
-        <v>1.0246950765959599</v>
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="E7" s="73">
-        <f>E17^(1/3)</f>
-        <v>1.0163963568148535</v>
+        <f t="shared" ref="E7:H7" si="1">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="F7" s="73">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <f t="shared" si="1"/>
+        <v>1.0098057976734853</v>
       </c>
       <c r="G7" s="73">
-        <f>G17^(1/5)</f>
+        <f t="shared" si="1"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H7" s="73">
-        <f>H17^(1/5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8055,7 +8006,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="93"/>
+      <c r="B9" s="98"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -8076,32 +8027,33 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="93"/>
+      <c r="B10" s="98"/>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D10" s="73">
-        <v>1</v>
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="E10" s="73">
-        <f>E17^(1/3)</f>
-        <v>1.0163963568148535</v>
+        <f t="shared" ref="E10:H10" si="2">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="F10" s="73">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <f t="shared" si="2"/>
+        <v>1.0098057976734853</v>
       </c>
       <c r="G10" s="73">
-        <f>G17^(1/5)</f>
+        <f t="shared" si="2"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H10" s="73">
-        <f>H17^(1/5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8124,7 +8076,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="93"/>
+      <c r="B12" s="98"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -8145,31 +8097,33 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="93"/>
+      <c r="B13" s="98"/>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D13" s="73">
-        <v>1</v>
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="E13" s="73">
-        <v>1</v>
+        <f t="shared" ref="E13:H13" si="3">E17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="F13" s="73">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <f t="shared" si="3"/>
+        <v>1.0098057976734853</v>
       </c>
       <c r="G13" s="73">
-        <f>G17^(1/5)</f>
+        <f t="shared" si="3"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H13" s="73">
-        <f>H17^(1/5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8192,7 +8146,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="93"/>
+      <c r="B15" s="98"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -8213,34 +8167,37 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="93"/>
+      <c r="B16" s="98"/>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D16" s="73">
-        <v>1</v>
+        <f>D17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="E16" s="73">
-        <v>1</v>
+        <f>E17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="F16" s="73">
-        <v>1</v>
+        <f t="shared" ref="F16:H16" si="4">F17^(1/5)</f>
+        <v>1.0098057976734853</v>
       </c>
       <c r="G16" s="73">
-        <f>G17^(1/5)</f>
+        <f t="shared" si="4"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H16" s="73">
-        <f>H17^(1/5)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="86" t="s">
         <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D17" s="80">
         <v>1.05</v>
@@ -8267,9 +8224,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="98" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -8292,7 +8249,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="93"/>
+      <c r="B20" s="98"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -8313,33 +8270,33 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="93"/>
+      <c r="B21" s="98"/>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D21" s="73">
         <f>D34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="E21" s="73">
-        <f>E34^(1/5)</f>
+        <f t="shared" ref="E21:H21" si="5">E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F21" s="73">
-        <f>F34^(1/5)</f>
+        <f t="shared" si="5"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="G21" s="73">
-        <f>G34^(1/5)</f>
+        <f t="shared" si="5"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H21" s="73">
-        <f>H34^(1/5)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8362,7 +8319,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="93"/>
+      <c r="B23" s="98"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8383,33 +8340,33 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="93"/>
+      <c r="B24" s="98"/>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D24" s="73">
         <f>D34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="E24" s="73">
-        <f>E34^(1/5)</f>
+        <f t="shared" ref="E24:H24" si="6">E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F24" s="73">
-        <f>F34^(1/5)</f>
+        <f t="shared" si="6"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="G24" s="73">
-        <f>G34^(1/5)</f>
+        <f t="shared" si="6"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H24" s="73">
-        <f>H34^(1/5)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8432,7 +8389,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="93"/>
+      <c r="B26" s="98"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8453,33 +8410,33 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="93"/>
+      <c r="B27" s="98"/>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D27" s="73">
         <f>D34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="E27" s="73">
-        <f>E34^(1/5)</f>
+        <f t="shared" ref="E27:H27" si="7">E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F27" s="73">
-        <f>F34^(1/5)</f>
+        <f t="shared" si="7"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="G27" s="73">
-        <f>G34^(1/5)</f>
+        <f t="shared" si="7"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H27" s="73">
-        <f>H34^(1/5)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8502,7 +8459,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="93"/>
+      <c r="B29" s="98"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8523,33 +8480,33 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="93"/>
+      <c r="B30" s="98"/>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D30" s="73">
         <f>D34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="E30" s="73">
-        <f>E34^(1/5)</f>
+        <f t="shared" ref="E30:H30" si="8">E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F30" s="73">
-        <f>F34^(1/5)</f>
+        <f t="shared" si="8"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="G30" s="73">
-        <f>G34^(1/5)</f>
+        <f t="shared" si="8"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H30" s="73">
-        <f>H34^(1/5)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8572,7 +8529,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="93"/>
+      <c r="B32" s="98"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8593,28 +8550,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="93"/>
+      <c r="B33" s="98"/>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D33" s="73">
         <f>D34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="E33" s="73">
-        <f>E34^(1/5)</f>
+        <f t="shared" ref="E33:H33" si="9">E34^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="F33" s="73">
-        <f>F34^(1/5)</f>
+        <f t="shared" si="9"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="G33" s="73">
-        <f>G34^(1/5)</f>
+        <f t="shared" si="9"/>
         <v>1.0098057976734853</v>
       </c>
       <c r="H33" s="73">
-        <f>H34^(1/5)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8623,7 +8580,7 @@
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D34" s="80">
         <v>1.05</v>
@@ -8643,9 +8600,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="98" t="s">
         <v>81</v>
       </c>
       <c r="C36" t="s">
@@ -8658,19 +8615,17 @@
         <v>1</v>
       </c>
       <c r="F36" s="73">
-        <f>0.98</f>
         <v>0.98</v>
       </c>
       <c r="G36" s="73">
-        <f>0.98</f>
         <v>0.98</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="93"/>
+      <c r="B37" s="98"/>
       <c r="C37" t="s">
         <v>194</v>
       </c>
@@ -8681,45 +8636,38 @@
         <v>1</v>
       </c>
       <c r="F37" s="73">
-        <f>0.98</f>
         <v>0.98</v>
       </c>
       <c r="G37" s="73">
-        <f>0.98</f>
         <v>0.98</v>
       </c>
-      <c r="H37" s="75">
+      <c r="H37" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="93"/>
+      <c r="B38" s="98"/>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D38" s="73">
-        <f>D51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="E38" s="73">
-        <f>E51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="F38" s="73">
-        <f>F51^(1/4)</f>
-        <v>0.98787654742307407</v>
+        <v>0.99</v>
       </c>
       <c r="G38" s="73">
-        <f>G51^(1/5)</f>
-        <v>0.99028942228686234</v>
+        <v>0.99</v>
       </c>
       <c r="H38" s="73">
-        <f>H51^(1/5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -8737,12 +8685,12 @@
       <c r="G39" s="73">
         <v>0.98</v>
       </c>
-      <c r="H39" s="75">
+      <c r="H39" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="93"/>
+      <c r="B40" s="98"/>
       <c r="C40" t="s">
         <v>194</v>
       </c>
@@ -8758,38 +8706,33 @@
       <c r="G40" s="73">
         <v>0.98</v>
       </c>
-      <c r="H40" s="75">
+      <c r="H40" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="93"/>
+      <c r="B41" s="98"/>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D41" s="73">
-        <f>D51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="E41" s="73">
-        <f>E51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="F41" s="73">
-        <f>F51^(1/4)</f>
-        <v>0.98787654742307407</v>
+        <v>0.99</v>
       </c>
       <c r="G41" s="73">
-        <f>G51^(1/5)</f>
-        <v>0.99028942228686234</v>
+        <v>0.99</v>
       </c>
       <c r="H41" s="73">
-        <f>H51^(1/5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -8807,12 +8750,12 @@
       <c r="G42" s="73">
         <v>0.95</v>
       </c>
-      <c r="H42" s="75">
+      <c r="H42" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="93"/>
+      <c r="B43" s="98"/>
       <c r="C43" t="s">
         <v>194</v>
       </c>
@@ -8828,38 +8771,33 @@
       <c r="G43" s="73">
         <v>0.95</v>
       </c>
-      <c r="H43" s="75">
+      <c r="H43" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="93"/>
+      <c r="B44" s="98"/>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D44" s="73">
-        <f>D51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="E44" s="73">
-        <f>E51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="F44" s="73">
-        <f>F51^(1/4)</f>
-        <v>0.98787654742307407</v>
+        <v>0.99</v>
       </c>
       <c r="G44" s="73">
-        <f>G51^(1/5)</f>
-        <v>0.99028942228686234</v>
+        <v>0.99</v>
       </c>
       <c r="H44" s="73">
-        <f>H51^(1/5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -8877,12 +8815,12 @@
       <c r="G45" s="73">
         <v>0.9</v>
       </c>
-      <c r="H45" s="75">
+      <c r="H45" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="93"/>
+      <c r="B46" s="98"/>
       <c r="C46" t="s">
         <v>194</v>
       </c>
@@ -8898,38 +8836,33 @@
       <c r="G46" s="73">
         <v>0.9</v>
       </c>
-      <c r="H46" s="75">
+      <c r="H46" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="93"/>
+      <c r="B47" s="98"/>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D47" s="73">
-        <f>D51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="E47" s="73">
-        <f>E51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="F47" s="73">
-        <f>F51^(1/4)</f>
-        <v>0.98787654742307407</v>
+        <v>0.99</v>
       </c>
       <c r="G47" s="73">
-        <f>G51^(1/5)</f>
-        <v>0.99028942228686234</v>
+        <v>0.99</v>
       </c>
       <c r="H47" s="73">
-        <f>H51^(1/5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -8947,12 +8880,12 @@
       <c r="G48" s="73">
         <v>0.78</v>
       </c>
-      <c r="H48" s="75">
+      <c r="H48" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="93"/>
+      <c r="B49" s="98"/>
       <c r="C49" t="s">
         <v>194</v>
       </c>
@@ -8968,61 +8901,54 @@
       <c r="G49" s="73">
         <v>0.78</v>
       </c>
-      <c r="H49" s="75">
+      <c r="H49" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="93"/>
+      <c r="B50" s="98"/>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D50" s="73">
-        <f>D51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="E50" s="73">
-        <f>E51^(1/5)</f>
         <v>1</v>
       </c>
       <c r="F50" s="73">
         <v>1</v>
       </c>
       <c r="G50" s="73">
-        <f>G51^(1/5)</f>
-        <v>0.99028942228686234</v>
+        <v>0.99</v>
       </c>
       <c r="H50" s="73">
-        <f>H51^(1/5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="91" t="s">
         <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="80">
-        <v>1</v>
-      </c>
-      <c r="E51" s="80">
-        <v>1</v>
-      </c>
-      <c r="F51" s="80">
-        <f>1/1.05</f>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="G51" s="80">
-        <f>1/1.05</f>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="H51" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>204</v>
+      </c>
+      <c r="D51" s="99">
+        <v>1</v>
+      </c>
+      <c r="E51" s="99">
+        <v>1</v>
+      </c>
+      <c r="F51" s="99">
+        <v>0.95</v>
+      </c>
+      <c r="G51" s="99">
+        <v>0.95</v>
+      </c>
+      <c r="H51" s="99">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B36:B38"/>
@@ -9051,7 +8977,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9063,10 +8989,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>193</v>
@@ -9075,18 +9001,18 @@
         <v>194</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" s="81"/>
     </row>
@@ -9095,7 +9021,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E3" s="81"/>
     </row>
@@ -9104,7 +9030,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" s="81"/>
     </row>
@@ -9113,7 +9039,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="81"/>
     </row>
@@ -9122,7 +9048,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E6" s="81"/>
     </row>
@@ -9135,16 +9061,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E9" s="81"/>
     </row>
@@ -9181,7 +9107,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
@@ -9219,7 +9145,7 @@
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -9233,7 +9159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -9244,10 +9170,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>193</v>
@@ -9256,12 +9182,12 @@
         <v>194</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -9339,7 +9265,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
@@ -9427,119 +9353,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C2">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B6" si="0">1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C6" si="1">0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -9608,12 +9421,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9915,19 +9728,19 @@
       <c r="C11" s="69">
         <v>0</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="90">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
@@ -10523,8 +10336,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="85" t="s">
-        <v>205</v>
+      <c r="B36" s="84" t="s">
+        <v>225</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -10549,34 +10362,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="59">
-        <v>1</v>
-      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="85" t="s">
-        <v>207</v>
+      <c r="B38" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -10584,25 +10374,30 @@
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="59">
-        <v>1</v>
+      <c r="E38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="F38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="G38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="H38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="I38" s="35">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="85" t="s">
-        <v>210</v>
+      <c r="B39" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -10611,24 +10406,29 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
       <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="59">
-        <v>1</v>
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="I39" s="3">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="85" t="s">
-        <v>211</v>
+      <c r="B40" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -10637,24 +10437,29 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
       </c>
       <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="59">
-        <v>1</v>
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="3">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="85" t="s">
-        <v>208</v>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -10662,51 +10467,58 @@
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="59">
+      <c r="E41" s="35">
+        <v>1</v>
+      </c>
+      <c r="F41" s="35">
+        <v>1</v>
+      </c>
+      <c r="G41" s="35">
+        <v>1</v>
+      </c>
+      <c r="H41" s="35">
+        <v>1</v>
+      </c>
+      <c r="I41" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="59">
-        <v>1</v>
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="35">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="85" t="s">
-        <v>212</v>
+      <c r="B43" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -10714,25 +10526,30 @@
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="59">
-        <v>1</v>
+      <c r="E43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="F43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="G43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="H43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
+      </c>
+      <c r="I43" s="71">
+        <f>'Baseline year demographics'!$C$24</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="85" t="s">
-        <v>213</v>
+      <c r="B44" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -10740,278 +10557,68 @@
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="59">
-        <v>1</v>
+      <c r="E44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="H44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
+      </c>
+      <c r="I44" s="69">
+        <f>'Baseline year demographics'!$C$25</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="4"/>
+      <c r="B45" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="F45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="G45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="H45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="I45" s="69">
+        <f>'Baseline year demographics'!$C$23</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="F46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="G46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="H46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="I46" s="35">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="F47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="G47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="H47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="I47" s="3">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="F48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="H48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="I48" s="3">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="35">
-        <v>1</v>
-      </c>
-      <c r="F49" s="35">
-        <v>1</v>
-      </c>
-      <c r="G49" s="35">
-        <v>1</v>
-      </c>
-      <c r="H49" s="35">
-        <v>1</v>
-      </c>
-      <c r="I49" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="F50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="G50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="H50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="I50" s="35">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="F51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="G51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="H51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-      <c r="I51" s="71">
-        <f>'Baseline year demographics'!$C$24</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="F52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="G52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="H52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-      <c r="I52" s="69">
-        <f>'Baseline year demographics'!$C$25</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="F53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="G53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="H53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="I53" s="69">
-        <f>'Baseline year demographics'!$C$23</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="4"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11020,7 +10627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -11254,7 +10861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -12710,7 +12317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -12801,7 +12408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -13441,6 +13048,213 @@
       <c r="H27" s="12">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="85">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="92">
+        <v>0.09</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="85">
+        <v>1</v>
+      </c>
+      <c r="C3" s="92">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>1.9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="85">
+        <v>1</v>
+      </c>
+      <c r="C4" s="92">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="85">
+        <v>1</v>
+      </c>
+      <c r="C5" s="92">
+        <v>0.18</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="85">
+        <v>1</v>
+      </c>
+      <c r="C6" s="92">
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="85">
+        <v>0.93</v>
+      </c>
+      <c r="C7" s="92">
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="92">
+        <v>0.11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="85">
+        <v>0.98</v>
+      </c>
+      <c r="C10" s="92">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14099,114 +13913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="86">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="86">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="86">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="85" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="86">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="86">
-        <v>0.98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14768,132 +14479,69 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="88">
-        <v>0.09</v>
-      </c>
-      <c r="C40" s="14">
+        <v>225</v>
+      </c>
+      <c r="B40" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="93">
         <v>0.85</v>
       </c>
       <c r="D40" s="83">
-        <v>1</v>
+        <f>SUM('Interventions family planning'!E2:E10)</f>
+        <v>0.82100000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="C41" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D41" s="83">
-        <v>1</v>
-      </c>
+      <c r="A41" s="94"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="88">
-        <v>0.08</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D42" s="83">
-        <v>1</v>
-      </c>
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" s="88">
-        <v>0.18</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D43" s="83">
-        <v>1</v>
-      </c>
+      <c r="A43" s="94"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="97"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="B44" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D44" s="83">
-        <v>1</v>
-      </c>
+      <c r="A44" s="94"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="88">
-        <v>0.45</v>
-      </c>
-      <c r="C45" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D45" s="83">
-        <v>1</v>
-      </c>
+      <c r="A45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="97"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D46" s="83">
-        <v>1</v>
-      </c>
+      <c r="A46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" s="88">
-        <v>0.11</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D47" s="83">
-        <v>1</v>
-      </c>
+      <c r="A47" s="94"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="97"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D48" s="83">
-        <v>1</v>
-      </c>
+      <c r="A48" s="94"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="84"/>
+      <c r="C49" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18527,7 +18175,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18606,7 +18254,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>47</v>
@@ -18739,7 +18387,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="4">
@@ -18761,7 +18409,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="4">
@@ -18783,7 +18431,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="4">
@@ -18805,7 +18453,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="89" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="4">

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="600" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -5598,10 +5598,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="597">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7800,8 +7800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7841,7 +7841,7 @@
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7864,7 +7864,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="98"/>
+      <c r="B3" s="99"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7886,24 +7886,24 @@
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
       <c r="D4" s="73">
-        <f>D17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <f>D17^(1/2)</f>
+        <v>1.0246950765959599</v>
       </c>
       <c r="E4" s="73">
-        <f t="shared" ref="E4:H4" si="0">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <f>E17^(1/3)</f>
+        <v>1.0163963568148535</v>
       </c>
       <c r="F4" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0098057976734853</v>
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
       </c>
       <c r="G4" s="73">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:H4" si="0">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H4" s="73">
@@ -7913,7 +7913,7 @@
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="99" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7936,7 +7936,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="98"/>
+      <c r="B6" s="99"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -7957,24 +7957,24 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="98"/>
+      <c r="B7" s="99"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="73">
-        <f>D17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <f>D17^(1/2)</f>
+        <v>1.0246950765959599</v>
       </c>
       <c r="E7" s="73">
-        <f t="shared" ref="E7:H7" si="1">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <f>E17^(1/3)</f>
+        <v>1.0163963568148535</v>
       </c>
       <c r="F7" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0098057976734853</v>
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
       </c>
       <c r="G7" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E7:H7" si="1">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H7" s="73">
@@ -7983,7 +7983,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -8027,24 +8027,23 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="73">
-        <f>D17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E10" s="73">
-        <f t="shared" ref="E10:H10" si="2">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <f>E17^(1/3)</f>
+        <v>1.0163963568148535</v>
       </c>
       <c r="F10" s="73">
-        <f t="shared" si="2"/>
-        <v>1.0098057976734853</v>
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
       </c>
       <c r="G10" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E10:H10" si="2">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H10" s="73">
@@ -8053,7 +8052,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8076,7 +8075,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="98"/>
+      <c r="B12" s="99"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -8097,24 +8096,22 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="98"/>
+      <c r="B13" s="99"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
       <c r="D13" s="73">
-        <f>D17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E13" s="73">
-        <f t="shared" ref="E13:H13" si="3">E17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="F13" s="73">
-        <f t="shared" si="3"/>
-        <v>1.0098057976734853</v>
+        <f>F17^(1/4)</f>
+        <v>1.0122722344290394</v>
       </c>
       <c r="G13" s="73">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E13:H13" si="3">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H13" s="73">
@@ -8123,7 +8120,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="99" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8146,7 +8143,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="98"/>
+      <c r="B15" s="99"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -8167,24 +8164,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="98"/>
+      <c r="B16" s="99"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
       <c r="D16" s="73">
-        <f>D17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E16" s="73">
-        <f>E17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="F16" s="73">
-        <f t="shared" ref="F16:H16" si="4">F17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="G16" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F16:H16" si="4">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H16" s="73">
@@ -8226,7 +8220,7 @@
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="99" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -8249,7 +8243,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="98"/>
+      <c r="B20" s="99"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -8270,7 +8264,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="98"/>
+      <c r="B21" s="99"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -8296,7 +8290,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="99" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8319,7 +8313,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="98"/>
+      <c r="B23" s="99"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8340,7 +8334,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="98"/>
+      <c r="B24" s="99"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -8366,7 +8360,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8389,7 +8383,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="98"/>
+      <c r="B26" s="99"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8410,7 +8404,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="98"/>
+      <c r="B27" s="99"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8436,7 +8430,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="99" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8459,7 +8453,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="98"/>
+      <c r="B29" s="99"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8480,7 +8474,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="98"/>
+      <c r="B30" s="99"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8506,7 +8500,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="99" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8529,7 +8523,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="98"/>
+      <c r="B32" s="99"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8550,7 +8544,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="98"/>
+      <c r="B33" s="99"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -8602,7 +8596,7 @@
       <c r="A36" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="99" t="s">
         <v>81</v>
       </c>
       <c r="C36" t="s">
@@ -8625,7 +8619,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="98"/>
+      <c r="B37" s="99"/>
       <c r="C37" t="s">
         <v>194</v>
       </c>
@@ -8646,7 +8640,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="98"/>
+      <c r="B38" s="99"/>
       <c r="C38" t="s">
         <v>204</v>
       </c>
@@ -8667,7 +8661,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="99" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -8690,7 +8684,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="98"/>
+      <c r="B40" s="99"/>
       <c r="C40" t="s">
         <v>194</v>
       </c>
@@ -8711,7 +8705,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="98"/>
+      <c r="B41" s="99"/>
       <c r="C41" t="s">
         <v>204</v>
       </c>
@@ -8732,7 +8726,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -8755,7 +8749,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="98"/>
+      <c r="B43" s="99"/>
       <c r="C43" t="s">
         <v>194</v>
       </c>
@@ -8776,7 +8770,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="98"/>
+      <c r="B44" s="99"/>
       <c r="C44" t="s">
         <v>204</v>
       </c>
@@ -8797,7 +8791,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="99" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -8820,7 +8814,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="98"/>
+      <c r="B46" s="99"/>
       <c r="C46" t="s">
         <v>194</v>
       </c>
@@ -8841,7 +8835,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="98"/>
+      <c r="B47" s="99"/>
       <c r="C47" t="s">
         <v>204</v>
       </c>
@@ -8862,7 +8856,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="99" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -8885,7 +8879,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="98"/>
+      <c r="B49" s="99"/>
       <c r="C49" t="s">
         <v>194</v>
       </c>
@@ -8906,7 +8900,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="98"/>
+      <c r="B50" s="99"/>
       <c r="C50" t="s">
         <v>204</v>
       </c>
@@ -8933,29 +8927,24 @@
       <c r="C51" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="99">
-        <v>1</v>
-      </c>
-      <c r="E51" s="99">
-        <v>1</v>
-      </c>
-      <c r="F51" s="99">
+      <c r="D51" s="98">
+        <v>1</v>
+      </c>
+      <c r="E51" s="98">
+        <v>1</v>
+      </c>
+      <c r="F51" s="98">
         <v>0.95</v>
       </c>
-      <c r="G51" s="99">
+      <c r="G51" s="98">
         <v>0.95</v>
       </c>
-      <c r="H51" s="99">
+      <c r="H51" s="98">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8966,6 +8955,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3912,7 +3912,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="228">
   <si>
     <t>year</t>
   </si>
@@ -7800,7 +7800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -7903,7 +7903,7 @@
         <v>1.0122722344290394</v>
       </c>
       <c r="G4" s="73">
-        <f t="shared" ref="E4:H4" si="0">G17^(1/5)</f>
+        <f t="shared" ref="G4:H4" si="0">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H4" s="73">
@@ -7974,7 +7974,7 @@
         <v>1.0122722344290394</v>
       </c>
       <c r="G7" s="73">
-        <f t="shared" ref="E7:H7" si="1">G17^(1/5)</f>
+        <f t="shared" ref="G7:H7" si="1">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H7" s="73">
@@ -8043,7 +8043,7 @@
         <v>1.0122722344290394</v>
       </c>
       <c r="G10" s="73">
-        <f t="shared" ref="E10:H10" si="2">G17^(1/5)</f>
+        <f t="shared" ref="G10:H10" si="2">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H10" s="73">
@@ -8111,7 +8111,7 @@
         <v>1.0122722344290394</v>
       </c>
       <c r="G13" s="73">
-        <f t="shared" ref="E13:H13" si="3">G17^(1/5)</f>
+        <f t="shared" ref="G13:H13" si="3">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H13" s="73">
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="73">
-        <f t="shared" ref="F16:H16" si="4">G17^(1/5)</f>
+        <f t="shared" ref="G16:H16" si="4">G17^(1/5)</f>
         <v>1.0098057976734853</v>
       </c>
       <c r="H16" s="73">
@@ -8945,6 +8945,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8955,11 +8960,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8970,8 +8970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9005,7 +9005,7 @@
       <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>205</v>
       </c>
       <c r="E2" s="81"/>
@@ -9014,7 +9014,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>205</v>
       </c>
       <c r="E3" s="81"/>
@@ -9060,9 +9060,6 @@
       <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" t="s">
-        <v>205</v>
-      </c>
       <c r="D9" t="s">
         <v>205</v>
       </c>
@@ -9072,23 +9069,35 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
       <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>8</v>
       </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
       <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
       </c>
       <c r="E13" s="81"/>
     </row>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="660" yWindow="1560" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3912,7 +3912,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="228">
   <si>
     <t>year</t>
   </si>
@@ -4798,7 +4798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4847,6 +4847,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5447,7 +5527,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5575,7 +5655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5602,6 +5681,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="597">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7587,7 +7676,7 @@
       <c r="B9" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="87">
         <v>0.5</v>
       </c>
     </row>
@@ -7595,7 +7684,7 @@
       <c r="B10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="87">
         <v>0.3</v>
       </c>
     </row>
@@ -7603,7 +7692,7 @@
       <c r="B11" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="87">
         <v>0.1</v>
       </c>
     </row>
@@ -7841,7 +7930,7 @@
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7864,7 +7953,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7886,7 +7975,7 @@
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="99"/>
+      <c r="B4" s="98"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
@@ -7913,7 +8002,7 @@
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7936,7 +8025,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="99"/>
+      <c r="B6" s="98"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -7957,7 +8046,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="99"/>
+      <c r="B7" s="98"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -7983,7 +8072,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8006,7 +8095,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="99"/>
+      <c r="B9" s="98"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -8027,7 +8116,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="99"/>
+      <c r="B10" s="98"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
@@ -8052,7 +8141,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8075,7 +8164,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -8096,7 +8185,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="99"/>
+      <c r="B13" s="98"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8120,7 +8209,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8143,7 +8232,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="99"/>
+      <c r="B15" s="98"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -8164,7 +8253,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
@@ -8187,7 +8276,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="85" t="s">
         <v>112</v>
       </c>
       <c r="C17" t="s">
@@ -8220,7 +8309,7 @@
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="98" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -8243,7 +8332,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="99"/>
+      <c r="B20" s="98"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -8264,7 +8353,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="99"/>
+      <c r="B21" s="98"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -8290,7 +8379,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8313,7 +8402,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="99"/>
+      <c r="B23" s="98"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8334,7 +8423,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="99"/>
+      <c r="B24" s="98"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -8360,7 +8449,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8383,7 +8472,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="99"/>
+      <c r="B26" s="98"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8404,7 +8493,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="99"/>
+      <c r="B27" s="98"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8430,7 +8519,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8453,7 +8542,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="99"/>
+      <c r="B29" s="98"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8474,7 +8563,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="99"/>
+      <c r="B30" s="98"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8500,7 +8589,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8523,7 +8612,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="99"/>
+      <c r="B32" s="98"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8544,7 +8633,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="99"/>
+      <c r="B33" s="98"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -8596,7 +8685,7 @@
       <c r="A36" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="98" t="s">
         <v>81</v>
       </c>
       <c r="C36" t="s">
@@ -8619,7 +8708,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="99"/>
+      <c r="B37" s="98"/>
       <c r="C37" t="s">
         <v>194</v>
       </c>
@@ -8640,7 +8729,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="99"/>
+      <c r="B38" s="98"/>
       <c r="C38" t="s">
         <v>204</v>
       </c>
@@ -8661,7 +8750,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -8684,7 +8773,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="99"/>
+      <c r="B40" s="98"/>
       <c r="C40" t="s">
         <v>194</v>
       </c>
@@ -8705,7 +8794,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="99"/>
+      <c r="B41" s="98"/>
       <c r="C41" t="s">
         <v>204</v>
       </c>
@@ -8726,7 +8815,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -8749,7 +8838,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="99"/>
+      <c r="B43" s="98"/>
       <c r="C43" t="s">
         <v>194</v>
       </c>
@@ -8770,7 +8859,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="99"/>
+      <c r="B44" s="98"/>
       <c r="C44" t="s">
         <v>204</v>
       </c>
@@ -8791,7 +8880,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -8814,7 +8903,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="99"/>
+      <c r="B46" s="98"/>
       <c r="C46" t="s">
         <v>194</v>
       </c>
@@ -8835,7 +8924,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="99"/>
+      <c r="B47" s="98"/>
       <c r="C47" t="s">
         <v>204</v>
       </c>
@@ -8856,7 +8945,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="98" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -8879,7 +8968,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="99"/>
+      <c r="B49" s="98"/>
       <c r="C49" t="s">
         <v>194</v>
       </c>
@@ -8900,7 +8989,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="99"/>
+      <c r="B50" s="98"/>
       <c r="C50" t="s">
         <v>204</v>
       </c>
@@ -8921,35 +9010,30 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="90" t="s">
         <v>112</v>
       </c>
       <c r="C51" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="98">
-        <v>1</v>
-      </c>
-      <c r="E51" s="98">
-        <v>1</v>
-      </c>
-      <c r="F51" s="98">
+      <c r="D51" s="97">
+        <v>1</v>
+      </c>
+      <c r="E51" s="97">
+        <v>1</v>
+      </c>
+      <c r="F51" s="97">
         <v>0.95</v>
       </c>
-      <c r="G51" s="98">
+      <c r="G51" s="97">
         <v>0.95</v>
       </c>
-      <c r="H51" s="98">
+      <c r="H51" s="97">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8960,6 +9044,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8971,7 +9060,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8999,157 +9088,188 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="102"/>
+      <c r="B3" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="102"/>
+      <c r="B4" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="104"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="81"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="D5" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="104"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="105"/>
+      <c r="B7" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="102"/>
+      <c r="B12" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="102"/>
+      <c r="B13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="81"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="D13" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="104"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="105"/>
+      <c r="B14" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="101"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="102"/>
+      <c r="B17" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="102"/>
+      <c r="B18" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="81"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="81"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="102"/>
+      <c r="B20" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="81"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="105"/>
+      <c r="B21" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="81"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="81"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="81"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="81"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="81"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="81"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="81"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="81"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="81"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="81"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" t="s">
-        <v>205</v>
-      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9731,19 +9851,19 @@
       <c r="C11" s="69">
         <v>0</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="89">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="89">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="89">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="89">
         <f>'Baseline year demographics'!$C$7</f>
         <v>0.36</v>
       </c>
@@ -10339,7 +10459,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="83" t="s">
         <v>225</v>
       </c>
       <c r="C36" s="3">
@@ -13095,13 +13215,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="85">
+      <c r="B2" s="84">
         <v>0.9</v>
       </c>
-      <c r="C2" s="92">
+      <c r="C2" s="91">
         <v>0.09</v>
       </c>
       <c r="D2">
@@ -13113,13 +13233,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="85">
-        <v>1</v>
-      </c>
-      <c r="C3" s="92">
+      <c r="B3" s="84">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91">
         <v>0.02</v>
       </c>
       <c r="D3">
@@ -13131,13 +13251,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="85">
-        <v>1</v>
-      </c>
-      <c r="C4" s="92">
+      <c r="B4" s="84">
+        <v>1</v>
+      </c>
+      <c r="C4" s="91">
         <v>0.08</v>
       </c>
       <c r="D4">
@@ -13149,13 +13269,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="85">
-        <v>1</v>
-      </c>
-      <c r="C5" s="92">
+      <c r="B5" s="84">
+        <v>1</v>
+      </c>
+      <c r="C5" s="91">
         <v>0.18</v>
       </c>
       <c r="D5">
@@ -13167,13 +13287,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="85">
-        <v>1</v>
-      </c>
-      <c r="C6" s="92">
+      <c r="B6" s="84">
+        <v>1</v>
+      </c>
+      <c r="C6" s="91">
         <v>0.02</v>
       </c>
       <c r="D6">
@@ -13185,13 +13305,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="84">
         <v>0.93</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <v>0.45</v>
       </c>
       <c r="D7">
@@ -13203,13 +13323,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="84">
         <v>0.5</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="91">
         <v>0.03</v>
       </c>
       <c r="D8">
@@ -13221,13 +13341,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="84">
         <v>0.5</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="91">
         <v>0.11</v>
       </c>
       <c r="D9">
@@ -13239,13 +13359,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="84">
         <v>0.98</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <v>0.01</v>
       </c>
       <c r="D10">
@@ -14481,70 +14601,70 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="87">
+      <c r="B40" s="86">
         <v>0.5</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="92">
         <v>0.85</v>
       </c>
-      <c r="D40" s="83">
+      <c r="D40" s="82">
         <f>SUM('Interventions family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="94"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="94"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="94"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="96"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="94"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="97"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="94"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="97"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="94"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="97"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="94"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="96"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="96"/>
+      <c r="C49" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18390,7 +18510,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="88" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="4">
@@ -18412,7 +18532,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="88" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="4">
@@ -18434,7 +18554,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="88" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="4">
@@ -18456,7 +18576,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="4">

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1560" windowWidth="25600" windowHeight="14700" tabRatio="500" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -5678,9 +5678,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5691,6 +5688,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="597">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7889,8 +7889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7930,7 +7930,7 @@
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
@@ -7953,7 +7953,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="98"/>
+      <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
@@ -7975,7 +7975,7 @@
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="98"/>
+      <c r="B4" s="108"/>
       <c r="C4" t="s">
         <v>204</v>
       </c>
@@ -8002,7 +8002,7 @@
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="108" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -8025,7 +8025,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="98"/>
+      <c r="B6" s="108"/>
       <c r="C6" t="s">
         <v>194</v>
       </c>
@@ -8046,7 +8046,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="98"/>
+      <c r="B7" s="108"/>
       <c r="C7" t="s">
         <v>204</v>
       </c>
@@ -8072,7 +8072,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="108" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8095,7 +8095,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="98"/>
+      <c r="B9" s="108"/>
       <c r="C9" t="s">
         <v>194</v>
       </c>
@@ -8116,7 +8116,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="98"/>
+      <c r="B10" s="108"/>
       <c r="C10" t="s">
         <v>204</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="108" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8164,7 +8164,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="98"/>
+      <c r="B12" s="108"/>
       <c r="C12" t="s">
         <v>194</v>
       </c>
@@ -8185,7 +8185,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="98"/>
+      <c r="B13" s="108"/>
       <c r="C13" t="s">
         <v>204</v>
       </c>
@@ -8209,7 +8209,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="108" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8232,7 +8232,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="98"/>
+      <c r="B15" s="108"/>
       <c r="C15" t="s">
         <v>194</v>
       </c>
@@ -8253,7 +8253,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="98"/>
+      <c r="B16" s="108"/>
       <c r="C16" t="s">
         <v>204</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="A19" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="108" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
@@ -8332,7 +8332,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="98"/>
+      <c r="B20" s="108"/>
       <c r="C20" t="s">
         <v>194</v>
       </c>
@@ -8353,7 +8353,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="98"/>
+      <c r="B21" s="108"/>
       <c r="C21" t="s">
         <v>204</v>
       </c>
@@ -8379,7 +8379,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="108" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8402,7 +8402,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="98"/>
+      <c r="B23" s="108"/>
       <c r="C23" t="s">
         <v>194</v>
       </c>
@@ -8423,7 +8423,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="98"/>
+      <c r="B24" s="108"/>
       <c r="C24" t="s">
         <v>204</v>
       </c>
@@ -8449,7 +8449,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="108" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8472,7 +8472,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="98"/>
+      <c r="B26" s="108"/>
       <c r="C26" t="s">
         <v>194</v>
       </c>
@@ -8493,7 +8493,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="98"/>
+      <c r="B27" s="108"/>
       <c r="C27" t="s">
         <v>204</v>
       </c>
@@ -8519,7 +8519,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="108" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8542,7 +8542,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="98"/>
+      <c r="B29" s="108"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -8563,7 +8563,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="98"/>
+      <c r="B30" s="108"/>
       <c r="C30" t="s">
         <v>204</v>
       </c>
@@ -8589,7 +8589,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="108" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8612,7 +8612,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="98"/>
+      <c r="B32" s="108"/>
       <c r="C32" t="s">
         <v>194</v>
       </c>
@@ -8633,7 +8633,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="98"/>
+      <c r="B33" s="108"/>
       <c r="C33" t="s">
         <v>204</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="A36" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="108" t="s">
         <v>81</v>
       </c>
       <c r="C36" t="s">
@@ -8708,7 +8708,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="98"/>
+      <c r="B37" s="108"/>
       <c r="C37" t="s">
         <v>194</v>
       </c>
@@ -8729,7 +8729,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="98"/>
+      <c r="B38" s="108"/>
       <c r="C38" t="s">
         <v>204</v>
       </c>
@@ -8750,7 +8750,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="108" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -8773,7 +8773,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="98"/>
+      <c r="B40" s="108"/>
       <c r="C40" t="s">
         <v>194</v>
       </c>
@@ -8794,7 +8794,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="98"/>
+      <c r="B41" s="108"/>
       <c r="C41" t="s">
         <v>204</v>
       </c>
@@ -8815,7 +8815,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="108" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -8838,7 +8838,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="98"/>
+      <c r="B43" s="108"/>
       <c r="C43" t="s">
         <v>194</v>
       </c>
@@ -8859,7 +8859,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="98"/>
+      <c r="B44" s="108"/>
       <c r="C44" t="s">
         <v>204</v>
       </c>
@@ -8880,7 +8880,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="108" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -8896,14 +8896,14 @@
         <v>0.78</v>
       </c>
       <c r="G45" s="73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H45" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="98"/>
+      <c r="B46" s="108"/>
       <c r="C46" t="s">
         <v>194</v>
       </c>
@@ -8917,14 +8917,14 @@
         <v>0.78</v>
       </c>
       <c r="G46" s="73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H46" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="98"/>
+      <c r="B47" s="108"/>
       <c r="C47" t="s">
         <v>204</v>
       </c>
@@ -8945,7 +8945,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="108" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -8968,7 +8968,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="98"/>
+      <c r="B49" s="108"/>
       <c r="C49" t="s">
         <v>194</v>
       </c>
@@ -8989,7 +8989,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="98"/>
+      <c r="B50" s="108"/>
       <c r="C50" t="s">
         <v>204</v>
       </c>
@@ -9034,6 +9034,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -9044,11 +9049,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9059,8 +9059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9088,188 +9088,188 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="104"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="104"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
-      <c r="B7" s="106" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="103"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="104"/>
+      <c r="B14" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="101"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="104"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="102"/>
-      <c r="B18" s="103" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103" t="s">
+      <c r="A19" s="101"/>
+      <c r="B19" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="105"/>
-      <c r="B21" s="106" t="s">
+      <c r="A21" s="104"/>
+      <c r="B21" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9283,7 +9283,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E8" sqref="E8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -7637,8 +7637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7760,13 +7760,13 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="E5" s="62">
-        <v>3.07</v>
+        <v>1</v>
       </c>
       <c r="F5" s="62">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G5" s="62">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H5" s="64">
         <v>1</v>
@@ -7781,13 +7781,13 @@
         <v>2.17</v>
       </c>
       <c r="E6" s="62">
-        <v>2.48</v>
+        <v>1</v>
       </c>
       <c r="F6" s="62">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="G6" s="62">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H6" s="64">
         <v>1</v>
@@ -7833,10 +7833,10 @@
         <v>1.5</v>
       </c>
       <c r="F8" s="62">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="62">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="H8" s="64">
         <v>1</v>
@@ -7854,10 +7854,10 @@
         <v>1.5</v>
       </c>
       <c r="F9" s="62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G9" s="62">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H9" s="64">
         <v>1</v>
@@ -7905,7 +7905,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G11" s="62">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="H11" s="64">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G12" s="62">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H12" s="64">
         <v>1</v>
@@ -8511,10 +8511,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G39" s="62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H39" s="62">
         <v>1</v>
@@ -8532,10 +8532,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G40" s="62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H40" s="62">
         <v>1</v>
@@ -8576,10 +8576,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G42" s="62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H42" s="62">
         <v>1</v>
@@ -8597,10 +8597,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G43" s="62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H43" s="62">
         <v>1</v>
@@ -11557,7 +11557,7 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -13014,7 +13014,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33860" yWindow="-21140" windowWidth="26760" windowHeight="21140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-33500" yWindow="-21140" windowWidth="26760" windowHeight="21140" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,12 +421,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1.5*unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
+If user wants this, it must be checked for </t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -435,7 +431,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>all populations</t>
         </r>
         <r>
           <rPr>
@@ -444,32 +440,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-0.5* unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Totally fictional</t>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
         </r>
       </text>
     </comment>
@@ -480,35 +451,34 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Poor pregnant women - all target population</t>
+1.5*unit cost of BFP</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +488,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -528,11 +498,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+0.5* unit cost of BFP</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="1">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +512,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -552,55 +522,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
+Totally fictional</t>
         </r>
       </text>
     </comment>
@@ -613,10 +535,9 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -636,11 +557,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+Poor pregnant women - all target population</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1">
+    <comment ref="C9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -650,9 +571,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -662,11 +581,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1">
+    <comment ref="D9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -676,9 +595,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -688,11 +605,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1">
+    <comment ref="C11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -702,9 +619,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -714,11 +629,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1">
+    <comment ref="D11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -728,9 +643,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -740,464 +653,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only in malaria risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made this number up
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -1208,11 +664,36 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Sam</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="F21" authorId="0">
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1222,7 +703,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1232,11 +715,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="1">
+    <comment ref="M2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1246,7 +729,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1256,11 +741,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="1">
+    <comment ref="N2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1270,7 +755,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1280,7 +767,490 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -1291,30 +1261,79 @@
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Ruth</author>
+    <author>Microsoft Office User</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ruth made these numbers up</t>
+WHO statement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
         </r>
       </text>
     </comment>
@@ -1323,6 +1342,40 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ruth</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ruth made these numbers up</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Janka Petravic</author>
@@ -2369,7 +2422,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -2500,7 +2553,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -3518,11 +3571,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
-    <author>Janka Petravic</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3542,199 +3593,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-May not need these beyond calculation below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST: 1.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fictional</t>
+Not modelling death through anaemia</t>
         </r>
       </text>
     </comment>
@@ -3746,9 +3605,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3768,7 +3629,199 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST: 1.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fictional</t>
         </r>
       </text>
     </comment>
@@ -3782,7 +3835,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3802,26 +3855,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-If user wants this, it must be checked for </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>all populations</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -3830,7 +3864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
   <si>
     <t>year</t>
   </si>
@@ -4181,9 +4215,6 @@
   </si>
   <si>
     <t>Age distribution pregnant</t>
-  </si>
-  <si>
-    <t>Maternal anemia - death risk</t>
   </si>
   <si>
     <t>Complementary feeding (food insecure with promotion and supplementation) with iron</t>
@@ -7624,7 +7655,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="41">
         <v>171684000</v>
@@ -7665,7 +7696,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="69">
         <v>0.5</v>
@@ -7673,7 +7704,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="69">
         <v>0.3</v>
@@ -7681,7 +7712,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="69">
         <v>0.1</v>
@@ -7689,7 +7720,7 @@
     </row>
     <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="47">
         <v>0.9</v>
@@ -7697,7 +7728,7 @@
     </row>
     <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" s="47">
         <v>0.4</v>
@@ -7705,7 +7736,7 @@
     </row>
     <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="69">
         <v>0.2</v>
@@ -7714,10 +7745,10 @@
     <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="19">
         <v>176</v>
@@ -7725,7 +7756,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="19">
         <v>0.13</v>
@@ -7733,7 +7764,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="19">
         <v>25.36</v>
@@ -7741,7 +7772,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="19">
         <v>25.4</v>
@@ -7749,7 +7780,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="19">
         <v>34.68</v>
@@ -7757,7 +7788,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="19">
         <v>39.32</v>
@@ -7815,10 +7846,10 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="39">
         <v>8634000</v>
@@ -7828,7 +7859,7 @@
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="39">
         <v>13550000</v>
@@ -7838,7 +7869,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="106">
         <v>12394000</v>
@@ -7847,7 +7878,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="39">
         <v>9148000</v>
@@ -7866,10 +7897,10 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="39">
         <f>C31-C43</f>
@@ -7880,7 +7911,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="39">
         <f t="shared" ref="C38:C40" si="0">C32-C44</f>
@@ -7891,7 +7922,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="39">
         <f t="shared" si="0"/>
@@ -7901,7 +7932,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="39">
         <f t="shared" si="0"/>
@@ -7920,10 +7951,10 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="33">
         <f>C49*$C$5</f>
@@ -7932,7 +7963,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="33">
         <f t="shared" ref="C44:C46" si="1">C50*$C$5</f>
@@ -7941,7 +7972,7 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="33">
         <f t="shared" si="1"/>
@@ -7950,7 +7981,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="33">
         <f t="shared" si="1"/>
@@ -7962,7 +7993,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="33">
         <v>0.29978973218277538</v>
@@ -7970,7 +8001,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="33">
         <v>0.52556568434139284</v>
@@ -7978,7 +8009,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="33">
         <v>0.16210210664201097</v>
@@ -7986,7 +8017,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="33">
         <v>1.2542476833820825E-2</v>
@@ -8019,13 +8050,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>6</v>
@@ -8045,13 +8076,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="57">
         <v>1.85</v>
@@ -8072,7 +8103,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="96"/>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="57">
         <v>1.9</v>
@@ -8094,7 +8125,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="96"/>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="57">
         <f>D17^(1/2)</f>
@@ -8123,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="57">
         <v>2.0299999999999998</v>
@@ -8144,7 +8175,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="96"/>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="57">
         <v>2.17</v>
@@ -8165,7 +8196,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="96"/>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="57">
         <f>D17^(1/2)</f>
@@ -8193,7 +8224,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="57">
         <v>1</v>
@@ -8214,7 +8245,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="96"/>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="57">
         <v>1</v>
@@ -8235,7 +8266,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="96"/>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="57">
         <v>1</v>
@@ -8262,7 +8293,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="57">
         <v>1</v>
@@ -8283,7 +8314,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="96"/>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="57">
         <v>1</v>
@@ -8304,7 +8335,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="96"/>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="57">
         <v>1</v>
@@ -8330,7 +8361,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="57">
         <v>1</v>
@@ -8351,7 +8382,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="96"/>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="57">
         <v>1</v>
@@ -8372,7 +8403,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="96"/>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="57">
         <v>1</v>
@@ -8397,7 +8428,7 @@
         <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="64">
         <v>1.05</v>
@@ -8424,13 +8455,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="57">
         <v>1</v>
@@ -8451,7 +8482,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="96"/>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="57">
         <v>1</v>
@@ -8472,7 +8503,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="96"/>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="57">
         <f>D34^(1/5)</f>
@@ -8500,7 +8531,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="57">
         <v>1</v>
@@ -8521,7 +8552,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="96"/>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="57">
         <v>1</v>
@@ -8542,7 +8573,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="96"/>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="57">
         <f>D34^(1/5)</f>
@@ -8570,7 +8601,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="57">
         <v>1</v>
@@ -8591,7 +8622,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="96"/>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="57">
         <v>1</v>
@@ -8612,7 +8643,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="96"/>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="57">
         <f>D34^(1/5)</f>
@@ -8640,7 +8671,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="57">
         <v>1</v>
@@ -8661,7 +8692,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="96"/>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="57">
         <v>1</v>
@@ -8682,7 +8713,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="96"/>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="57">
         <f>D34^(1/5)</f>
@@ -8710,7 +8741,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D31" s="57">
         <v>1</v>
@@ -8731,7 +8762,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="96"/>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="57">
         <v>1</v>
@@ -8752,7 +8783,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="96"/>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="57">
         <f>D34^(1/5)</f>
@@ -8780,7 +8811,7 @@
         <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="64">
         <v>1.05</v>
@@ -8800,13 +8831,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36" s="57">
         <v>1</v>
@@ -8827,7 +8858,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="96"/>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="57">
         <v>1</v>
@@ -8848,7 +8879,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="96"/>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="57">
         <v>1</v>
@@ -8871,7 +8902,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="57">
         <v>1</v>
@@ -8892,7 +8923,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="96"/>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D40" s="57">
         <v>1</v>
@@ -8913,7 +8944,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="96"/>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="57">
         <v>1</v>
@@ -8936,7 +8967,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="57">
         <v>1</v>
@@ -8957,7 +8988,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="96"/>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="57">
         <v>1</v>
@@ -8978,7 +9009,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="96"/>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" s="57">
         <v>1</v>
@@ -9001,7 +9032,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D45" s="57">
         <v>1</v>
@@ -9022,7 +9053,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="96"/>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D46" s="57">
         <v>1</v>
@@ -9043,7 +9074,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="96"/>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47" s="57">
         <v>1</v>
@@ -9066,7 +9097,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48" s="57">
         <v>1</v>
@@ -9087,7 +9118,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="96"/>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D49" s="57">
         <v>1</v>
@@ -9108,7 +9139,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="96"/>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="57">
         <v>1</v>
@@ -9131,7 +9162,7 @@
         <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51" s="79">
         <v>1</v>
@@ -9189,24 +9220,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="81" t="s">
         <v>79</v>
@@ -9239,10 +9270,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" s="85"/>
     </row>
@@ -9266,7 +9297,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="81" t="s">
         <v>79</v>
@@ -9308,10 +9339,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="85"/>
     </row>
@@ -9326,16 +9357,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="82"/>
     </row>
@@ -9345,10 +9376,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="85"/>
     </row>
@@ -9410,24 +9441,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -9505,7 +9536,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -9610,10 +9641,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9746,7 +9777,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -9820,7 +9851,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -9946,33 +9977,33 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>83</v>
@@ -10019,7 +10050,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="47">
         <v>1</v>
@@ -10063,7 +10094,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10107,7 +10138,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10151,7 +10182,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10195,7 +10226,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -10239,7 +10270,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10283,7 +10314,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10327,7 +10358,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -10371,7 +10402,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -10415,7 +10446,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10459,7 +10490,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -10503,7 +10534,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -10547,7 +10578,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -10591,7 +10622,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -10635,7 +10666,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -10679,7 +10710,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -10723,7 +10754,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -10767,7 +10798,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -10855,7 +10886,7 @@
     </row>
     <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -10943,7 +10974,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -11031,7 +11062,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
@@ -11210,7 +11241,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11254,7 +11285,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B32" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -11298,7 +11329,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11401,10 +11432,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="47">
         <v>1</v>
@@ -11424,10 +11455,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="47">
         <v>1</v>
@@ -11569,7 +11600,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>115</v>
@@ -11592,10 +11623,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>115</v>
@@ -11638,7 +11669,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>115</v>
@@ -11684,7 +11715,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>115</v>
@@ -11727,7 +11758,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>115</v>
@@ -11770,10 +11801,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>115</v>
@@ -11816,7 +11847,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>115</v>
@@ -11859,10 +11890,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>115</v>
@@ -11906,7 +11937,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>115</v>
@@ -11951,7 +11982,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -12000,7 +12031,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -12047,7 +12078,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -12118,24 +12149,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="67">
         <v>0.9</v>
@@ -12153,7 +12184,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="67">
         <v>1</v>
@@ -12171,7 +12202,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="67">
         <v>1</v>
@@ -12189,7 +12220,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="67">
         <v>1</v>
@@ -12207,7 +12238,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="67">
         <v>1</v>
@@ -12225,7 +12256,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="67">
         <v>0.93</v>
@@ -12243,7 +12274,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="67">
         <v>0.5</v>
@@ -12261,7 +12292,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="67">
         <v>0.5</v>
@@ -12279,7 +12310,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="67">
         <v>0.98</v>
@@ -12348,28 +12379,28 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="L1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12422,7 +12453,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -12554,7 +12585,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -12647,7 +12678,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -12740,7 +12771,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -12787,7 +12818,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="54">
         <v>0</v>
@@ -12835,7 +12866,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="54">
         <v>0</v>
@@ -12879,7 +12910,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="54">
         <v>0</v>
@@ -12975,7 +13006,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -13019,7 +13050,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -13111,7 +13142,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -13159,7 +13190,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -13210,7 +13241,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -13254,7 +13285,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -13298,7 +13329,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -13342,7 +13373,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -13386,7 +13417,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -13430,7 +13461,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -13474,7 +13505,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -13519,7 +13550,7 @@
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -13563,7 +13594,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -13607,7 +13638,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -13651,7 +13682,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -13695,7 +13726,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -13739,7 +13770,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -13783,7 +13814,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -13827,7 +13858,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -14140,7 +14171,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -14195,7 +14226,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -14250,7 +14281,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -14348,16 +14379,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>65</v>
@@ -14372,7 +14403,7 @@
         <v>89</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14991,13 +15022,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>29</v>
@@ -15006,10 +15037,10 @@
         <v>38</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -15019,108 +15050,108 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -15130,7 +15161,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -15158,28 +15189,28 @@
         <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -15187,21 +15218,21 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -15209,31 +15240,31 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -15243,7 +15274,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -15266,10 +15297,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -15279,102 +15310,102 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
@@ -15384,7 +15415,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
@@ -15414,17 +15445,17 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
@@ -15434,7 +15465,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
@@ -15444,17 +15475,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
@@ -15464,7 +15495,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -15497,10 +15528,10 @@
         <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15519,7 +15550,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -15534,7 +15565,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="97">
         <v>0.5</v>
@@ -15549,7 +15580,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
@@ -15563,7 +15594,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="19">
         <v>0</v>
@@ -15577,7 +15608,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="19">
         <v>0</v>
@@ -15591,7 +15622,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="14">
         <v>0</v>
@@ -15605,7 +15636,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="14">
         <v>0</v>
@@ -15619,7 +15650,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -15633,7 +15664,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
@@ -15647,7 +15678,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="14">
         <v>0</v>
@@ -15661,7 +15692,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="14">
         <v>0</v>
@@ -15675,7 +15706,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="14">
         <v>0</v>
@@ -15689,7 +15720,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
@@ -15703,7 +15734,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
@@ -15717,7 +15748,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -15731,7 +15762,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="14">
         <v>0</v>
@@ -15745,7 +15776,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="14">
         <v>0</v>
@@ -15759,7 +15790,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="14">
         <v>0</v>
@@ -15773,7 +15804,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="14">
         <v>0</v>
@@ -15787,7 +15818,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="14">
         <v>0</v>
@@ -15815,7 +15846,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="14">
         <v>0</v>
@@ -15899,7 +15930,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="51">
         <v>0</v>
@@ -15913,7 +15944,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="14">
         <v>0</v>
@@ -15927,7 +15958,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="14">
         <v>0</v>
@@ -15955,7 +15986,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="31">
         <v>0</v>
@@ -15983,7 +16014,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="31">
         <v>0</v>
@@ -15997,7 +16028,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="14">
         <v>0</v>
@@ -16012,7 +16043,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="14">
         <v>0.61</v>
@@ -16041,7 +16072,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" s="98">
         <v>0</v>
@@ -16119,7 +16150,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16147,16 +16178,16 @@
         <v>10</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17053,7 +17084,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="31">
         <v>5.1999999999999998E-2</v>
@@ -17093,7 +17124,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="47">
         <f>Distributions!C10/100 * 2.6</f>
@@ -17118,7 +17149,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="47">
         <f>Distributions!C11/100 * 2.6</f>
@@ -17152,8 +17183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17170,7 +17201,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>13</v>
@@ -17191,36 +17222,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="L1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="103">
         <f>C6</f>
@@ -17278,7 +17309,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="103">
         <f>1-C2</f>
@@ -17352,10 +17383,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="37">
         <v>0.1</v>
@@ -17399,10 +17430,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="37">
         <v>0.05</v>
@@ -17446,10 +17477,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="94">
         <v>0.01</v>
@@ -17503,7 +17534,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17676,7 +17707,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="102">
         <v>0.15</v>
@@ -17696,7 +17727,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="102">
         <v>4.9000000000000002E-2</v>
@@ -17900,7 +17931,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -17935,7 +17966,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>
@@ -17952,7 +17983,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="56">
         <v>1</v>
@@ -17983,7 +18014,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -18128,14 +18159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18172,16 +18203,16 @@
         <v>10</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -18914,7 +18945,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -18946,7 +18977,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -19045,7 +19076,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -19077,7 +19108,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -19176,7 +19207,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -19208,7 +19239,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -19307,7 +19338,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -19339,7 +19370,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -19438,7 +19469,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -19470,7 +19501,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -19500,1083 +19531,1101 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="11">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="4">
-        <v>1</v>
-      </c>
-      <c r="L46" s="4">
+        <v>234</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C49" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C51" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C53" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C55" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="10"/>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="J57" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="K57" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="L57" s="4">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="J59" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="K59" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="L59" s="4">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="J61" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="K61" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="L61" s="4">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D65" s="12">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1</v>
-      </c>
-      <c r="L47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C48" s="4" t="s">
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D66" s="12">
         <v>4.62</v>
       </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
-      <c r="L48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C49" s="4" t="s">
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D67" s="12">
         <v>10.53</v>
       </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1</v>
-      </c>
-      <c r="L49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="4">
-        <v>1</v>
-      </c>
-      <c r="L50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C51" s="4" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D69" s="4">
         <v>1.66</v>
       </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1</v>
-      </c>
-      <c r="L51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C52" s="4" t="s">
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D70" s="4">
         <v>2.5</v>
       </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4">
-        <v>1</v>
-      </c>
-      <c r="K52" s="4">
-        <v>1</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C53" s="4" t="s">
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1</v>
+      </c>
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D71" s="4">
         <v>14.97</v>
       </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1</v>
-      </c>
-      <c r="J53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1</v>
-      </c>
-      <c r="L53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1</v>
-      </c>
-      <c r="L54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C55" s="4" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C73" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D73" s="4">
         <v>1.66</v>
       </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="4">
-        <v>1</v>
-      </c>
-      <c r="L55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C56" s="4" t="s">
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C74" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D74" s="4">
         <v>2.5</v>
       </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4">
-        <v>1</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="4">
-        <v>1</v>
-      </c>
-      <c r="L56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C57" s="4" t="s">
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C75" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D75" s="4">
         <v>14.97</v>
       </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4">
-        <v>1</v>
-      </c>
-      <c r="I57" s="4">
-        <v>1</v>
-      </c>
-      <c r="J57" s="4">
-        <v>1</v>
-      </c>
-      <c r="K57" s="4">
-        <v>1</v>
-      </c>
-      <c r="L57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1</v>
-      </c>
-      <c r="K58" s="4">
-        <v>1</v>
-      </c>
-      <c r="L58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C59" s="4" t="s">
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C77" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4">
-        <v>1</v>
-      </c>
-      <c r="J59" s="4">
-        <v>1</v>
-      </c>
-      <c r="K59" s="4">
-        <v>1</v>
-      </c>
-      <c r="L59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C60" s="4" t="s">
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C78" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1</v>
-      </c>
-      <c r="J60" s="4">
-        <v>1</v>
-      </c>
-      <c r="K60" s="4">
-        <v>1</v>
-      </c>
-      <c r="L60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C61" s="4" t="s">
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C79" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4">
-        <v>1</v>
-      </c>
-      <c r="K61" s="4">
-        <v>1</v>
-      </c>
-      <c r="L61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="4">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1</v>
-      </c>
-      <c r="K62" s="4">
-        <v>1</v>
-      </c>
-      <c r="L62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C63" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="12">
-        <v>1</v>
-      </c>
-      <c r="E63" s="12">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F63" s="11">
-        <v>1</v>
-      </c>
-      <c r="G63" s="11">
-        <v>1</v>
-      </c>
-      <c r="H63" s="11">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1</v>
-      </c>
-      <c r="K63" s="4">
-        <v>1</v>
-      </c>
-      <c r="L63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C64" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="12">
-        <v>1</v>
-      </c>
-      <c r="E64" s="12">
-        <v>4.62</v>
-      </c>
-      <c r="F64" s="11">
-        <v>1</v>
-      </c>
-      <c r="G64" s="11">
-        <v>1</v>
-      </c>
-      <c r="H64" s="11">
-        <v>1</v>
-      </c>
-      <c r="I64" s="4">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4">
-        <v>1</v>
-      </c>
-      <c r="K64" s="4">
-        <v>1</v>
-      </c>
-      <c r="L64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C65" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="12">
-        <v>1</v>
-      </c>
-      <c r="E65" s="12">
-        <v>10.53</v>
-      </c>
-      <c r="F65" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="G65" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="H65" s="11">
-        <v>1</v>
-      </c>
-      <c r="I65" s="4">
-        <v>1</v>
-      </c>
-      <c r="J65" s="4">
-        <v>1</v>
-      </c>
-      <c r="K65" s="4">
-        <v>1</v>
-      </c>
-      <c r="L65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" s="4">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4">
-        <v>1</v>
-      </c>
-      <c r="K66" s="4">
-        <v>1</v>
-      </c>
-      <c r="L66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1.66</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" s="4">
-        <v>1</v>
-      </c>
-      <c r="J67" s="4">
-        <v>1</v>
-      </c>
-      <c r="K67" s="4">
-        <v>1</v>
-      </c>
-      <c r="L67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C68" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>2.5</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" s="4">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <v>1</v>
-      </c>
-      <c r="L68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C69" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>14.97</v>
-      </c>
-      <c r="F69">
-        <v>1.92</v>
-      </c>
-      <c r="G69">
-        <v>1.92</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" s="4">
-        <v>1</v>
-      </c>
-      <c r="J69" s="4">
-        <v>1</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
-      </c>
-      <c r="L69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" s="4">
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
-        <v>1</v>
-      </c>
-      <c r="K70" s="4">
-        <v>1</v>
-      </c>
-      <c r="L70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C71" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" s="4">
-        <v>1</v>
-      </c>
-      <c r="J71" s="4">
-        <v>1</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
-      </c>
-      <c r="L71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C72" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" s="4">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
-        <v>1</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1</v>
-      </c>
-      <c r="L72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" s="4">
-        <v>1</v>
-      </c>
-      <c r="J73" s="4">
-        <v>1</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1</v>
-      </c>
-      <c r="L73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" s="4">
-        <v>1</v>
-      </c>
-      <c r="H76" s="4">
-        <v>1</v>
-      </c>
-      <c r="I76" s="4">
-        <v>1</v>
-      </c>
-      <c r="J76" s="4">
-        <v>1</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1</v>
-      </c>
-      <c r="L76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C77" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-      <c r="G77" s="4">
-        <v>1</v>
-      </c>
-      <c r="H77" s="4">
-        <v>1</v>
-      </c>
-      <c r="I77" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="J77" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="K77" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="L77" s="4">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="4">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4">
-        <v>1</v>
-      </c>
-      <c r="I78" s="4">
-        <v>1</v>
-      </c>
-      <c r="J78" s="4">
-        <v>1</v>
-      </c>
-      <c r="K78" s="4">
-        <v>1</v>
-      </c>
-      <c r="L78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C79" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="4">
-        <v>1</v>
-      </c>
-      <c r="H79" s="4">
-        <v>1</v>
-      </c>
-      <c r="I79" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="J79" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="K79" s="4">
-        <v>3.51</v>
-      </c>
-      <c r="L79" s="4">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4">
-        <v>1</v>
-      </c>
-      <c r="H80" s="4">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" s="4">
@@ -20594,47 +20643,108 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="4">
-        <v>1</v>
-      </c>
-      <c r="G81" s="4">
-        <v>1</v>
-      </c>
-      <c r="H81" s="4">
+        <v>40</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+      <c r="E81" s="12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F81" s="11">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11">
+        <v>1</v>
+      </c>
+      <c r="H81" s="11">
         <v>1</v>
       </c>
       <c r="I81" s="4">
-        <v>3.51</v>
+        <v>1</v>
       </c>
       <c r="J81" s="4">
-        <v>3.51</v>
+        <v>1</v>
       </c>
       <c r="K81" s="4">
-        <v>3.51</v>
+        <v>1</v>
       </c>
       <c r="L81" s="4">
-        <v>3.51</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="12">
+        <v>1</v>
+      </c>
+      <c r="E82" s="12">
+        <v>4.62</v>
+      </c>
+      <c r="F82" s="11">
+        <v>1</v>
+      </c>
+      <c r="G82" s="11">
+        <v>1</v>
+      </c>
+      <c r="H82" s="11">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1</v>
+      </c>
+      <c r="L82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="12">
+        <v>1</v>
+      </c>
+      <c r="E83" s="12">
+        <v>10.53</v>
+      </c>
+      <c r="F83" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="G83" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="H83" s="11">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>70</v>
+      <c r="B84" t="s">
+        <v>30</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84">
@@ -20649,16 +20759,16 @@
       <c r="H84">
         <v>1</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
         <v>1</v>
       </c>
     </row>
@@ -20666,11 +20776,11 @@
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D85">
-        <v>1.26</v>
+      <c r="D85" s="4">
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -20681,16 +20791,16 @@
       <c r="H85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1</v>
+      </c>
+      <c r="L85" s="4">
         <v>1</v>
       </c>
     </row>
@@ -20698,11 +20808,11 @@
       <c r="C86" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D86">
-        <v>1.68</v>
+      <c r="D86" s="4">
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1.68</v>
+        <v>2.5</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -20713,16 +20823,16 @@
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
+      <c r="I86" s="4">
+        <v>1</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+      <c r="L86" s="4">
         <v>1</v>
       </c>
     </row>
@@ -20730,40 +20840,306 @@
       <c r="C87" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>14.97</v>
+      </c>
+      <c r="F87">
+        <v>1.92</v>
+      </c>
+      <c r="G87">
+        <v>1.92</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1</v>
+      </c>
+      <c r="J87" s="4">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+      <c r="L88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+      <c r="L89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1</v>
+      </c>
+      <c r="L90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C91" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95">
+        <v>1.26</v>
+      </c>
+      <c r="E95">
+        <v>1.26</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C96" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96">
+        <v>1.68</v>
+      </c>
+      <c r="E96">
+        <v>1.68</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C97" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97">
         <v>2.65</v>
       </c>
-      <c r="E87">
+      <c r="E97">
         <v>2.65</v>
       </c>
-      <c r="F87">
+      <c r="F97">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G87">
+      <c r="G97">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20813,7 +21189,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -20837,7 +21213,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>28</v>
@@ -20860,7 +21236,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>47</v>
@@ -20903,7 +21279,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -20923,7 +21299,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -21016,7 +21392,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -21060,7 +21436,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -21127,7 +21503,7 @@
     <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -21150,7 +21526,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>28</v>

--- a/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/2017Nov/InputForCode_Bangladesh.xlsx
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="238">
   <si>
     <t>year</t>
   </si>
@@ -4901,7 +4901,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="623">
+  <cellStyleXfs count="627">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4913,6 +4913,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5688,7 +5692,7 @@
     <xf numFmtId="165" fontId="13" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="623">
+  <cellStyles count="627">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -6000,6 +6004,8 @@
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6310,6 +6316,8 @@
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -17184,7 +17192,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18163,21 +18171,25 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83:L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -18214,8 +18226,20 @@
       <c r="L1" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -18252,8 +18276,20 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
@@ -18284,8 +18320,20 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -18316,8 +18364,20 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -18348,8 +18408,20 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -18383,8 +18455,20 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
@@ -18415,8 +18499,20 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -18447,8 +18543,20 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -18479,8 +18587,20 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -18514,8 +18634,20 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -18546,8 +18678,20 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
@@ -18578,8 +18722,20 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
@@ -18610,8 +18766,20 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>33</v>
       </c>
@@ -18645,8 +18813,20 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
@@ -18677,8 +18857,20 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
@@ -18709,8 +18901,20 @@
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
@@ -18741,8 +18945,20 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -18776,8 +18992,20 @@
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
@@ -18808,8 +19036,20 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
@@ -18840,8 +19080,20 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
@@ -18872,8 +19124,20 @@
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -18910,8 +19174,20 @@
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
@@ -18942,8 +19218,20 @@
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>165</v>
       </c>
@@ -18974,8 +19262,20 @@
       <c r="L26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
         <v>166</v>
       </c>
@@ -19006,8 +19306,20 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -19041,8 +19353,20 @@
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
@@ -19073,8 +19397,20 @@
       <c r="L29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>165</v>
       </c>
@@ -19105,8 +19441,20 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>166</v>
       </c>
@@ -19137,8 +19485,20 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -19172,8 +19532,20 @@
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -19204,8 +19576,20 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
         <v>165</v>
       </c>
@@ -19236,8 +19620,20 @@
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>166</v>
       </c>
@@ -19268,8 +19664,20 @@
       <c r="L35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -19303,8 +19711,20 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
@@ -19335,8 +19755,20 @@
       <c r="L37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
         <v>165</v>
       </c>
@@ -19367,8 +19799,20 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
         <v>166</v>
       </c>
@@ -19399,8 +19843,20 @@
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -19434,8 +19890,20 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
@@ -19466,8 +19934,20 @@
       <c r="L41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>165</v>
       </c>
@@ -19498,8 +19978,20 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>166</v>
       </c>
@@ -19530,12 +20022,24 @@
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>230</v>
       </c>
@@ -19572,8 +20076,20 @@
       <c r="L46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>235</v>
       </c>
@@ -19604,8 +20120,20 @@
       <c r="L47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -19639,8 +20167,20 @@
       <c r="L48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
         <v>235</v>
       </c>
@@ -19671,8 +20211,20 @@
       <c r="L49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>32</v>
       </c>
@@ -19706,8 +20258,20 @@
       <c r="L50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>235</v>
       </c>
@@ -19738,8 +20302,20 @@
       <c r="L51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>33</v>
       </c>
@@ -19773,8 +20349,20 @@
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
         <v>235</v>
       </c>
@@ -19805,8 +20393,20 @@
       <c r="L53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>37</v>
       </c>
@@ -19840,8 +20440,20 @@
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
         <v>235</v>
       </c>
@@ -19872,8 +20484,20 @@
       <c r="L55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" t="s">
         <v>91</v>
@@ -19908,8 +20532,20 @@
       <c r="L56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
         <v>111</v>
       </c>
@@ -19940,8 +20576,20 @@
       <c r="L57" s="4">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>92</v>
       </c>
@@ -19975,8 +20623,20 @@
       <c r="L58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
         <v>111</v>
       </c>
@@ -20007,8 +20667,20 @@
       <c r="L59" s="4">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>93</v>
       </c>
@@ -20042,8 +20714,20 @@
       <c r="L60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
         <v>111</v>
       </c>
@@ -20074,12 +20758,24 @@
       <c r="L61" s="4">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>38</v>
       </c>
@@ -20116,8 +20812,20 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M64" s="4">
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
@@ -20148,8 +20856,20 @@
       <c r="L65" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M65" s="4">
+        <v>1</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C66" s="4" t="s">
         <v>41</v>
       </c>
@@ -20180,8 +20900,20 @@
       <c r="L66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M66" s="4">
+        <v>1</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+      <c r="O66" s="4">
+        <v>1</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
         <v>42</v>
       </c>
@@ -20212,8 +20944,20 @@
       <c r="L67" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M67" s="4">
+        <v>1</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+      <c r="O67" s="4">
+        <v>1</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>16</v>
       </c>
@@ -20247,8 +20991,20 @@
       <c r="L68" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M68" s="4">
+        <v>1</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4">
+        <v>1</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C69" s="4" t="s">
         <v>40</v>
       </c>
@@ -20279,8 +21035,20 @@
       <c r="L69" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1</v>
+      </c>
+      <c r="O69" s="4">
+        <v>1</v>
+      </c>
+      <c r="P69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
         <v>41</v>
       </c>
@@ -20311,8 +21079,20 @@
       <c r="L70" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M70" s="4">
+        <v>1</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
         <v>42</v>
       </c>
@@ -20343,8 +21123,20 @@
       <c r="L71" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M71" s="4">
+        <v>1</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1</v>
+      </c>
+      <c r="O71" s="4">
+        <v>1</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>17</v>
       </c>
@@ -20378,8 +21170,20 @@
       <c r="L72" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M72" s="4">
+        <v>1</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C73" s="4" t="s">
         <v>40</v>
       </c>
@@ -20410,8 +21214,20 @@
       <c r="L73" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M73" s="4">
+        <v>1</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C74" s="4" t="s">
         <v>41</v>
       </c>
@@ -20442,8 +21258,20 @@
       <c r="L74" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M74" s="4">
+        <v>1</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C75" s="4" t="s">
         <v>42</v>
       </c>
@@ -20474,8 +21302,20 @@
       <c r="L75" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>22</v>
       </c>
@@ -20509,8 +21349,20 @@
       <c r="L76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="O76" s="4">
+        <v>1</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C77" s="4" t="s">
         <v>40</v>
       </c>
@@ -20541,8 +21393,20 @@
       <c r="L77" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77" s="4">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C78" s="4" t="s">
         <v>41</v>
       </c>
@@ -20573,8 +21437,20 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M78" s="4">
+        <v>1</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
         <v>42</v>
       </c>
@@ -20605,8 +21481,20 @@
       <c r="L79" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1</v>
+      </c>
+      <c r="O79" s="4">
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>28</v>
       </c>
@@ -20640,8 +21528,20 @@
       <c r="L80" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M80" s="4">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4">
+        <v>1</v>
+      </c>
+      <c r="O80" s="4">
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C81" s="4" t="s">
         <v>40</v>
       </c>
@@ -20672,8 +21572,20 @@
       <c r="L81" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M81" s="4">
+        <v>1</v>
+      </c>
+      <c r="N81" s="4">
+        <v>1</v>
+      </c>
+      <c r="O81" s="4">
+        <v>1</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C82" s="4" t="s">
         <v>41</v>
       </c>
@@ -20704,8 +21616,20 @@
       <c r="L82" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M82" s="4">
+        <v>1</v>
+      </c>
+      <c r="N82" s="4">
+        <v>1</v>
+      </c>
+      <c r="O82" s="4">
+        <v>1</v>
+      </c>
+      <c r="P82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C83" s="4" t="s">
         <v>42</v>
       </c>
@@ -20736,8 +21660,20 @@
       <c r="L83" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M83" s="4">
+        <v>1</v>
+      </c>
+      <c r="N83" s="4">
+        <v>1</v>
+      </c>
+      <c r="O83" s="4">
+        <v>1</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>30</v>
       </c>
@@ -20771,8 +21707,20 @@
       <c r="L84" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M84" s="4">
+        <v>1</v>
+      </c>
+      <c r="N84" s="4">
+        <v>1</v>
+      </c>
+      <c r="O84" s="4">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
@@ -20803,8 +21751,20 @@
       <c r="L85" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M85" s="4">
+        <v>1</v>
+      </c>
+      <c r="N85" s="4">
+        <v>1</v>
+      </c>
+      <c r="O85" s="4">
+        <v>1</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14